--- a/PossibleRemoveMetrics/rollingTrainMetrics.xlsx
+++ b/PossibleRemoveMetrics/rollingTrainMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,22 +496,22 @@
         <v>0.612</v>
       </c>
       <c r="E2" t="n">
-        <v>0.267</v>
+        <v>0.239</v>
       </c>
       <c r="F2" t="n">
-        <v>0.194</v>
+        <v>0.163</v>
       </c>
       <c r="G2" t="n">
-        <v>0.475</v>
+        <v>0.494</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.703</v>
       </c>
       <c r="I2" t="n">
-        <v>0.525</v>
+        <v>0.541</v>
       </c>
       <c r="J2" t="n">
-        <v>0.517</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.58</v>
+        <v>0.574</v>
       </c>
       <c r="C3" t="n">
-        <v>0.698</v>
+        <v>0.695</v>
       </c>
       <c r="D3" t="n">
         <v>0.554</v>
       </c>
       <c r="E3" t="n">
-        <v>0.885</v>
+        <v>0.876</v>
       </c>
       <c r="F3" t="n">
-        <v>0.874</v>
+        <v>0.864</v>
       </c>
       <c r="G3" t="n">
-        <v>0.074</v>
+        <v>0.08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.272</v>
+        <v>0.283</v>
       </c>
       <c r="I3" t="n">
-        <v>0.196</v>
+        <v>0.198</v>
       </c>
       <c r="J3" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +564,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.871</v>
+        <v>0.861</v>
       </c>
       <c r="F4" t="n">
-        <v>0.858</v>
+        <v>0.847</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H4" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="I4" t="n">
-        <v>0.205</v>
+        <v>0.222</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -598,28 +598,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.856</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.846</v>
+        <v>0.927</v>
       </c>
       <c r="G5" t="n">
-        <v>0.098</v>
+        <v>0.046</v>
       </c>
       <c r="H5" t="n">
-        <v>0.313</v>
+        <v>0.214</v>
       </c>
       <c r="I5" t="n">
-        <v>0.25</v>
+        <v>0.166</v>
       </c>
       <c r="J5" t="n">
-        <v>0.944</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ensemble200</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -632,22 +632,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.502</v>
+        <v>0.553</v>
       </c>
       <c r="F6" t="n">
-        <v>0.452</v>
+        <v>0.509</v>
       </c>
       <c r="G6" t="n">
-        <v>0.323</v>
+        <v>0.29</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.539</v>
       </c>
       <c r="I6" t="n">
-        <v>0.421</v>
+        <v>0.407</v>
       </c>
       <c r="J6" t="n">
-        <v>0.846</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +666,22 @@
         <v>0.704</v>
       </c>
       <c r="E7" t="n">
-        <v>0.367</v>
+        <v>0.343</v>
       </c>
       <c r="F7" t="n">
-        <v>0.307</v>
+        <v>0.281</v>
       </c>
       <c r="G7" t="n">
-        <v>0.627</v>
+        <v>0.651</v>
       </c>
       <c r="H7" t="n">
-        <v>0.792</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.597</v>
+        <v>0.62</v>
       </c>
       <c r="J7" t="n">
-        <v>0.606</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.872</v>
+        <v>0.876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.643</v>
+        <v>0.639</v>
       </c>
       <c r="E8" t="n">
-        <v>0.903</v>
+        <v>0.896</v>
       </c>
       <c r="F8" t="n">
-        <v>0.894</v>
+        <v>0.886</v>
       </c>
       <c r="G8" t="n">
-        <v>0.096</v>
+        <v>0.104</v>
       </c>
       <c r="H8" t="n">
-        <v>0.31</v>
+        <v>0.322</v>
       </c>
       <c r="I8" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="J8" t="n">
-        <v>0.978</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +734,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.981</v>
+        <v>-0.046</v>
       </c>
       <c r="F9" t="n">
-        <v>1.019</v>
+        <v>2.046</v>
       </c>
       <c r="G9" t="n">
-        <v>0.129</v>
+        <v>7.218</v>
       </c>
       <c r="H9" t="n">
-        <v>0.359</v>
+        <v>2.687</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3</v>
+        <v>1.983</v>
       </c>
       <c r="J9" t="n">
-        <v>0.997</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="10">
@@ -768,28 +768,28 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.987</v>
+        <v>0.65</v>
       </c>
       <c r="F10" t="n">
-        <v>1.039</v>
+        <v>2.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08699999999999999</v>
+        <v>2.414</v>
       </c>
       <c r="H10" t="n">
-        <v>0.295</v>
+        <v>1.554</v>
       </c>
       <c r="I10" t="n">
-        <v>0.247</v>
+        <v>1.243</v>
       </c>
       <c r="J10" t="n">
-        <v>0.998</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Ensemble210</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.539</v>
+        <v>0.616</v>
       </c>
       <c r="F11" t="n">
-        <v>0.496</v>
+        <v>0.58</v>
       </c>
       <c r="G11" t="n">
-        <v>0.457</v>
+        <v>0.381</v>
       </c>
       <c r="H11" t="n">
-        <v>0.676</v>
+        <v>0.617</v>
       </c>
       <c r="I11" t="n">
-        <v>0.484</v>
+        <v>0.454</v>
       </c>
       <c r="J11" t="n">
-        <v>0.863</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +836,22 @@
         <v>0.724</v>
       </c>
       <c r="E12" t="n">
-        <v>0.341</v>
+        <v>0.311</v>
       </c>
       <c r="F12" t="n">
-        <v>0.282</v>
+        <v>0.249</v>
       </c>
       <c r="G12" t="n">
-        <v>0.643</v>
+        <v>0.672</v>
       </c>
       <c r="H12" t="n">
-        <v>0.802</v>
+        <v>0.82</v>
       </c>
       <c r="I12" t="n">
-        <v>0.604</v>
+        <v>0.635</v>
       </c>
       <c r="J12" t="n">
-        <v>0.584</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="13">
@@ -861,28 +861,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.803</v>
+        <v>0.832</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="D13" t="n">
-        <v>0.622</v>
+        <v>0.631</v>
       </c>
       <c r="E13" t="n">
-        <v>0.902</v>
+        <v>0.897</v>
       </c>
       <c r="F13" t="n">
-        <v>0.893</v>
+        <v>0.888</v>
       </c>
       <c r="G13" t="n">
-        <v>0.096</v>
+        <v>0.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.31</v>
+        <v>0.316</v>
       </c>
       <c r="I13" t="n">
-        <v>0.213</v>
+        <v>0.222</v>
       </c>
       <c r="J13" t="n">
         <v>0.977</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.773</v>
+        <v>-0.015</v>
       </c>
       <c r="F14" t="n">
-        <v>1.227</v>
+        <v>2.015</v>
       </c>
       <c r="G14" t="n">
-        <v>0.144</v>
+        <v>0.645</v>
       </c>
       <c r="H14" t="n">
-        <v>0.379</v>
+        <v>0.803</v>
       </c>
       <c r="I14" t="n">
-        <v>0.245</v>
+        <v>0.658</v>
       </c>
       <c r="J14" t="n">
-        <v>0.901</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="15">
@@ -938,28 +938,28 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.931</v>
+        <v>-0.669</v>
       </c>
       <c r="F15" t="n">
-        <v>1.207</v>
+        <v>6.007</v>
       </c>
       <c r="G15" t="n">
-        <v>0.044</v>
+        <v>1.06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>1.03</v>
       </c>
       <c r="I15" t="n">
-        <v>0.141</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>0.99</v>
+        <v>-0.229</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Ensemble220</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -972,22 +972,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.599</v>
+        <v>0.598</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="H16" t="n">
-        <v>0.625</v>
+        <v>0.626</v>
       </c>
       <c r="I16" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="J16" t="n">
-        <v>0.849</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +1006,22 @@
         <v>0.707</v>
       </c>
       <c r="E17" t="n">
-        <v>0.332</v>
+        <v>0.307</v>
       </c>
       <c r="F17" t="n">
-        <v>0.275</v>
+        <v>0.248</v>
       </c>
       <c r="G17" t="n">
-        <v>0.63</v>
+        <v>0.654</v>
       </c>
       <c r="H17" t="n">
-        <v>0.794</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.601</v>
+        <v>0.624</v>
       </c>
       <c r="J17" t="n">
-        <v>0.576</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="18">
@@ -1031,31 +1031,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.824</v>
+        <v>0.821</v>
       </c>
       <c r="D18" t="n">
-        <v>0.642</v>
+        <v>0.633</v>
       </c>
       <c r="E18" t="n">
-        <v>0.905</v>
+        <v>0.902</v>
       </c>
       <c r="F18" t="n">
-        <v>0.897</v>
+        <v>0.894</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
       <c r="I18" t="n">
-        <v>0.214</v>
+        <v>0.218</v>
       </c>
       <c r="J18" t="n">
-        <v>0.979</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.51</v>
+        <v>-0.335</v>
       </c>
       <c r="F19" t="n">
-        <v>1.49</v>
+        <v>2.335</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.233</v>
       </c>
       <c r="H19" t="n">
-        <v>0.292</v>
+        <v>0.483</v>
       </c>
       <c r="I19" t="n">
-        <v>0.204</v>
+        <v>0.408</v>
       </c>
       <c r="J19" t="n">
-        <v>0.747</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="20">
@@ -1108,28 +1108,28 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.949</v>
+        <v>-1.078</v>
       </c>
       <c r="F20" t="n">
-        <v>1.153</v>
+        <v>7.234</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="H20" t="n">
-        <v>0.095</v>
+        <v>0.602</v>
       </c>
       <c r="I20" t="n">
-        <v>0.077</v>
+        <v>0.522</v>
       </c>
       <c r="J20" t="n">
-        <v>0.982</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Ensemble230</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1142,22 +1142,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.591</v>
+        <v>0.593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.556</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="H21" t="n">
         <v>0.62</v>
       </c>
       <c r="I21" t="n">
-        <v>0.448</v>
+        <v>0.459</v>
       </c>
       <c r="J21" t="n">
-        <v>0.854</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1176,22 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.328</v>
+        <v>0.303</v>
       </c>
       <c r="F22" t="n">
-        <v>0.273</v>
+        <v>0.246</v>
       </c>
       <c r="G22" t="n">
-        <v>0.635</v>
+        <v>0.658</v>
       </c>
       <c r="H22" t="n">
-        <v>0.797</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6</v>
+        <v>0.622</v>
       </c>
       <c r="J22" t="n">
-        <v>0.573</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1201,28 +1201,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.783</v>
+        <v>0.777</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="D23" t="n">
-        <v>0.623</v>
+        <v>0.612</v>
       </c>
       <c r="E23" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="F23" t="n">
-        <v>0.886</v>
+        <v>0.892</v>
       </c>
       <c r="G23" t="n">
-        <v>0.099</v>
+        <v>0.094</v>
       </c>
       <c r="H23" t="n">
-        <v>0.315</v>
+        <v>0.307</v>
       </c>
       <c r="I23" t="n">
-        <v>0.22</v>
+        <v>0.219</v>
       </c>
       <c r="J23" t="n">
         <v>0.977</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.318</v>
+        <v>0.164</v>
       </c>
       <c r="F24" t="n">
-        <v>1.682</v>
+        <v>1.836</v>
       </c>
       <c r="G24" t="n">
-        <v>0.536</v>
+        <v>0.657</v>
       </c>
       <c r="H24" t="n">
-        <v>0.732</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>0.453</v>
+        <v>0.596</v>
       </c>
       <c r="J24" t="n">
-        <v>0.579</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="25">
@@ -1278,28 +1278,28 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.981</v>
+        <v>0.224</v>
       </c>
       <c r="F25" t="n">
-        <v>1.057</v>
+        <v>3.328</v>
       </c>
       <c r="G25" t="n">
-        <v>0.015</v>
+        <v>0.61</v>
       </c>
       <c r="H25" t="n">
-        <v>0.122</v>
+        <v>0.781</v>
       </c>
       <c r="I25" t="n">
-        <v>0.099</v>
+        <v>0.657</v>
       </c>
       <c r="J25" t="n">
-        <v>0.995</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Ensemble240</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1312,22 +1312,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.58</v>
+        <v>0.598</v>
       </c>
       <c r="F26" t="n">
-        <v>0.546</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.397</v>
+        <v>0.379</v>
       </c>
       <c r="H26" t="n">
-        <v>0.63</v>
+        <v>0.616</v>
       </c>
       <c r="I26" t="n">
-        <v>0.447</v>
+        <v>0.454</v>
       </c>
       <c r="J26" t="n">
-        <v>0.857</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1346,22 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.329</v>
+        <v>0.31</v>
       </c>
       <c r="F27" t="n">
-        <v>0.277</v>
+        <v>0.256</v>
       </c>
       <c r="G27" t="n">
-        <v>0.633</v>
+        <v>0.651</v>
       </c>
       <c r="H27" t="n">
-        <v>0.796</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6</v>
+        <v>0.619</v>
       </c>
       <c r="J27" t="n">
-        <v>0.574</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="28">
@@ -1371,28 +1371,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.803</v>
       </c>
       <c r="C28" t="n">
-        <v>0.824</v>
+        <v>0.821</v>
       </c>
       <c r="D28" t="n">
-        <v>0.625</v>
+        <v>0.623</v>
       </c>
       <c r="E28" t="n">
-        <v>0.905</v>
+        <v>0.901</v>
       </c>
       <c r="F28" t="n">
-        <v>0.898</v>
+        <v>0.893</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09</v>
+        <v>0.094</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="I28" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="J28" t="n">
         <v>0.977</v>
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.961</v>
+        <v>0.43</v>
       </c>
       <c r="F29" t="n">
-        <v>1.039</v>
+        <v>1.57</v>
       </c>
       <c r="G29" t="n">
-        <v>0.034</v>
+        <v>0.505</v>
       </c>
       <c r="H29" t="n">
-        <v>0.184</v>
+        <v>0.711</v>
       </c>
       <c r="I29" t="n">
-        <v>0.161</v>
+        <v>0.604</v>
       </c>
       <c r="J29" t="n">
-        <v>0.992</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="30">
@@ -1448,28 +1448,28 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.965</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>1.105</v>
+        <v>1.954</v>
       </c>
       <c r="G30" t="n">
-        <v>0.031</v>
+        <v>0.282</v>
       </c>
       <c r="H30" t="n">
-        <v>0.176</v>
+        <v>0.531</v>
       </c>
       <c r="I30" t="n">
-        <v>0.137</v>
+        <v>0.45</v>
       </c>
       <c r="J30" t="n">
-        <v>0.992</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Ensemble250</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1482,22 +1482,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.591</v>
+        <v>0.589</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="H31" t="n">
-        <v>0.621</v>
+        <v>0.623</v>
       </c>
       <c r="I31" t="n">
-        <v>0.456</v>
+        <v>0.453</v>
       </c>
       <c r="J31" t="n">
-        <v>0.866</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1516,22 @@
         <v>0.695</v>
       </c>
       <c r="E32" t="n">
-        <v>0.341</v>
+        <v>0.323</v>
       </c>
       <c r="F32" t="n">
-        <v>0.292</v>
+        <v>0.272</v>
       </c>
       <c r="G32" t="n">
-        <v>0.631</v>
+        <v>0.648</v>
       </c>
       <c r="H32" t="n">
-        <v>0.794</v>
+        <v>0.805</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6</v>
+        <v>0.619</v>
       </c>
       <c r="J32" t="n">
-        <v>0.584</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="33">
@@ -1541,31 +1541,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.867</v>
+        <v>0.864</v>
       </c>
       <c r="C33" t="n">
-        <v>0.844</v>
+        <v>0.843</v>
       </c>
       <c r="D33" t="n">
-        <v>0.65</v>
+        <v>0.655</v>
       </c>
       <c r="E33" t="n">
-        <v>0.907</v>
+        <v>0.903</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9</v>
+        <v>0.896</v>
       </c>
       <c r="G33" t="n">
-        <v>0.089</v>
+        <v>0.093</v>
       </c>
       <c r="H33" t="n">
-        <v>0.298</v>
+        <v>0.305</v>
       </c>
       <c r="I33" t="n">
-        <v>0.215</v>
+        <v>0.217</v>
       </c>
       <c r="J33" t="n">
-        <v>0.978</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1584,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.93</v>
+        <v>0.292</v>
       </c>
       <c r="F34" t="n">
-        <v>1.07</v>
+        <v>1.708</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.887</v>
       </c>
       <c r="H34" t="n">
-        <v>0.295</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>0.246</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>0.985</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="35">
@@ -1618,28 +1618,28 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.964</v>
+        <v>0.512</v>
       </c>
       <c r="F35" t="n">
-        <v>1.108</v>
+        <v>2.464</v>
       </c>
       <c r="G35" t="n">
-        <v>0.045</v>
+        <v>0.611</v>
       </c>
       <c r="H35" t="n">
-        <v>0.212</v>
+        <v>0.782</v>
       </c>
       <c r="I35" t="n">
-        <v>0.174</v>
+        <v>0.677</v>
       </c>
       <c r="J35" t="n">
-        <v>0.989</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Ensemble260</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.601</v>
+        <v>0.606</v>
       </c>
       <c r="F36" t="n">
-        <v>0.571</v>
+        <v>0.577</v>
       </c>
       <c r="G36" t="n">
-        <v>0.382</v>
+        <v>0.377</v>
       </c>
       <c r="H36" t="n">
-        <v>0.618</v>
+        <v>0.614</v>
       </c>
       <c r="I36" t="n">
-        <v>0.451</v>
+        <v>0.454</v>
       </c>
       <c r="J36" t="n">
-        <v>0.849</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1686,22 @@
         <v>0.678</v>
       </c>
       <c r="E37" t="n">
-        <v>0.342</v>
+        <v>0.324</v>
       </c>
       <c r="F37" t="n">
-        <v>0.295</v>
+        <v>0.276</v>
       </c>
       <c r="G37" t="n">
-        <v>0.617</v>
+        <v>0.635</v>
       </c>
       <c r="H37" t="n">
-        <v>0.785</v>
+        <v>0.797</v>
       </c>
       <c r="I37" t="n">
-        <v>0.593</v>
+        <v>0.614</v>
       </c>
       <c r="J37" t="n">
-        <v>0.585</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="38">
@@ -1711,31 +1711,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.802</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.634</v>
+        <v>0.64</v>
       </c>
       <c r="E38" t="n">
-        <v>0.891</v>
+        <v>0.906</v>
       </c>
       <c r="F38" t="n">
-        <v>0.883</v>
+        <v>0.899</v>
       </c>
       <c r="G38" t="n">
-        <v>0.102</v>
+        <v>0.089</v>
       </c>
       <c r="H38" t="n">
-        <v>0.319</v>
+        <v>0.298</v>
       </c>
       <c r="I38" t="n">
-        <v>0.225</v>
+        <v>0.216</v>
       </c>
       <c r="J38" t="n">
-        <v>0.974</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1754,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.849</v>
+        <v>0.236</v>
       </c>
       <c r="F39" t="n">
-        <v>1.151</v>
+        <v>1.764</v>
       </c>
       <c r="G39" t="n">
-        <v>0.052</v>
+        <v>0.262</v>
       </c>
       <c r="H39" t="n">
-        <v>0.228</v>
+        <v>0.512</v>
       </c>
       <c r="I39" t="n">
-        <v>0.18</v>
+        <v>0.349</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="40">
@@ -1788,28 +1788,28 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.971</v>
+        <v>0.303</v>
       </c>
       <c r="F40" t="n">
-        <v>1.087</v>
+        <v>3.091</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01</v>
+        <v>0.239</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1</v>
+        <v>0.489</v>
       </c>
       <c r="I40" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.389</v>
       </c>
       <c r="J40" t="n">
-        <v>0.996</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Ensemble270</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1822,22 +1822,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.61</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.582</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.605</v>
-      </c>
       <c r="I41" t="n">
-        <v>0.444</v>
+        <v>0.451</v>
       </c>
       <c r="J41" t="n">
-        <v>0.864</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1856,22 @@
         <v>0.664</v>
       </c>
       <c r="E42" t="n">
-        <v>0.345</v>
+        <v>0.327</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3</v>
+        <v>0.281</v>
       </c>
       <c r="G42" t="n">
-        <v>0.628</v>
+        <v>0.645</v>
       </c>
       <c r="H42" t="n">
-        <v>0.792</v>
+        <v>0.803</v>
       </c>
       <c r="I42" t="n">
-        <v>0.602</v>
+        <v>0.621</v>
       </c>
       <c r="J42" t="n">
-        <v>0.587</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="43">
@@ -1881,28 +1881,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.785</v>
+        <v>0.777</v>
       </c>
       <c r="C43" t="n">
-        <v>0.819</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="E43" t="n">
-        <v>0.908</v>
+        <v>0.896</v>
       </c>
       <c r="F43" t="n">
-        <v>0.902</v>
+        <v>0.889</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.099</v>
       </c>
       <c r="H43" t="n">
-        <v>0.297</v>
+        <v>0.315</v>
       </c>
       <c r="I43" t="n">
-        <v>0.214</v>
+        <v>0.221</v>
       </c>
       <c r="J43" t="n">
         <v>0.975</v>
@@ -1924,22 +1924,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.467</v>
       </c>
       <c r="F44" t="n">
-        <v>1.313</v>
+        <v>1.533</v>
       </c>
       <c r="G44" t="n">
-        <v>0.365</v>
+        <v>0.622</v>
       </c>
       <c r="H44" t="n">
-        <v>0.604</v>
+        <v>0.789</v>
       </c>
       <c r="I44" t="n">
-        <v>0.461</v>
+        <v>0.709</v>
       </c>
       <c r="J44" t="n">
-        <v>0.865</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="45">
@@ -1958,28 +1958,28 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.962</v>
+        <v>0.468</v>
       </c>
       <c r="F45" t="n">
-        <v>1.114</v>
+        <v>2.596</v>
       </c>
       <c r="G45" t="n">
-        <v>0.044</v>
+        <v>0.621</v>
       </c>
       <c r="H45" t="n">
-        <v>0.21</v>
+        <v>0.788</v>
       </c>
       <c r="I45" t="n">
-        <v>0.151</v>
+        <v>0.578</v>
       </c>
       <c r="J45" t="n">
-        <v>0.996</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Ensemble280</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1992,22 +1992,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.611</v>
+        <v>0.608</v>
       </c>
       <c r="F46" t="n">
-        <v>0.584</v>
+        <v>0.581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="H46" t="n">
-        <v>0.611</v>
+        <v>0.612</v>
       </c>
       <c r="I46" t="n">
-        <v>0.449</v>
+        <v>0.454</v>
       </c>
       <c r="J46" t="n">
-        <v>0.858</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +2026,22 @@
         <v>0.6870000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.339</v>
+        <v>0.323</v>
       </c>
       <c r="F47" t="n">
-        <v>0.295</v>
+        <v>0.278</v>
       </c>
       <c r="G47" t="n">
-        <v>0.632</v>
+        <v>0.648</v>
       </c>
       <c r="H47" t="n">
-        <v>0.795</v>
+        <v>0.805</v>
       </c>
       <c r="I47" t="n">
-        <v>0.604</v>
+        <v>0.623</v>
       </c>
       <c r="J47" t="n">
-        <v>0.582</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="48">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.762</v>
+        <v>0.774</v>
       </c>
       <c r="C48" t="n">
-        <v>0.831</v>
+        <v>0.837</v>
       </c>
       <c r="D48" t="n">
-        <v>0.636</v>
+        <v>0.64</v>
       </c>
       <c r="E48" t="n">
-        <v>0.908</v>
+        <v>0.907</v>
       </c>
       <c r="F48" t="n">
-        <v>0.902</v>
+        <v>0.901</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="H48" t="n">
-        <v>0.297</v>
+        <v>0.298</v>
       </c>
       <c r="I48" t="n">
-        <v>0.218</v>
+        <v>0.219</v>
       </c>
       <c r="J48" t="n">
-        <v>0.975</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +2094,22 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.905</v>
+        <v>0.198</v>
       </c>
       <c r="F49" t="n">
-        <v>1.095</v>
+        <v>1.802</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.719</v>
       </c>
       <c r="H49" t="n">
-        <v>0.292</v>
+        <v>0.848</v>
       </c>
       <c r="I49" t="n">
-        <v>0.227</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>0.975</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="50">
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.97</v>
+        <v>0.109</v>
       </c>
       <c r="F50" t="n">
-        <v>1.09</v>
+        <v>3.673</v>
       </c>
       <c r="G50" t="n">
-        <v>0.027</v>
+        <v>0.798</v>
       </c>
       <c r="H50" t="n">
-        <v>0.164</v>
+        <v>0.893</v>
       </c>
       <c r="I50" t="n">
-        <v>0.135</v>
+        <v>0.725</v>
       </c>
       <c r="J50" t="n">
-        <v>0.993</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Ensemble290</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.573</v>
+        <v>0.589</v>
       </c>
       <c r="F51" t="n">
-        <v>0.545</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.409</v>
+        <v>0.393</v>
       </c>
       <c r="H51" t="n">
-        <v>0.64</v>
+        <v>0.627</v>
       </c>
       <c r="I51" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="J51" t="n">
-        <v>0.854</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +2196,22 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.335</v>
+        <v>0.316</v>
       </c>
       <c r="F52" t="n">
-        <v>0.292</v>
+        <v>0.272</v>
       </c>
       <c r="G52" t="n">
-        <v>0.63</v>
+        <v>0.648</v>
       </c>
       <c r="H52" t="n">
-        <v>0.794</v>
+        <v>0.805</v>
       </c>
       <c r="I52" t="n">
-        <v>0.607</v>
+        <v>0.625</v>
       </c>
       <c r="J52" t="n">
-        <v>0.579</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="53">
@@ -2221,31 +2221,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.735</v>
+        <v>0.725</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.629</v>
+        <v>0.626</v>
       </c>
       <c r="E53" t="n">
-        <v>0.911</v>
+        <v>0.908</v>
       </c>
       <c r="F53" t="n">
-        <v>0.905</v>
+        <v>0.902</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0.29</v>
+        <v>0.295</v>
       </c>
       <c r="I53" t="n">
-        <v>0.214</v>
+        <v>0.216</v>
       </c>
       <c r="J53" t="n">
-        <v>0.977</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.973</v>
+        <v>0.402</v>
       </c>
       <c r="F54" t="n">
-        <v>1.027</v>
+        <v>1.598</v>
       </c>
       <c r="G54" t="n">
-        <v>0.017</v>
+        <v>0.377</v>
       </c>
       <c r="H54" t="n">
-        <v>0.13</v>
+        <v>0.614</v>
       </c>
       <c r="I54" t="n">
-        <v>0.104</v>
+        <v>0.49</v>
       </c>
       <c r="J54" t="n">
-        <v>0.988</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="55">
@@ -2298,28 +2298,28 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.988</v>
+        <v>0.511</v>
       </c>
       <c r="F55" t="n">
-        <v>1.036</v>
+        <v>2.467</v>
       </c>
       <c r="G55" t="n">
-        <v>0.007</v>
+        <v>0.309</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="I55" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="J55" t="n">
-        <v>0.996</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Ensemble300</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2332,22 +2332,22 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="F56" t="n">
-        <v>0.537</v>
+        <v>0.578</v>
       </c>
       <c r="G56" t="n">
-        <v>0.412</v>
+        <v>0.376</v>
       </c>
       <c r="H56" t="n">
-        <v>0.642</v>
+        <v>0.613</v>
       </c>
       <c r="I56" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="J56" t="n">
-        <v>0.869</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2366,22 @@
         <v>0.665</v>
       </c>
       <c r="E57" t="n">
-        <v>0.334</v>
+        <v>0.32</v>
       </c>
       <c r="F57" t="n">
-        <v>0.293</v>
+        <v>0.278</v>
       </c>
       <c r="G57" t="n">
-        <v>0.617</v>
+        <v>0.63</v>
       </c>
       <c r="H57" t="n">
-        <v>0.785</v>
+        <v>0.794</v>
       </c>
       <c r="I57" t="n">
-        <v>0.598</v>
+        <v>0.611</v>
       </c>
       <c r="J57" t="n">
-        <v>0.578</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="58">
@@ -2391,13 +2391,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.717</v>
+        <v>0.725</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.819</v>
       </c>
       <c r="D58" t="n">
-        <v>0.623</v>
+        <v>0.625</v>
       </c>
       <c r="E58" t="n">
         <v>0.905</v>
@@ -2412,10 +2412,10 @@
         <v>0.297</v>
       </c>
       <c r="I58" t="n">
-        <v>0.22</v>
+        <v>0.217</v>
       </c>
       <c r="J58" t="n">
-        <v>0.975</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2434,22 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.906</v>
+        <v>0.308</v>
       </c>
       <c r="F59" t="n">
-        <v>1.094</v>
+        <v>1.692</v>
       </c>
       <c r="G59" t="n">
-        <v>0.028</v>
+        <v>0.209</v>
       </c>
       <c r="H59" t="n">
-        <v>0.167</v>
+        <v>0.457</v>
       </c>
       <c r="I59" t="n">
-        <v>0.152</v>
+        <v>0.342</v>
       </c>
       <c r="J59" t="n">
-        <v>0.981</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="60">
@@ -2468,28 +2468,28 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.965</v>
+        <v>0.049</v>
       </c>
       <c r="F60" t="n">
-        <v>1.105</v>
+        <v>3.853</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01</v>
+        <v>0.287</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1</v>
+        <v>0.536</v>
       </c>
       <c r="I60" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.395</v>
       </c>
       <c r="J60" t="n">
-        <v>0.991</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Ensemble310</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2502,22 +2502,22 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.585</v>
+        <v>0.599</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.574</v>
       </c>
       <c r="G61" t="n">
-        <v>0.385</v>
+        <v>0.372</v>
       </c>
       <c r="H61" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I61" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="J61" t="n">
-        <v>0.846</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2536,22 @@
         <v>0.673</v>
       </c>
       <c r="E62" t="n">
-        <v>0.319</v>
+        <v>0.303</v>
       </c>
       <c r="F62" t="n">
-        <v>0.278</v>
+        <v>0.261</v>
       </c>
       <c r="G62" t="n">
-        <v>0.622</v>
+        <v>0.636</v>
       </c>
       <c r="H62" t="n">
-        <v>0.789</v>
+        <v>0.797</v>
       </c>
       <c r="I62" t="n">
-        <v>0.602</v>
+        <v>0.617</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2561,31 +2561,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.718</v>
+        <v>0.726</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.623</v>
+        <v>0.626</v>
       </c>
       <c r="E63" t="n">
-        <v>0.908</v>
+        <v>0.905</v>
       </c>
       <c r="F63" t="n">
-        <v>0.902</v>
+        <v>0.899</v>
       </c>
       <c r="G63" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0.29</v>
+        <v>0.295</v>
       </c>
       <c r="I63" t="n">
-        <v>0.219</v>
+        <v>0.216</v>
       </c>
       <c r="J63" t="n">
-        <v>0.976</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2604,22 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.875</v>
+        <v>0.213</v>
       </c>
       <c r="F64" t="n">
-        <v>1.125</v>
+        <v>1.787</v>
       </c>
       <c r="G64" t="n">
-        <v>0.061</v>
+        <v>0.384</v>
       </c>
       <c r="H64" t="n">
-        <v>0.247</v>
+        <v>0.62</v>
       </c>
       <c r="I64" t="n">
-        <v>0.179</v>
+        <v>0.442</v>
       </c>
       <c r="J64" t="n">
-        <v>0.966</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="65">
@@ -2638,28 +2638,28 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.971</v>
+        <v>0.396</v>
       </c>
       <c r="F65" t="n">
-        <v>1.087</v>
+        <v>2.812</v>
       </c>
       <c r="G65" t="n">
-        <v>0.014</v>
+        <v>0.295</v>
       </c>
       <c r="H65" t="n">
-        <v>0.118</v>
+        <v>0.543</v>
       </c>
       <c r="I65" t="n">
-        <v>0.09</v>
+        <v>0.438</v>
       </c>
       <c r="J65" t="n">
-        <v>0.993</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Ensemble320</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2672,22 +2672,22 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.574</v>
+        <v>0.591</v>
       </c>
       <c r="F66" t="n">
-        <v>0.549</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>0.389</v>
+        <v>0.374</v>
       </c>
       <c r="H66" t="n">
-        <v>0.624</v>
+        <v>0.612</v>
       </c>
       <c r="I66" t="n">
-        <v>0.464</v>
+        <v>0.457</v>
       </c>
       <c r="J66" t="n">
-        <v>0.842</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2706,22 @@
         <v>0.671</v>
       </c>
       <c r="E67" t="n">
-        <v>0.32</v>
+        <v>0.307</v>
       </c>
       <c r="F67" t="n">
-        <v>0.281</v>
+        <v>0.267</v>
       </c>
       <c r="G67" t="n">
-        <v>0.614</v>
+        <v>0.626</v>
       </c>
       <c r="H67" t="n">
-        <v>0.784</v>
+        <v>0.791</v>
       </c>
       <c r="I67" t="n">
-        <v>0.597</v>
+        <v>0.611</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -2731,31 +2731,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.766</v>
+        <v>0.752</v>
       </c>
       <c r="C68" t="n">
-        <v>0.834</v>
+        <v>0.828</v>
       </c>
       <c r="D68" t="n">
-        <v>0.645</v>
+        <v>0.641</v>
       </c>
       <c r="E68" t="n">
-        <v>0.907</v>
+        <v>0.903</v>
       </c>
       <c r="F68" t="n">
-        <v>0.902</v>
+        <v>0.897</v>
       </c>
       <c r="G68" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0.29</v>
+        <v>0.297</v>
       </c>
       <c r="I68" t="n">
-        <v>0.216</v>
+        <v>0.219</v>
       </c>
       <c r="J68" t="n">
-        <v>0.972</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2774,22 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.97</v>
+        <v>0.103</v>
       </c>
       <c r="F69" t="n">
-        <v>1.03</v>
+        <v>1.897</v>
       </c>
       <c r="G69" t="n">
-        <v>0.015</v>
+        <v>0.448</v>
       </c>
       <c r="H69" t="n">
-        <v>0.122</v>
+        <v>0.669</v>
       </c>
       <c r="I69" t="n">
-        <v>0.09</v>
+        <v>0.485</v>
       </c>
       <c r="J69" t="n">
-        <v>0.997</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="70">
@@ -2808,28 +2808,28 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.98</v>
+        <v>0.066</v>
       </c>
       <c r="F70" t="n">
-        <v>1.06</v>
+        <v>3.802</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01</v>
+        <v>0.467</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>0.079</v>
+        <v>0.518</v>
       </c>
       <c r="J70" t="n">
-        <v>0.995</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Ensemble330</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.586</v>
       </c>
-      <c r="F71" t="n">
-        <v>0.5620000000000001</v>
-      </c>
       <c r="G71" t="n">
-        <v>0.374</v>
+        <v>0.353</v>
       </c>
       <c r="H71" t="n">
-        <v>0.612</v>
+        <v>0.594</v>
       </c>
       <c r="I71" t="n">
-        <v>0.449</v>
+        <v>0.446</v>
       </c>
       <c r="J71" t="n">
-        <v>0.858</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2876,22 @@
         <v>0.664</v>
       </c>
       <c r="E72" t="n">
-        <v>0.32</v>
+        <v>0.306</v>
       </c>
       <c r="F72" t="n">
-        <v>0.282</v>
+        <v>0.267</v>
       </c>
       <c r="G72" t="n">
-        <v>0.604</v>
+        <v>0.617</v>
       </c>
       <c r="H72" t="n">
-        <v>0.777</v>
+        <v>0.785</v>
       </c>
       <c r="I72" t="n">
-        <v>0.592</v>
+        <v>0.606</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -2901,31 +2901,31 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.698</v>
+        <v>0.701</v>
       </c>
       <c r="C73" t="n">
-        <v>0.802</v>
+        <v>0.803</v>
       </c>
       <c r="D73" t="n">
-        <v>0.616</v>
+        <v>0.61</v>
       </c>
       <c r="E73" t="n">
-        <v>0.904</v>
+        <v>0.908</v>
       </c>
       <c r="F73" t="n">
-        <v>0.899</v>
+        <v>0.903</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="H73" t="n">
-        <v>0.292</v>
+        <v>0.285</v>
       </c>
       <c r="I73" t="n">
-        <v>0.216</v>
+        <v>0.213</v>
       </c>
       <c r="J73" t="n">
-        <v>0.974</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2944,22 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1.061</v>
+        <v>1.436</v>
       </c>
       <c r="G74" t="n">
-        <v>0.024</v>
+        <v>0.172</v>
       </c>
       <c r="H74" t="n">
-        <v>0.155</v>
+        <v>0.415</v>
       </c>
       <c r="I74" t="n">
-        <v>0.135</v>
+        <v>0.31</v>
       </c>
       <c r="J74" t="n">
-        <v>0.998</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="75">
@@ -2978,28 +2978,28 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.971</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>1.087</v>
+        <v>1.93</v>
       </c>
       <c r="G75" t="n">
-        <v>0.011</v>
+        <v>0.122</v>
       </c>
       <c r="H75" t="n">
-        <v>0.105</v>
+        <v>0.349</v>
       </c>
       <c r="I75" t="n">
-        <v>0.097</v>
+        <v>0.303</v>
       </c>
       <c r="J75" t="n">
-        <v>0.99</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Ensemble340</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3012,72 +3012,72 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.603</v>
+        <v>0.592</v>
       </c>
       <c r="F76" t="n">
-        <v>0.581</v>
+        <v>0.569</v>
       </c>
       <c r="G76" t="n">
-        <v>0.352</v>
+        <v>0.363</v>
       </c>
       <c r="H76" t="n">
-        <v>0.593</v>
+        <v>0.602</v>
       </c>
       <c r="I76" t="n">
-        <v>0.445</v>
+        <v>0.452</v>
       </c>
       <c r="J76" t="n">
-        <v>0.861</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>LR340</t>
+          <t>LR342</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.791</v>
+        <v>0.729</v>
       </c>
       <c r="C77" t="n">
-        <v>0.862</v>
+        <v>0.833</v>
       </c>
       <c r="D77" t="n">
-        <v>0.664</v>
+        <v>0.645</v>
       </c>
       <c r="E77" t="n">
-        <v>0.32</v>
+        <v>0.306</v>
       </c>
       <c r="F77" t="n">
-        <v>0.282</v>
+        <v>0.267</v>
       </c>
       <c r="G77" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="I77" t="n">
         <v>0.604</v>
       </c>
-      <c r="H77" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.592</v>
-      </c>
       <c r="J77" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>RF340</t>
+          <t>RF342</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.711</v>
+        <v>0.668</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.787</v>
       </c>
       <c r="D78" t="n">
-        <v>0.621</v>
+        <v>0.604</v>
       </c>
       <c r="E78" t="n">
         <v>0.907</v>
@@ -3095,13 +3095,13 @@
         <v>0.209</v>
       </c>
       <c r="J78" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>NN340</t>
+          <t>NN342</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.225</v>
+        <v>-4.594</v>
       </c>
       <c r="F79" t="n">
-        <v>1.046</v>
+        <v>1.329</v>
       </c>
       <c r="G79" t="n">
-        <v>0.002</v>
+        <v>0.152</v>
       </c>
       <c r="H79" t="n">
-        <v>0.045</v>
+        <v>0.39</v>
       </c>
       <c r="I79" t="n">
-        <v>0.035</v>
+        <v>0.299</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,19 +3148,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.417</v>
+        <v>-5.038</v>
       </c>
       <c r="F80" t="n">
-        <v>1.311</v>
+        <v>1.549</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01</v>
+        <v>0.164</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1</v>
+        <v>0.405</v>
       </c>
       <c r="I80" t="n">
-        <v>0.074</v>
+        <v>0.355</v>
       </c>
       <c r="J80" t="n">
         <v>-1</v>
@@ -3169,7 +3169,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Ensemble340</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3182,38 +3182,38 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.544</v>
+        <v>0.587</v>
       </c>
       <c r="F81" t="n">
-        <v>0.518</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>0.405</v>
+        <v>0.365</v>
       </c>
       <c r="H81" t="n">
-        <v>0.636</v>
+        <v>0.604</v>
       </c>
       <c r="I81" t="n">
-        <v>0.469</v>
+        <v>0.455</v>
       </c>
       <c r="J81" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>LR342</t>
+          <t>LR344</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.729</v>
+        <v>0.756</v>
       </c>
       <c r="C82" t="n">
-        <v>0.833</v>
+        <v>0.841</v>
       </c>
       <c r="D82" t="n">
-        <v>0.645</v>
+        <v>0.653</v>
       </c>
       <c r="E82" t="n">
         <v>0.32</v>
@@ -3222,56 +3222,56 @@
         <v>0.282</v>
       </c>
       <c r="G82" t="n">
-        <v>0.601</v>
+        <v>0.613</v>
       </c>
       <c r="H82" t="n">
-        <v>0.775</v>
+        <v>0.783</v>
       </c>
       <c r="I82" t="n">
-        <v>0.59</v>
+        <v>0.602</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>RF342</t>
+          <t>RF344</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.659</v>
+        <v>0.746</v>
       </c>
       <c r="C83" t="n">
-        <v>0.783</v>
+        <v>0.82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.605</v>
+        <v>0.632</v>
       </c>
       <c r="E83" t="n">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
       <c r="F83" t="n">
-        <v>0.897</v>
+        <v>0.894</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="H83" t="n">
-        <v>0.295</v>
+        <v>0.3</v>
       </c>
       <c r="I83" t="n">
-        <v>0.213</v>
+        <v>0.222</v>
       </c>
       <c r="J83" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>NN342</t>
+          <t>NN344</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3284,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.796</v>
+        <v>-3.408</v>
       </c>
       <c r="F84" t="n">
-        <v>1.012</v>
+        <v>1.259</v>
       </c>
       <c r="G84" t="n">
-        <v>0.006</v>
+        <v>1.879</v>
       </c>
       <c r="H84" t="n">
-        <v>0.077</v>
+        <v>1.371</v>
       </c>
       <c r="I84" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -3318,19 +3318,19 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.893</v>
+        <v>-5.384</v>
       </c>
       <c r="F85" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="G85" t="n">
-        <v>0.003</v>
+        <v>2.722</v>
       </c>
       <c r="H85" t="n">
-        <v>0.055</v>
+        <v>1.65</v>
       </c>
       <c r="I85" t="n">
-        <v>0.046</v>
+        <v>1.607</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Ensemble342</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3352,96 +3352,96 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.598</v>
+        <v>0.613</v>
       </c>
       <c r="F86" t="n">
-        <v>0.576</v>
+        <v>0.592</v>
       </c>
       <c r="G86" t="n">
-        <v>0.355</v>
+        <v>0.349</v>
       </c>
       <c r="H86" t="n">
-        <v>0.596</v>
+        <v>0.591</v>
       </c>
       <c r="I86" t="n">
-        <v>0.443</v>
+        <v>0.447</v>
       </c>
       <c r="J86" t="n">
-        <v>0.851</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>LR344</t>
+          <t>LR346</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.756</v>
+        <v>0.801</v>
       </c>
       <c r="C87" t="n">
-        <v>0.841</v>
+        <v>0.86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.653</v>
+        <v>0.659</v>
       </c>
       <c r="E87" t="n">
-        <v>0.334</v>
+        <v>0.31</v>
       </c>
       <c r="F87" t="n">
-        <v>0.297</v>
+        <v>0.272</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>0.621</v>
       </c>
       <c r="H87" t="n">
-        <v>0.775</v>
+        <v>0.788</v>
       </c>
       <c r="I87" t="n">
-        <v>0.589</v>
+        <v>0.601</v>
       </c>
       <c r="J87" t="n">
-        <v>0.578</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>RF344</t>
+          <t>RF346</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.763</v>
+        <v>0.714</v>
       </c>
       <c r="C88" t="n">
-        <v>0.831</v>
+        <v>0.801</v>
       </c>
       <c r="D88" t="n">
-        <v>0.643</v>
+        <v>0.617</v>
       </c>
       <c r="E88" t="n">
-        <v>0.907</v>
+        <v>0.902</v>
       </c>
       <c r="F88" t="n">
-        <v>0.902</v>
+        <v>0.897</v>
       </c>
       <c r="G88" t="n">
-        <v>0.083</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0.288</v>
+        <v>0.297</v>
       </c>
       <c r="I88" t="n">
-        <v>0.214</v>
+        <v>0.219</v>
       </c>
       <c r="J88" t="n">
-        <v>0.978</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>NN344</t>
+          <t>NN346</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3454,19 +3454,19 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.714</v>
+        <v>-2.106</v>
       </c>
       <c r="F89" t="n">
-        <v>1.017</v>
+        <v>1.183</v>
       </c>
       <c r="G89" t="n">
-        <v>0.122</v>
+        <v>1.935</v>
       </c>
       <c r="H89" t="n">
-        <v>0.349</v>
+        <v>1.391</v>
       </c>
       <c r="I89" t="n">
-        <v>0.284</v>
+        <v>1.192</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3488,28 +3488,28 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.952</v>
+        <v>-42.037</v>
       </c>
       <c r="F90" t="n">
-        <v>1.004</v>
+        <v>4.912</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02</v>
+        <v>26.814</v>
       </c>
       <c r="H90" t="n">
-        <v>0.141</v>
+        <v>5.178</v>
       </c>
       <c r="I90" t="n">
-        <v>0.125</v>
+        <v>4.729</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Ensemble344</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3522,96 +3522,96 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.578</v>
+        <v>0.581</v>
       </c>
       <c r="F91" t="n">
-        <v>0.555</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="H91" t="n">
-        <v>0.616</v>
+        <v>0.614</v>
       </c>
       <c r="I91" t="n">
-        <v>0.465</v>
+        <v>0.455</v>
       </c>
       <c r="J91" t="n">
-        <v>0.844</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>LR346</t>
+          <t>LR348</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.801</v>
+        <v>0.787</v>
       </c>
       <c r="C92" t="n">
-        <v>0.86</v>
+        <v>0.854</v>
       </c>
       <c r="D92" t="n">
-        <v>0.659</v>
+        <v>0.655</v>
       </c>
       <c r="E92" t="n">
-        <v>0.323</v>
+        <v>0.312</v>
       </c>
       <c r="F92" t="n">
-        <v>0.286</v>
+        <v>0.274</v>
       </c>
       <c r="G92" t="n">
-        <v>0.609</v>
+        <v>0.617</v>
       </c>
       <c r="H92" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="I92" t="n">
-        <v>0.592</v>
+        <v>0.598</v>
       </c>
       <c r="J92" t="n">
-        <v>0.569</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>RF346</t>
+          <t>RF348</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.712</v>
+        <v>0.717</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="D93" t="n">
-        <v>0.619</v>
+        <v>0.62</v>
       </c>
       <c r="E93" t="n">
-        <v>0.909</v>
+        <v>0.906</v>
       </c>
       <c r="F93" t="n">
-        <v>0.904</v>
+        <v>0.901</v>
       </c>
       <c r="G93" t="n">
-        <v>0.082</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0.286</v>
+        <v>0.292</v>
       </c>
       <c r="I93" t="n">
-        <v>0.211</v>
+        <v>0.219</v>
       </c>
       <c r="J93" t="n">
-        <v>0.975</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>NN346</t>
+          <t>NN348</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.922</v>
+        <v>-12.848</v>
       </c>
       <c r="F94" t="n">
-        <v>1.005</v>
+        <v>1.815</v>
       </c>
       <c r="G94" t="n">
-        <v>0.048</v>
+        <v>1.053</v>
       </c>
       <c r="H94" t="n">
-        <v>0.219</v>
+        <v>1.026</v>
       </c>
       <c r="I94" t="n">
-        <v>0.21</v>
+        <v>1.025</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -3658,28 +3658,28 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.782</v>
+        <v>-10.821</v>
       </c>
       <c r="F95" t="n">
-        <v>1.02</v>
+        <v>2.075</v>
       </c>
       <c r="G95" t="n">
-        <v>0.136</v>
+        <v>0.899</v>
       </c>
       <c r="H95" t="n">
-        <v>0.369</v>
+        <v>0.948</v>
       </c>
       <c r="I95" t="n">
-        <v>0.295</v>
+        <v>0.723</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Ensemble346</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3692,96 +3692,96 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.596</v>
+        <v>0.589</v>
       </c>
       <c r="F96" t="n">
-        <v>0.574</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>0.364</v>
+        <v>0.369</v>
       </c>
       <c r="H96" t="n">
-        <v>0.603</v>
+        <v>0.607</v>
       </c>
       <c r="I96" t="n">
-        <v>0.449</v>
+        <v>0.455</v>
       </c>
       <c r="J96" t="n">
-        <v>0.856</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>LR348</t>
+          <t>LR350</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.787</v>
+        <v>0.797</v>
       </c>
       <c r="C97" t="n">
-        <v>0.854</v>
+        <v>0.86</v>
       </c>
       <c r="D97" t="n">
-        <v>0.655</v>
+        <v>0.656</v>
       </c>
       <c r="E97" t="n">
-        <v>0.325</v>
+        <v>0.313</v>
       </c>
       <c r="F97" t="n">
-        <v>0.288</v>
+        <v>0.276</v>
       </c>
       <c r="G97" t="n">
-        <v>0.606</v>
+        <v>0.614</v>
       </c>
       <c r="H97" t="n">
-        <v>0.778</v>
+        <v>0.784</v>
       </c>
       <c r="I97" t="n">
-        <v>0.589</v>
+        <v>0.596</v>
       </c>
       <c r="J97" t="n">
-        <v>0.57</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>RF348</t>
+          <t>RF350</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.705</v>
+        <v>0.696</v>
       </c>
       <c r="C98" t="n">
-        <v>0.797</v>
+        <v>0.789</v>
       </c>
       <c r="D98" t="n">
-        <v>0.615</v>
+        <v>0.608</v>
       </c>
       <c r="E98" t="n">
-        <v>0.905</v>
+        <v>0.903</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0.292</v>
+        <v>0.293</v>
       </c>
       <c r="I98" t="n">
-        <v>0.218</v>
+        <v>0.211</v>
       </c>
       <c r="J98" t="n">
-        <v>0.973</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>NN348</t>
+          <t>NN350</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.885</v>
+        <v>0.27</v>
       </c>
       <c r="F99" t="n">
-        <v>1.007</v>
+        <v>1.043</v>
       </c>
       <c r="G99" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="H99" t="n">
-        <v>0.095</v>
+        <v>0.122</v>
       </c>
       <c r="I99" t="n">
-        <v>0.075</v>
+        <v>0.116</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -3828,28 +3828,28 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.335</v>
+        <v>0.629</v>
       </c>
       <c r="F100" t="n">
-        <v>1.212</v>
+        <v>1.034</v>
       </c>
       <c r="G100" t="n">
-        <v>0.178</v>
+        <v>0.007</v>
       </c>
       <c r="H100" t="n">
-        <v>0.422</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I100" t="n">
-        <v>0.323</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J100" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Ensemble348</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3862,96 +3862,96 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.592</v>
+        <v>0.586</v>
       </c>
       <c r="F101" t="n">
-        <v>0.57</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="H101" t="n">
-        <v>0.605</v>
+        <v>0.608</v>
       </c>
       <c r="I101" t="n">
-        <v>0.457</v>
+        <v>0.449</v>
       </c>
       <c r="J101" t="n">
-        <v>0.839</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LR350</t>
+          <t>LR352</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.797</v>
+        <v>0.769</v>
       </c>
       <c r="C102" t="n">
-        <v>0.86</v>
+        <v>0.844</v>
       </c>
       <c r="D102" t="n">
-        <v>0.656</v>
+        <v>0.649</v>
       </c>
       <c r="E102" t="n">
-        <v>0.325</v>
+        <v>0.314</v>
       </c>
       <c r="F102" t="n">
-        <v>0.288</v>
+        <v>0.277</v>
       </c>
       <c r="G102" t="n">
-        <v>0.602</v>
+        <v>0.61</v>
       </c>
       <c r="H102" t="n">
-        <v>0.776</v>
+        <v>0.781</v>
       </c>
       <c r="I102" t="n">
-        <v>0.587</v>
+        <v>0.593</v>
       </c>
       <c r="J102" t="n">
-        <v>0.57</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>RF350</t>
+          <t>RF352</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.696</v>
+        <v>0.7</v>
       </c>
       <c r="C103" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
       <c r="D103" t="n">
-        <v>0.61</v>
+        <v>0.609</v>
       </c>
       <c r="E103" t="n">
-        <v>0.899</v>
+        <v>0.908</v>
       </c>
       <c r="F103" t="n">
-        <v>0.894</v>
+        <v>0.903</v>
       </c>
       <c r="G103" t="n">
-        <v>0.09</v>
+        <v>0.082</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3</v>
+        <v>0.286</v>
       </c>
       <c r="I103" t="n">
-        <v>0.22</v>
+        <v>0.213</v>
       </c>
       <c r="J103" t="n">
-        <v>0.973</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>NN350</t>
+          <t>NN352</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3964,21 +3964,23 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-0</v>
+        <v>-0.748</v>
       </c>
       <c r="F104" t="n">
-        <v>1.059</v>
+        <v>1.103</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0.141</v>
+        <v>0.297</v>
       </c>
       <c r="I104" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0.262</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3996,28 +3998,28 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.442</v>
+        <v>-10.496</v>
       </c>
       <c r="F105" t="n">
-        <v>1.051</v>
+        <v>2.045</v>
       </c>
       <c r="G105" t="n">
-        <v>0.011</v>
+        <v>0.58</v>
       </c>
       <c r="H105" t="n">
-        <v>0.105</v>
+        <v>0.762</v>
       </c>
       <c r="I105" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Ensemble350</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -4030,72 +4032,72 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.573</v>
+        <v>0.584</v>
       </c>
       <c r="F106" t="n">
-        <v>0.55</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>0.381</v>
+        <v>0.37</v>
       </c>
       <c r="H106" t="n">
-        <v>0.617</v>
+        <v>0.608</v>
       </c>
       <c r="I106" t="n">
-        <v>0.461</v>
+        <v>0.451</v>
       </c>
       <c r="J106" t="n">
-        <v>0.846</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>LR352</t>
+          <t>LR354</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.769</v>
+        <v>0.765</v>
       </c>
       <c r="C107" t="n">
-        <v>0.844</v>
+        <v>0.843</v>
       </c>
       <c r="D107" t="n">
-        <v>0.649</v>
+        <v>0.646</v>
       </c>
       <c r="E107" t="n">
-        <v>0.326</v>
+        <v>0.317</v>
       </c>
       <c r="F107" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="G107" t="n">
-        <v>0.599</v>
+        <v>0.607</v>
       </c>
       <c r="H107" t="n">
-        <v>0.774</v>
+        <v>0.779</v>
       </c>
       <c r="I107" t="n">
-        <v>0.584</v>
+        <v>0.59</v>
       </c>
       <c r="J107" t="n">
-        <v>0.571</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>RF352</t>
+          <t>RF354</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.714</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.799</v>
+        <v>0.786</v>
       </c>
       <c r="D108" t="n">
-        <v>0.617</v>
+        <v>0.611</v>
       </c>
       <c r="E108" t="n">
         <v>0.905</v>
@@ -4104,22 +4106,22 @@
         <v>0.9</v>
       </c>
       <c r="G108" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H108" t="n">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
       <c r="I108" t="n">
-        <v>0.214</v>
+        <v>0.215</v>
       </c>
       <c r="J108" t="n">
-        <v>0.973</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>NN352</t>
+          <t>NN354</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4132,21 +4134,23 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-0</v>
+        <v>-9.507</v>
       </c>
       <c r="F109" t="n">
-        <v>1.059</v>
+        <v>1.618</v>
       </c>
       <c r="G109" t="n">
-        <v>0.05</v>
+        <v>0.328</v>
       </c>
       <c r="H109" t="n">
-        <v>0.224</v>
+        <v>0.573</v>
       </c>
       <c r="I109" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4164,19 +4168,19 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.902</v>
+        <v>0.207</v>
       </c>
       <c r="F110" t="n">
-        <v>1.009</v>
+        <v>1.072</v>
       </c>
       <c r="G110" t="n">
-        <v>0.005</v>
+        <v>0.025</v>
       </c>
       <c r="H110" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="I110" t="n">
-        <v>0.06</v>
+        <v>0.153</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4185,7 +4189,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Ensemble352</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4198,38 +4202,38 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.595</v>
+        <v>0.602</v>
       </c>
       <c r="F111" t="n">
-        <v>0.573</v>
+        <v>0.581</v>
       </c>
       <c r="G111" t="n">
-        <v>0.361</v>
+        <v>0.353</v>
       </c>
       <c r="H111" t="n">
-        <v>0.601</v>
+        <v>0.594</v>
       </c>
       <c r="I111" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="J111" t="n">
-        <v>0.843</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>LR354</t>
+          <t>LR356</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.765</v>
+        <v>0.797</v>
       </c>
       <c r="C112" t="n">
-        <v>0.843</v>
+        <v>0.859</v>
       </c>
       <c r="D112" t="n">
-        <v>0.646</v>
+        <v>0.658</v>
       </c>
       <c r="E112" t="n">
         <v>0.329</v>
@@ -4238,56 +4242,56 @@
         <v>0.293</v>
       </c>
       <c r="G112" t="n">
-        <v>0.596</v>
+        <v>0.604</v>
       </c>
       <c r="H112" t="n">
-        <v>0.772</v>
+        <v>0.777</v>
       </c>
       <c r="I112" t="n">
-        <v>0.582</v>
+        <v>0.589</v>
       </c>
       <c r="J112" t="n">
-        <v>0.574</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>RF354</t>
+          <t>RF356</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.695</v>
+        <v>0.719</v>
       </c>
       <c r="C113" t="n">
-        <v>0.791</v>
+        <v>0.803</v>
       </c>
       <c r="D113" t="n">
-        <v>0.617</v>
+        <v>0.623</v>
       </c>
       <c r="E113" t="n">
-        <v>0.91</v>
+        <v>0.901</v>
       </c>
       <c r="F113" t="n">
-        <v>0.905</v>
+        <v>0.896</v>
       </c>
       <c r="G113" t="n">
-        <v>0.08</v>
+        <v>0.089</v>
       </c>
       <c r="H113" t="n">
-        <v>0.283</v>
+        <v>0.298</v>
       </c>
       <c r="I113" t="n">
-        <v>0.211</v>
+        <v>0.216</v>
       </c>
       <c r="J113" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NN354</t>
+          <t>NN356</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4300,21 +4304,23 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.005</v>
+        <v>-50.668</v>
       </c>
       <c r="F114" t="n">
-        <v>1.059</v>
+        <v>4.039</v>
       </c>
       <c r="G114" t="n">
-        <v>0.031</v>
+        <v>1.396</v>
       </c>
       <c r="H114" t="n">
-        <v>0.176</v>
+        <v>1.182</v>
       </c>
       <c r="I114" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>1.167</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -4332,28 +4338,28 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.83</v>
+        <v>-24.421</v>
       </c>
       <c r="F115" t="n">
-        <v>1.015</v>
+        <v>3.311</v>
       </c>
       <c r="G115" t="n">
-        <v>0.005</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.829</v>
       </c>
       <c r="I115" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Ensemble354</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4366,87 +4372,87 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.584</v>
       </c>
       <c r="G116" t="n">
-        <v>0.364</v>
+        <v>0.355</v>
       </c>
       <c r="H116" t="n">
-        <v>0.603</v>
+        <v>0.596</v>
       </c>
       <c r="I116" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="J116" t="n">
-        <v>0.859</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>LR356</t>
+          <t>LR358</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.797</v>
+        <v>0.806</v>
       </c>
       <c r="C117" t="n">
-        <v>0.859</v>
+        <v>0.863</v>
       </c>
       <c r="D117" t="n">
-        <v>0.658</v>
+        <v>0.665</v>
       </c>
       <c r="E117" t="n">
-        <v>0.34</v>
+        <v>0.334</v>
       </c>
       <c r="F117" t="n">
-        <v>0.305</v>
+        <v>0.299</v>
       </c>
       <c r="G117" t="n">
-        <v>0.593</v>
+        <v>0.61</v>
       </c>
       <c r="H117" t="n">
-        <v>0.77</v>
+        <v>0.781</v>
       </c>
       <c r="I117" t="n">
-        <v>0.58</v>
+        <v>0.594</v>
       </c>
       <c r="J117" t="n">
-        <v>0.583</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>RF356</t>
+          <t>RF358</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.718</v>
+        <v>0.732</v>
       </c>
       <c r="C118" t="n">
-        <v>0.802</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.621</v>
+        <v>0.632</v>
       </c>
       <c r="E118" t="n">
-        <v>0.905</v>
+        <v>0.9</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="H118" t="n">
-        <v>0.292</v>
+        <v>0.302</v>
       </c>
       <c r="I118" t="n">
-        <v>0.217</v>
+        <v>0.222</v>
       </c>
       <c r="J118" t="n">
         <v>0.973</v>
@@ -4455,7 +4461,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>NN356</t>
+          <t>NN358</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4468,19 +4474,19 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.861</v>
+        <v>-57.54</v>
       </c>
       <c r="F119" t="n">
-        <v>1.008</v>
+        <v>4.444</v>
       </c>
       <c r="G119" t="n">
-        <v>0.004</v>
+        <v>1.99</v>
       </c>
       <c r="H119" t="n">
-        <v>0.063</v>
+        <v>1.411</v>
       </c>
       <c r="I119" t="n">
-        <v>0.054</v>
+        <v>1.41</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -4502,19 +4508,19 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-3.304</v>
+        <v>-2.003</v>
       </c>
       <c r="F120" t="n">
-        <v>1.391</v>
+        <v>1.273</v>
       </c>
       <c r="G120" t="n">
-        <v>0.116</v>
+        <v>0.102</v>
       </c>
       <c r="H120" t="n">
-        <v>0.341</v>
+        <v>0.319</v>
       </c>
       <c r="I120" t="n">
-        <v>0.315</v>
+        <v>0.294</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -4523,7 +4529,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Ensemble356</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4536,28 +4542,28 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.605</v>
+        <v>0.58</v>
       </c>
       <c r="F121" t="n">
-        <v>0.584</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G121" t="n">
-        <v>0.355</v>
+        <v>0.385</v>
       </c>
       <c r="H121" t="n">
-        <v>0.596</v>
+        <v>0.62</v>
       </c>
       <c r="I121" t="n">
-        <v>0.439</v>
+        <v>0.454</v>
       </c>
       <c r="J121" t="n">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>LR358</t>
+          <t>LR360</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4570,62 +4576,62 @@
         <v>0.665</v>
       </c>
       <c r="E122" t="n">
-        <v>0.344</v>
+        <v>0.335</v>
       </c>
       <c r="F122" t="n">
-        <v>0.309</v>
+        <v>0.3</v>
       </c>
       <c r="G122" t="n">
-        <v>0.601</v>
+        <v>0.607</v>
       </c>
       <c r="H122" t="n">
-        <v>0.775</v>
+        <v>0.779</v>
       </c>
       <c r="I122" t="n">
-        <v>0.586</v>
+        <v>0.592</v>
       </c>
       <c r="J122" t="n">
-        <v>0.587</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>RF358</t>
+          <t>RF360</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.741</v>
+        <v>0.727</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.637</v>
+        <v>0.631</v>
       </c>
       <c r="E123" t="n">
-        <v>0.906</v>
+        <v>0.9</v>
       </c>
       <c r="F123" t="n">
-        <v>0.901</v>
+        <v>0.895</v>
       </c>
       <c r="G123" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="H123" t="n">
-        <v>0.293</v>
+        <v>0.302</v>
       </c>
       <c r="I123" t="n">
-        <v>0.217</v>
+        <v>0.222</v>
       </c>
       <c r="J123" t="n">
-        <v>0.973</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>NN358</t>
+          <t>NN360</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4638,22 +4644,22 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.888</v>
+        <v>-3.579</v>
       </c>
       <c r="F124" t="n">
-        <v>1.007</v>
+        <v>1.269</v>
       </c>
       <c r="G124" t="n">
-        <v>0.004</v>
+        <v>0.723</v>
       </c>
       <c r="H124" t="n">
-        <v>0.063</v>
+        <v>0.85</v>
       </c>
       <c r="I124" t="n">
-        <v>0.048</v>
+        <v>0.843</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
@@ -4672,28 +4678,28 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.973</v>
+        <v>-2.516</v>
       </c>
       <c r="F125" t="n">
-        <v>1.179</v>
+        <v>1.32</v>
       </c>
       <c r="G125" t="n">
-        <v>0.067</v>
+        <v>0.555</v>
       </c>
       <c r="H125" t="n">
-        <v>0.259</v>
+        <v>0.745</v>
       </c>
       <c r="I125" t="n">
-        <v>0.246</v>
+        <v>0.633</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Ensemble358</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4706,96 +4712,96 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.588</v>
+        <v>0.6</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="G126" t="n">
-        <v>0.378</v>
+        <v>0.365</v>
       </c>
       <c r="H126" t="n">
-        <v>0.615</v>
+        <v>0.604</v>
       </c>
       <c r="I126" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="J126" t="n">
-        <v>0.856</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>LR360</t>
+          <t>LR362</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.806</v>
+        <v>0.831</v>
       </c>
       <c r="C127" t="n">
-        <v>0.863</v>
+        <v>0.875</v>
       </c>
       <c r="D127" t="n">
-        <v>0.665</v>
+        <v>0.671</v>
       </c>
       <c r="E127" t="n">
-        <v>0.346</v>
+        <v>0.331</v>
       </c>
       <c r="F127" t="n">
-        <v>0.311</v>
+        <v>0.296</v>
       </c>
       <c r="G127" t="n">
-        <v>0.597</v>
+        <v>0.614</v>
       </c>
       <c r="H127" t="n">
-        <v>0.773</v>
+        <v>0.784</v>
       </c>
       <c r="I127" t="n">
-        <v>0.583</v>
+        <v>0.594</v>
       </c>
       <c r="J127" t="n">
-        <v>0.588</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RF360</t>
+          <t>RF362</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.713</v>
+        <v>0.763</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8</v>
+        <v>0.832</v>
       </c>
       <c r="D128" t="n">
-        <v>0.621</v>
+        <v>0.643</v>
       </c>
       <c r="E128" t="n">
-        <v>0.908</v>
+        <v>0.904</v>
       </c>
       <c r="F128" t="n">
-        <v>0.903</v>
+        <v>0.899</v>
       </c>
       <c r="G128" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0.29</v>
+        <v>0.297</v>
       </c>
       <c r="I128" t="n">
-        <v>0.216</v>
+        <v>0.218</v>
       </c>
       <c r="J128" t="n">
-        <v>0.973</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>NN360</t>
+          <t>NN362</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4808,21 +4814,23 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.005</v>
+        <v>-1.006</v>
       </c>
       <c r="F129" t="n">
-        <v>1.059</v>
+        <v>1.118</v>
       </c>
       <c r="G129" t="n">
-        <v>0.159</v>
+        <v>1.315</v>
       </c>
       <c r="H129" t="n">
-        <v>0.399</v>
+        <v>1.147</v>
       </c>
       <c r="I129" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0.847</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -4840,28 +4848,28 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.87</v>
+        <v>-1.282</v>
       </c>
       <c r="F130" t="n">
-        <v>1.012</v>
+        <v>1.207</v>
       </c>
       <c r="G130" t="n">
-        <v>0.021</v>
+        <v>1.496</v>
       </c>
       <c r="H130" t="n">
-        <v>0.145</v>
+        <v>1.223</v>
       </c>
       <c r="I130" t="n">
-        <v>0.143</v>
+        <v>1.221</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Ensemble360</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4874,87 +4882,87 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.585</v>
+        <v>0.599</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="G131" t="n">
-        <v>0.379</v>
+        <v>0.368</v>
       </c>
       <c r="H131" t="n">
-        <v>0.616</v>
+        <v>0.607</v>
       </c>
       <c r="I131" t="n">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="J131" t="n">
-        <v>0.858</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>LR362</t>
+          <t>LR364</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.831</v>
+        <v>0.849</v>
       </c>
       <c r="C132" t="n">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="D132" t="n">
-        <v>0.671</v>
+        <v>0.677</v>
       </c>
       <c r="E132" t="n">
-        <v>0.342</v>
+        <v>0.332</v>
       </c>
       <c r="F132" t="n">
-        <v>0.307</v>
+        <v>0.297</v>
       </c>
       <c r="G132" t="n">
-        <v>0.603</v>
+        <v>0.611</v>
       </c>
       <c r="H132" t="n">
-        <v>0.777</v>
+        <v>0.782</v>
       </c>
       <c r="I132" t="n">
-        <v>0.587</v>
+        <v>0.593</v>
       </c>
       <c r="J132" t="n">
-        <v>0.585</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RF362</t>
+          <t>RF364</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="C133" t="n">
-        <v>0.827</v>
+        <v>0.829</v>
       </c>
       <c r="D133" t="n">
-        <v>0.644</v>
+        <v>0.638</v>
       </c>
       <c r="E133" t="n">
-        <v>0.913</v>
+        <v>0.907</v>
       </c>
       <c r="F133" t="n">
-        <v>0.908</v>
+        <v>0.902</v>
       </c>
       <c r="G133" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>0.283</v>
+        <v>0.292</v>
       </c>
       <c r="I133" t="n">
-        <v>0.212</v>
+        <v>0.218</v>
       </c>
       <c r="J133" t="n">
         <v>0.975</v>
@@ -4963,7 +4971,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>NN362</t>
+          <t>NN364</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4976,21 +4984,23 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>-0</v>
+        <v>-0.243</v>
       </c>
       <c r="F134" t="n">
-        <v>1.059</v>
+        <v>1.073</v>
       </c>
       <c r="G134" t="n">
-        <v>0.655</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.297</v>
       </c>
       <c r="I134" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0.282</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -5008,19 +5018,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.929</v>
+        <v>-3.037</v>
       </c>
       <c r="F135" t="n">
-        <v>1.006</v>
+        <v>1.367</v>
       </c>
       <c r="G135" t="n">
-        <v>0.047</v>
+        <v>0.287</v>
       </c>
       <c r="H135" t="n">
-        <v>0.217</v>
+        <v>0.536</v>
       </c>
       <c r="I135" t="n">
-        <v>0.189</v>
+        <v>0.512</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -5029,7 +5039,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Ensemble362</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -5042,72 +5052,72 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.586</v>
+        <v>0.583</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="H136" t="n">
-        <v>0.616</v>
+        <v>0.617</v>
       </c>
       <c r="I136" t="n">
         <v>0.455</v>
       </c>
       <c r="J136" t="n">
-        <v>0.861</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LR364</t>
+          <t>LR366</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.849</v>
+        <v>0.882</v>
       </c>
       <c r="C137" t="n">
-        <v>0.885</v>
+        <v>0.901</v>
       </c>
       <c r="D137" t="n">
-        <v>0.677</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.343</v>
+        <v>0.328</v>
       </c>
       <c r="F137" t="n">
-        <v>0.309</v>
+        <v>0.293</v>
       </c>
       <c r="G137" t="n">
-        <v>0.601</v>
+        <v>0.626</v>
       </c>
       <c r="H137" t="n">
-        <v>0.775</v>
+        <v>0.791</v>
       </c>
       <c r="I137" t="n">
-        <v>0.586</v>
+        <v>0.603</v>
       </c>
       <c r="J137" t="n">
-        <v>0.586</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>RF364</t>
+          <t>RF366</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.768</v>
+        <v>0.803</v>
       </c>
       <c r="C138" t="n">
-        <v>0.833</v>
+        <v>0.851</v>
       </c>
       <c r="D138" t="n">
-        <v>0.645</v>
+        <v>0.648</v>
       </c>
       <c r="E138" t="n">
         <v>0.901</v>
@@ -5116,22 +5126,22 @@
         <v>0.896</v>
       </c>
       <c r="G138" t="n">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="H138" t="n">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="I138" t="n">
-        <v>0.218</v>
+        <v>0.22</v>
       </c>
       <c r="J138" t="n">
-        <v>0.973</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>NN364</t>
+          <t>NN366</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -5144,21 +5154,23 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.001</v>
+        <v>-180.481</v>
       </c>
       <c r="F139" t="n">
-        <v>1.059</v>
+        <v>11.675</v>
       </c>
       <c r="G139" t="n">
-        <v>0.07099999999999999</v>
+        <v>1.968</v>
       </c>
       <c r="H139" t="n">
-        <v>0.266</v>
+        <v>1.403</v>
       </c>
       <c r="I139" t="n">
-        <v>0.266</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>1.298</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -5176,19 +5188,19 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.907</v>
+        <v>-21.153</v>
       </c>
       <c r="F140" t="n">
-        <v>1.008</v>
+        <v>3.014</v>
       </c>
       <c r="G140" t="n">
-        <v>0.007</v>
+        <v>0.24</v>
       </c>
       <c r="H140" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="I140" t="n">
-        <v>0.08</v>
+        <v>0.412</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -5197,7 +5209,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Ensemble364</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -5210,78 +5222,78 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.576</v>
+        <v>0.596</v>
       </c>
       <c r="F141" t="n">
-        <v>0.554</v>
+        <v>0.575</v>
       </c>
       <c r="G141" t="n">
-        <v>0.388</v>
+        <v>0.376</v>
       </c>
       <c r="H141" t="n">
-        <v>0.623</v>
+        <v>0.613</v>
       </c>
       <c r="I141" t="n">
         <v>0.459</v>
       </c>
       <c r="J141" t="n">
-        <v>0.838</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>LR366</t>
+          <t>LR368</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.882</v>
+        <v>0.92</v>
       </c>
       <c r="C142" t="n">
-        <v>0.901</v>
+        <v>0.918</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>0.341</v>
+        <v>0.325</v>
       </c>
       <c r="F142" t="n">
-        <v>0.307</v>
+        <v>0.29</v>
       </c>
       <c r="G142" t="n">
-        <v>0.613</v>
+        <v>0.646</v>
       </c>
       <c r="H142" t="n">
-        <v>0.783</v>
+        <v>0.804</v>
       </c>
       <c r="I142" t="n">
-        <v>0.596</v>
+        <v>0.611</v>
       </c>
       <c r="J142" t="n">
-        <v>0.584</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RF366</t>
+          <t>RF368</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.794</v>
+        <v>0.868</v>
       </c>
       <c r="C143" t="n">
-        <v>0.85</v>
+        <v>0.881</v>
       </c>
       <c r="D143" t="n">
-        <v>0.655</v>
+        <v>0.668</v>
       </c>
       <c r="E143" t="n">
-        <v>0.902</v>
+        <v>0.905</v>
       </c>
       <c r="F143" t="n">
-        <v>0.897</v>
+        <v>0.9</v>
       </c>
       <c r="G143" t="n">
         <v>0.091</v>
@@ -5290,16 +5302,16 @@
         <v>0.302</v>
       </c>
       <c r="I143" t="n">
-        <v>0.224</v>
+        <v>0.223</v>
       </c>
       <c r="J143" t="n">
-        <v>0.972</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>NN366</t>
+          <t>NN368</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5312,21 +5324,23 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.185</v>
+        <v>-2.243</v>
       </c>
       <c r="F144" t="n">
-        <v>1.07</v>
+        <v>1.191</v>
       </c>
       <c r="G144" t="n">
-        <v>0.013</v>
+        <v>4.102</v>
       </c>
       <c r="H144" t="n">
-        <v>0.114</v>
+        <v>2.025</v>
       </c>
       <c r="I144" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>1.459</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -5344,19 +5358,19 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>-3.101</v>
+        <v>0.311</v>
       </c>
       <c r="F145" t="n">
-        <v>1.373</v>
+        <v>1.063</v>
       </c>
       <c r="G145" t="n">
-        <v>0.044</v>
+        <v>0.871</v>
       </c>
       <c r="H145" t="n">
-        <v>0.21</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="I145" t="n">
-        <v>0.202</v>
+        <v>0.897</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -5365,7 +5379,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Ensemble366</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -5378,96 +5392,96 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.599</v>
+        <v>0.598</v>
       </c>
       <c r="F146" t="n">
-        <v>0.578</v>
+        <v>0.577</v>
       </c>
       <c r="G146" t="n">
-        <v>0.373</v>
+        <v>0.385</v>
       </c>
       <c r="H146" t="n">
-        <v>0.611</v>
+        <v>0.62</v>
       </c>
       <c r="I146" t="n">
-        <v>0.459</v>
+        <v>0.466</v>
       </c>
       <c r="J146" t="n">
-        <v>0.842</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>LR368</t>
+          <t>LR370</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.92</v>
+        <v>1.034</v>
       </c>
       <c r="C147" t="n">
-        <v>0.918</v>
+        <v>0.966</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.724</v>
       </c>
       <c r="E147" t="n">
-        <v>0.339</v>
+        <v>0.309</v>
       </c>
       <c r="F147" t="n">
-        <v>0.305</v>
+        <v>0.274</v>
       </c>
       <c r="G147" t="n">
-        <v>0.633</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H147" t="n">
-        <v>0.796</v>
+        <v>0.832</v>
       </c>
       <c r="I147" t="n">
-        <v>0.604</v>
+        <v>0.629</v>
       </c>
       <c r="J147" t="n">
-        <v>0.582</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RF368</t>
+          <t>RF370</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.846</v>
+        <v>0.958</v>
       </c>
       <c r="C148" t="n">
-        <v>0.872</v>
+        <v>0.92</v>
       </c>
       <c r="D148" t="n">
-        <v>0.664</v>
+        <v>0.695</v>
       </c>
       <c r="E148" t="n">
-        <v>0.899</v>
+        <v>0.906</v>
       </c>
       <c r="F148" t="n">
-        <v>0.894</v>
+        <v>0.901</v>
       </c>
       <c r="G148" t="n">
-        <v>0.097</v>
+        <v>0.094</v>
       </c>
       <c r="H148" t="n">
-        <v>0.311</v>
+        <v>0.307</v>
       </c>
       <c r="I148" t="n">
-        <v>0.226</v>
+        <v>0.228</v>
       </c>
       <c r="J148" t="n">
-        <v>0.972</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>NN368</t>
+          <t>NN370</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5480,19 +5494,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.778</v>
+        <v>-47.322</v>
       </c>
       <c r="F149" t="n">
-        <v>1.013</v>
+        <v>3.842</v>
       </c>
       <c r="G149" t="n">
-        <v>0.281</v>
+        <v>7.451</v>
       </c>
       <c r="H149" t="n">
-        <v>0.53</v>
+        <v>2.73</v>
       </c>
       <c r="I149" t="n">
-        <v>0.509</v>
+        <v>2.728</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -5514,28 +5528,28 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.48</v>
+        <v>-6.976</v>
       </c>
       <c r="F150" t="n">
-        <v>1.047</v>
+        <v>1.725</v>
       </c>
       <c r="G150" t="n">
-        <v>0.657</v>
+        <v>1.23</v>
       </c>
       <c r="H150" t="n">
-        <v>0.8110000000000001</v>
+        <v>1.109</v>
       </c>
       <c r="I150" t="n">
-        <v>0.581</v>
+        <v>1.008</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Ensemble368</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5548,96 +5562,96 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.576</v>
+        <v>0.581</v>
       </c>
       <c r="F151" t="n">
-        <v>0.554</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>0.406</v>
+        <v>0.42</v>
       </c>
       <c r="H151" t="n">
-        <v>0.637</v>
+        <v>0.648</v>
       </c>
       <c r="I151" t="n">
-        <v>0.47</v>
+        <v>0.481</v>
       </c>
       <c r="J151" t="n">
-        <v>0.839</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>LR370</t>
+          <t>LR372</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1.034</v>
+        <v>0.997</v>
       </c>
       <c r="C152" t="n">
-        <v>0.966</v>
+        <v>0.951</v>
       </c>
       <c r="D152" t="n">
-        <v>0.724</v>
+        <v>0.716</v>
       </c>
       <c r="E152" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="F152" t="n">
-        <v>0.296</v>
+        <v>0.275</v>
       </c>
       <c r="G152" t="n">
-        <v>0.672</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H152" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I152" t="n">
-        <v>0.618</v>
+        <v>0.628</v>
       </c>
       <c r="J152" t="n">
-        <v>0.574</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RF370</t>
+          <t>RF372</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.948</v>
+        <v>0.964</v>
       </c>
       <c r="C153" t="n">
-        <v>0.915</v>
+        <v>0.922</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="E153" t="n">
-        <v>0.903</v>
+        <v>0.899</v>
       </c>
       <c r="F153" t="n">
-        <v>0.898</v>
+        <v>0.894</v>
       </c>
       <c r="G153" t="n">
-        <v>0.097</v>
+        <v>0.1</v>
       </c>
       <c r="H153" t="n">
-        <v>0.311</v>
+        <v>0.316</v>
       </c>
       <c r="I153" t="n">
-        <v>0.23</v>
+        <v>0.233</v>
       </c>
       <c r="J153" t="n">
-        <v>0.972</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>NN370</t>
+          <t>NN372</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -5650,19 +5664,19 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9360000000000001</v>
+        <v>-239.152</v>
       </c>
       <c r="F154" t="n">
-        <v>1.004</v>
+        <v>15.127</v>
       </c>
       <c r="G154" t="n">
-        <v>0.01</v>
+        <v>0.281</v>
       </c>
       <c r="H154" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="I154" t="n">
-        <v>0.089</v>
+        <v>0.53</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -5684,19 +5698,19 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.31</v>
+        <v>-640.499</v>
       </c>
       <c r="F155" t="n">
-        <v>1.063</v>
+        <v>59.318</v>
       </c>
       <c r="G155" t="n">
-        <v>0.106</v>
+        <v>0.751</v>
       </c>
       <c r="H155" t="n">
-        <v>0.326</v>
+        <v>0.867</v>
       </c>
       <c r="I155" t="n">
-        <v>0.306</v>
+        <v>0.822</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -5705,7 +5719,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Ensemble370</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -5718,87 +5732,87 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.587</v>
+        <v>0.597</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.576</v>
       </c>
       <c r="G156" t="n">
-        <v>0.414</v>
+        <v>0.403</v>
       </c>
       <c r="H156" t="n">
-        <v>0.643</v>
+        <v>0.635</v>
       </c>
       <c r="I156" t="n">
-        <v>0.475</v>
+        <v>0.473</v>
       </c>
       <c r="J156" t="n">
-        <v>0.855</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>LR372</t>
+          <t>LR374</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.997</v>
+        <v>1.007</v>
       </c>
       <c r="C157" t="n">
-        <v>0.951</v>
+        <v>0.955</v>
       </c>
       <c r="D157" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="E157" t="n">
-        <v>0.326</v>
+        <v>0.31</v>
       </c>
       <c r="F157" t="n">
-        <v>0.292</v>
+        <v>0.275</v>
       </c>
       <c r="G157" t="n">
-        <v>0.673</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H157" t="n">
-        <v>0.82</v>
+        <v>0.828</v>
       </c>
       <c r="I157" t="n">
-        <v>0.619</v>
+        <v>0.625</v>
       </c>
       <c r="J157" t="n">
-        <v>0.571</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RF372</t>
+          <t>RF374</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.927</v>
+        <v>0.994</v>
       </c>
       <c r="C158" t="n">
-        <v>0.903</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.702</v>
       </c>
       <c r="E158" t="n">
-        <v>0.901</v>
+        <v>0.909</v>
       </c>
       <c r="F158" t="n">
-        <v>0.896</v>
+        <v>0.904</v>
       </c>
       <c r="G158" t="n">
-        <v>0.099</v>
+        <v>0.09</v>
       </c>
       <c r="H158" t="n">
-        <v>0.315</v>
+        <v>0.3</v>
       </c>
       <c r="I158" t="n">
-        <v>0.231</v>
+        <v>0.224</v>
       </c>
       <c r="J158" t="n">
         <v>0.973</v>
@@ -5807,7 +5821,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>NN372</t>
+          <t>NN374</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -5820,21 +5834,23 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>-367.551</v>
+        <v>-0.067</v>
       </c>
       <c r="F159" t="n">
-        <v>22.679</v>
+        <v>1.063</v>
       </c>
       <c r="G159" t="n">
-        <v>0.431</v>
+        <v>0.081</v>
       </c>
       <c r="H159" t="n">
-        <v>0.657</v>
+        <v>0.285</v>
       </c>
       <c r="I159" t="n">
-        <v>0.656</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0.23</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -5852,28 +5868,28 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-43.535</v>
+        <v>-2.558</v>
       </c>
       <c r="F160" t="n">
-        <v>5.049</v>
+        <v>1.323</v>
       </c>
       <c r="G160" t="n">
-        <v>0.052</v>
+        <v>0.271</v>
       </c>
       <c r="H160" t="n">
-        <v>0.228</v>
+        <v>0.521</v>
       </c>
       <c r="I160" t="n">
-        <v>0.226</v>
+        <v>0.5</v>
       </c>
       <c r="J160" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Ensemble372</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -5886,96 +5902,96 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.603</v>
+        <v>0.589</v>
       </c>
       <c r="F161" t="n">
-        <v>0.583</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G161" t="n">
-        <v>0.397</v>
+        <v>0.408</v>
       </c>
       <c r="H161" t="n">
-        <v>0.63</v>
+        <v>0.639</v>
       </c>
       <c r="I161" t="n">
-        <v>0.474</v>
+        <v>0.476</v>
       </c>
       <c r="J161" t="n">
-        <v>0.854</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>LR374</t>
+          <t>LR376</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1.007</v>
+        <v>0.999</v>
       </c>
       <c r="C162" t="n">
-        <v>0.955</v>
+        <v>0.951</v>
       </c>
       <c r="D162" t="n">
-        <v>0.718</v>
+        <v>0.721</v>
       </c>
       <c r="E162" t="n">
-        <v>0.326</v>
+        <v>0.303</v>
       </c>
       <c r="F162" t="n">
-        <v>0.292</v>
+        <v>0.268</v>
       </c>
       <c r="G162" t="n">
-        <v>0.67</v>
+        <v>0.695</v>
       </c>
       <c r="H162" t="n">
-        <v>0.819</v>
+        <v>0.834</v>
       </c>
       <c r="I162" t="n">
-        <v>0.617</v>
+        <v>0.634</v>
       </c>
       <c r="J162" t="n">
-        <v>0.571</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RF374</t>
+          <t>RF376</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.968</v>
+        <v>0.992</v>
       </c>
       <c r="C163" t="n">
-        <v>0.926</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D163" t="n">
-        <v>0.701</v>
+        <v>0.702</v>
       </c>
       <c r="E163" t="n">
-        <v>0.907</v>
+        <v>0.905</v>
       </c>
       <c r="F163" t="n">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
       <c r="G163" t="n">
-        <v>0.092</v>
+        <v>0.095</v>
       </c>
       <c r="H163" t="n">
-        <v>0.303</v>
+        <v>0.308</v>
       </c>
       <c r="I163" t="n">
-        <v>0.225</v>
+        <v>0.227</v>
       </c>
       <c r="J163" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>NN374</t>
+          <t>NN376</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -5988,21 +6004,23 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.114</v>
+        <v>-9.359</v>
       </c>
       <c r="F164" t="n">
-        <v>1.066</v>
+        <v>1.609</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.921</v>
       </c>
       <c r="H164" t="n">
-        <v>0.292</v>
+        <v>0.96</v>
       </c>
       <c r="I164" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0.945</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -6020,28 +6038,28 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.921</v>
+        <v>-23.824</v>
       </c>
       <c r="F165" t="n">
-        <v>1.007</v>
+        <v>3.257</v>
       </c>
       <c r="G165" t="n">
-        <v>0.006</v>
+        <v>2.208</v>
       </c>
       <c r="H165" t="n">
-        <v>0.077</v>
+        <v>1.486</v>
       </c>
       <c r="I165" t="n">
-        <v>0.077</v>
+        <v>1.413</v>
       </c>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Ensemble374</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -6054,96 +6072,96 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.579</v>
+        <v>0.585</v>
       </c>
       <c r="F166" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>0.419</v>
+        <v>0.414</v>
       </c>
       <c r="H166" t="n">
-        <v>0.647</v>
+        <v>0.643</v>
       </c>
       <c r="I166" t="n">
-        <v>0.472</v>
+        <v>0.478</v>
       </c>
       <c r="J166" t="n">
-        <v>0.853</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>LR376</t>
+          <t>Pre2020LRavg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.999</v>
+        <v>0.8525333333333335</v>
       </c>
       <c r="C167" t="n">
-        <v>0.951</v>
+        <v>0.8768666666666667</v>
       </c>
       <c r="D167" t="n">
-        <v>0.721</v>
+        <v>0.6798666666666666</v>
       </c>
       <c r="E167" t="n">
-        <v>0.32</v>
+        <v>0.3108</v>
       </c>
       <c r="F167" t="n">
-        <v>0.286</v>
+        <v>0.2596666666666667</v>
       </c>
       <c r="G167" t="n">
-        <v>0.678</v>
+        <v>0.6341999999999999</v>
       </c>
       <c r="H167" t="n">
-        <v>0.823</v>
+        <v>0.7959333333333335</v>
       </c>
       <c r="I167" t="n">
-        <v>0.622</v>
+        <v>0.6138666666666667</v>
       </c>
       <c r="J167" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5686666666666667</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>RF376</t>
+          <t>Pre2020RFavg</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.949</v>
+        <v>0.7683333333333333</v>
       </c>
       <c r="C168" t="n">
-        <v>0.916</v>
+        <v>0.8108666666666667</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6267999999999999</v>
       </c>
       <c r="E168" t="n">
-        <v>0.906</v>
+        <v>0.9008666666666666</v>
       </c>
       <c r="F168" t="n">
-        <v>0.901</v>
+        <v>0.8934666666666667</v>
       </c>
       <c r="G168" t="n">
-        <v>0.093</v>
+        <v>0.091</v>
       </c>
       <c r="H168" t="n">
-        <v>0.305</v>
+        <v>0.3015333333333333</v>
       </c>
       <c r="I168" t="n">
-        <v>0.226</v>
+        <v>0.217</v>
       </c>
       <c r="J168" t="n">
-        <v>0.972</v>
+        <v>0.9769999999999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>NN376</t>
+          <t>Pre2020NNavg</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -6156,26 +6174,28 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>-1.094</v>
+        <v>0.2562333333333333</v>
       </c>
       <c r="F169" t="n">
-        <v>1.123</v>
+        <v>2.468466666666667</v>
       </c>
       <c r="G169" t="n">
-        <v>0.186</v>
+        <v>0.7317333333333333</v>
       </c>
       <c r="H169" t="n">
-        <v>0.431</v>
+        <v>0.7330666666666666</v>
       </c>
       <c r="I169" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0.5819</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.5757</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>Pre2020RNNavg</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -6188,28 +6208,28 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.2563333333333333</v>
       </c>
       <c r="F170" t="n">
-        <v>1.09</v>
+        <v>3.212533333333333</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.5682666666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>0.297</v>
+        <v>0.6887333333333333</v>
       </c>
       <c r="I170" t="n">
-        <v>0.243</v>
+        <v>0.5569333333333333</v>
       </c>
       <c r="J170" t="n">
-        <v>1</v>
+        <v>0.5986666666666667</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Ensemble376</t>
+          <t>Pre2020Ensembleavg</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -6222,96 +6242,96 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5964666666666667</v>
       </c>
       <c r="F171" t="n">
-        <v>0.543</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="G171" t="n">
-        <v>0.434</v>
+        <v>0.3712666666666666</v>
       </c>
       <c r="H171" t="n">
-        <v>0.659</v>
+        <v>0.6090000000000001</v>
       </c>
       <c r="I171" t="n">
-        <v>0.479</v>
+        <v>0.4524</v>
       </c>
       <c r="J171" t="n">
-        <v>0.839</v>
+        <v>0.8371999999999998</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Pre2020LRavg</t>
+          <t>Post2020LRavg</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.8525333333333335</v>
+        <v>0.8517777777777779</v>
       </c>
       <c r="C172" t="n">
-        <v>0.8768666666666667</v>
+        <v>0.8845555555555555</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6798666666666666</v>
+        <v>0.6753888888888889</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3306000000000001</v>
+        <v>0.3187777777777778</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2810666666666666</v>
+        <v>0.2826666666666667</v>
       </c>
       <c r="G172" t="n">
-        <v>0.6158666666666667</v>
+        <v>0.632</v>
       </c>
       <c r="H172" t="n">
-        <v>0.7843333333333333</v>
+        <v>0.7947777777777777</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5948</v>
+        <v>0.6042222222222222</v>
       </c>
       <c r="J172" t="n">
-        <v>0.5746666666666667</v>
+        <v>0.5693333333333332</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RFavg</t>
+          <t>Post2020RFavg</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.7676000000000001</v>
+        <v>0.7891666666666666</v>
       </c>
       <c r="C173" t="n">
-        <v>0.8109333333333332</v>
+        <v>0.8391666666666667</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6276666666666667</v>
+        <v>0.6431666666666667</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9029333333333331</v>
+        <v>0.9037777777777778</v>
       </c>
       <c r="F173" t="n">
-        <v>0.895733333333333</v>
+        <v>0.8987222222222222</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08913333333333333</v>
+        <v>0.08905555555555555</v>
       </c>
       <c r="H173" t="n">
-        <v>0.2984666666666667</v>
+        <v>0.2983888888888889</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2153333333333333</v>
+        <v>0.2199444444444444</v>
       </c>
       <c r="J173" t="n">
-        <v>0.9758666666666667</v>
+        <v>0.9743333333333334</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Pre2020NNavg</t>
+          <t>Post2020NNavg</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -6324,28 +6344,28 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0.8953</v>
+        <v>-39.59719444444445</v>
       </c>
       <c r="F174" t="n">
-        <v>1.1154</v>
+        <v>4.117916666666667</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07359999999999998</v>
+        <v>1.824305555555555</v>
       </c>
       <c r="H174" t="n">
-        <v>0.2293333333333333</v>
+        <v>1.006472222222222</v>
       </c>
       <c r="I174" t="n">
-        <v>0.1753666666666666</v>
+        <v>0.9242777777777778</v>
       </c>
       <c r="J174" t="n">
-        <v>0.9562666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RNNavg</t>
+          <t>Post2020RNNavg</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -6358,28 +6378,28 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9607333333333334</v>
+        <v>-44.49433333333334</v>
       </c>
       <c r="F175" t="n">
-        <v>1.078733333333333</v>
+        <v>5.135833333333334</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0308</v>
+        <v>2.217166666666667</v>
       </c>
       <c r="H175" t="n">
-        <v>0.1602666666666667</v>
+        <v>1.0135</v>
       </c>
       <c r="I175" t="n">
-        <v>0.1279333333333333</v>
+        <v>0.9305000000000001</v>
       </c>
       <c r="J175" t="n">
-        <v>0.9893333333333333</v>
+        <v>-0.1111111111111111</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Pre2020Ensembleavg</t>
+          <t>Post2020Ensembleavg</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -6392,96 +6412,96 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5806666666666664</v>
+        <v>0.5919444444444443</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5494666666666668</v>
+        <v>0.5703888888888889</v>
       </c>
       <c r="G176" t="n">
-        <v>0.3854</v>
+        <v>0.3785</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6203333333333333</v>
+        <v>0.6148888888888888</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4536666666666667</v>
+        <v>0.4580000000000001</v>
       </c>
       <c r="J176" t="n">
-        <v>0.8557333333333333</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Post2020LRavg</t>
+          <t>TotalLRAvg</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.8485789473684211</v>
+        <v>0.8524074074074074</v>
       </c>
       <c r="C177" t="n">
-        <v>0.8833684210526315</v>
+        <v>0.878148148148148</v>
       </c>
       <c r="D177" t="n">
-        <v>0.6747894736842105</v>
+        <v>0.6791203703703702</v>
       </c>
       <c r="E177" t="n">
-        <v>0.3315263157894737</v>
+        <v>0.3121296296296296</v>
       </c>
       <c r="F177" t="n">
-        <v>0.2960526315789473</v>
+        <v>0.2635</v>
       </c>
       <c r="G177" t="n">
-        <v>0.6184736842105264</v>
+        <v>0.6338333333333332</v>
       </c>
       <c r="H177" t="n">
-        <v>0.7862105263157894</v>
+        <v>0.795740740740741</v>
       </c>
       <c r="I177" t="n">
-        <v>0.5948947368421053</v>
+        <v>0.6122592592592593</v>
       </c>
       <c r="J177" t="n">
-        <v>0.5757368421052631</v>
+        <v>0.5687777777777777</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Post2020RFavg</t>
+          <t>TotalRFAvg</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.778157894736842</v>
+        <v>0.7718055555555555</v>
       </c>
       <c r="C178" t="n">
-        <v>0.8349473684210527</v>
+        <v>0.8155833333333334</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6424736842105263</v>
+        <v>0.6295277777777777</v>
       </c>
       <c r="E178" t="n">
-        <v>0.905</v>
+        <v>0.9013518518518518</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9</v>
+        <v>0.8943425925925926</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0878421052631579</v>
+        <v>0.09067592592592592</v>
       </c>
       <c r="H178" t="n">
-        <v>0.2962631578947368</v>
+        <v>0.3010092592592593</v>
       </c>
       <c r="I178" t="n">
-        <v>0.2185263157894737</v>
+        <v>0.2174907407407408</v>
       </c>
       <c r="J178" t="n">
-        <v>0.9732631578947369</v>
+        <v>0.9765555555555555</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Post2020NNavg</t>
+          <t>TotalNNAvg</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -6494,28 +6514,28 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>-10.72073684210526</v>
+        <v>-6.386004629629631</v>
       </c>
       <c r="F179" t="n">
-        <v>1.743894736842105</v>
+        <v>2.743375000000001</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09910526315789472</v>
+        <v>0.9138287037037037</v>
       </c>
       <c r="H179" t="n">
-        <v>0.2468157894736842</v>
+        <v>0.7786342592592592</v>
       </c>
       <c r="I179" t="n">
-        <v>0.2218421052631579</v>
+        <v>0.638962962962963</v>
       </c>
       <c r="J179" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4982685185185185</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Post2020RNNavg</t>
+          <t>TotalRNNAvg</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -6528,28 +6548,28 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-2.391473684210526</v>
+        <v>-7.202111111111112</v>
       </c>
       <c r="F180" t="n">
-        <v>1.308263157894737</v>
+        <v>3.533083333333333</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08310526315789474</v>
+        <v>0.8430833333333334</v>
       </c>
       <c r="H180" t="n">
-        <v>0.2278421052631579</v>
+        <v>0.7428611111111111</v>
       </c>
       <c r="I180" t="n">
-        <v>0.1942631578947369</v>
+        <v>0.6191944444444445</v>
       </c>
       <c r="J180" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.4803703703703703</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Post2020Ensembleavg</t>
+          <t>TotalEnsembleAvg</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -6562,192 +6582,22 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.585</v>
+        <v>0.5957129629629629</v>
       </c>
       <c r="F181" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.567287037037037</v>
       </c>
       <c r="G181" t="n">
-        <v>0.3841578947368421</v>
+        <v>0.3724722222222221</v>
       </c>
       <c r="H181" t="n">
-        <v>0.6194736842105264</v>
+        <v>0.6099814814814816</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4584736842105263</v>
+        <v>0.4533333333333334</v>
       </c>
       <c r="J181" t="n">
-        <v>0.849578947368421</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>TotalLRAvg</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>0.851874269005848</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.8779502923976609</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.6790204678362572</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.3307543859649123</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.2835643274853801</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.6163011695906433</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0.7846461988304094</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.5948157894736842</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.574845029239766</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>TotalRFAvg</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>0.7693596491228071</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.8149356725146197</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.6301345029239767</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.9032777777777777</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.8964444444444443</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.08891812865497077</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.2980994152046784</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.2158654970760234</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.9754327485380117</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>TotalNNAvg</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>0</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>-1.040706140350877</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1.220149122807018</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.07785087719298245</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0.2322470760233918</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.1831125730994152</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0.9397460317460317</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>TotalRNNAvg</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.4020321637426902</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1.116988304093567</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.03951754385964912</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0.1715292397660819</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.1389883040935672</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.9560233918128654</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>TotalEnsembleAvg</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>0</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.5813888888888887</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.5517222222222222</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.3851929824561404</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0.6201900584795322</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.45446783625731</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0.8547076023391814</v>
+        <v>0.8373333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/PossibleRemoveMetrics/rollingTrainMetrics.xlsx
+++ b/PossibleRemoveMetrics/rollingTrainMetrics.xlsx
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.574</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.695</v>
+        <v>0.711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.554</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.876</v>
+        <v>0.89</v>
       </c>
       <c r="F3" t="n">
-        <v>0.864</v>
+        <v>0.879</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.283</v>
+        <v>0.266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.198</v>
+        <v>0.194</v>
       </c>
       <c r="J3" t="n">
-        <v>0.975</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +564,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.861</v>
+        <v>0.854</v>
       </c>
       <c r="F4" t="n">
-        <v>0.847</v>
+        <v>0.839</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3</v>
+        <v>0.308</v>
       </c>
       <c r="I4" t="n">
-        <v>0.222</v>
+        <v>0.231</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.848</v>
       </c>
       <c r="F5" t="n">
-        <v>0.927</v>
+        <v>0.838</v>
       </c>
       <c r="G5" t="n">
-        <v>0.046</v>
+        <v>0.104</v>
       </c>
       <c r="H5" t="n">
-        <v>0.214</v>
+        <v>0.322</v>
       </c>
       <c r="I5" t="n">
-        <v>0.166</v>
+        <v>0.249</v>
       </c>
       <c r="J5" t="n">
-        <v>0.973</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +632,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.553</v>
+        <v>0.544</v>
       </c>
       <c r="F6" t="n">
-        <v>0.509</v>
+        <v>0.499</v>
       </c>
       <c r="G6" t="n">
-        <v>0.29</v>
+        <v>0.296</v>
       </c>
       <c r="H6" t="n">
-        <v>0.539</v>
+        <v>0.544</v>
       </c>
       <c r="I6" t="n">
-        <v>0.407</v>
+        <v>0.409</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="7">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.876</v>
+        <v>0.88</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.639</v>
+        <v>0.646</v>
       </c>
       <c r="E8" t="n">
-        <v>0.896</v>
+        <v>0.894</v>
       </c>
       <c r="F8" t="n">
-        <v>0.886</v>
+        <v>0.884</v>
       </c>
       <c r="G8" t="n">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="H8" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="I8" t="n">
-        <v>0.225</v>
+        <v>0.223</v>
       </c>
       <c r="J8" t="n">
-        <v>0.974</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +734,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.046</v>
+        <v>0.612</v>
       </c>
       <c r="F9" t="n">
-        <v>2.046</v>
+        <v>1.388</v>
       </c>
       <c r="G9" t="n">
-        <v>7.218</v>
+        <v>2.679</v>
       </c>
       <c r="H9" t="n">
-        <v>2.687</v>
+        <v>1.637</v>
       </c>
       <c r="I9" t="n">
-        <v>1.983</v>
+        <v>1.364</v>
       </c>
       <c r="J9" t="n">
-        <v>0.217</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="G10" t="n">
-        <v>2.414</v>
+        <v>3.036</v>
       </c>
       <c r="H10" t="n">
-        <v>1.554</v>
+        <v>1.742</v>
       </c>
       <c r="I10" t="n">
-        <v>1.243</v>
+        <v>1.505</v>
       </c>
       <c r="J10" t="n">
-        <v>0.868</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.616</v>
+        <v>0.602</v>
       </c>
       <c r="F11" t="n">
-        <v>0.58</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.381</v>
+        <v>0.395</v>
       </c>
       <c r="H11" t="n">
-        <v>0.617</v>
+        <v>0.628</v>
       </c>
       <c r="I11" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="J11" t="n">
-        <v>0.848</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="12">
@@ -861,31 +861,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.832</v>
+        <v>0.819</v>
       </c>
       <c r="C13" t="n">
-        <v>0.824</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.631</v>
+        <v>0.625</v>
       </c>
       <c r="E13" t="n">
-        <v>0.897</v>
+        <v>0.894</v>
       </c>
       <c r="F13" t="n">
-        <v>0.888</v>
+        <v>0.885</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="H13" t="n">
-        <v>0.316</v>
+        <v>0.321</v>
       </c>
       <c r="I13" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="J13" t="n">
-        <v>0.977</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.015</v>
+        <v>-0.122</v>
       </c>
       <c r="F14" t="n">
-        <v>2.015</v>
+        <v>2.122</v>
       </c>
       <c r="G14" t="n">
-        <v>0.645</v>
+        <v>0.713</v>
       </c>
       <c r="H14" t="n">
-        <v>0.803</v>
+        <v>0.844</v>
       </c>
       <c r="I14" t="n">
-        <v>0.658</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>0.177</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.669</v>
+        <v>-0.003</v>
       </c>
       <c r="F15" t="n">
-        <v>6.007</v>
+        <v>4.009</v>
       </c>
       <c r="G15" t="n">
-        <v>1.06</v>
+        <v>0.637</v>
       </c>
       <c r="H15" t="n">
-        <v>1.03</v>
+        <v>0.798</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.657</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.229</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="16">
@@ -984,10 +984,10 @@
         <v>0.626</v>
       </c>
       <c r="I16" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="J16" t="n">
-        <v>0.844</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="17">
@@ -1037,25 +1037,25 @@
         <v>0.821</v>
       </c>
       <c r="D18" t="n">
-        <v>0.633</v>
+        <v>0.634</v>
       </c>
       <c r="E18" t="n">
-        <v>0.902</v>
+        <v>0.899</v>
       </c>
       <c r="F18" t="n">
-        <v>0.894</v>
+        <v>0.89</v>
       </c>
       <c r="G18" t="n">
-        <v>0.092</v>
+        <v>0.095</v>
       </c>
       <c r="H18" t="n">
-        <v>0.303</v>
+        <v>0.308</v>
       </c>
       <c r="I18" t="n">
-        <v>0.218</v>
+        <v>0.215</v>
       </c>
       <c r="J18" t="n">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.335</v>
+        <v>-0.191</v>
       </c>
       <c r="F19" t="n">
-        <v>2.335</v>
+        <v>2.191</v>
       </c>
       <c r="G19" t="n">
-        <v>0.233</v>
+        <v>0.208</v>
       </c>
       <c r="H19" t="n">
-        <v>0.483</v>
+        <v>0.456</v>
       </c>
       <c r="I19" t="n">
-        <v>0.408</v>
+        <v>0.391</v>
       </c>
       <c r="J19" t="n">
-        <v>0.107</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="20">
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.078</v>
+        <v>-1.082</v>
       </c>
       <c r="F20" t="n">
-        <v>7.234</v>
+        <v>7.246</v>
       </c>
       <c r="G20" t="n">
         <v>0.363</v>
@@ -1120,10 +1120,10 @@
         <v>0.602</v>
       </c>
       <c r="I20" t="n">
-        <v>0.522</v>
+        <v>0.529</v>
       </c>
       <c r="J20" t="n">
-        <v>0.196</v>
+        <v>-0.387</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1142,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.593</v>
+        <v>0.595</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="H21" t="n">
-        <v>0.62</v>
+        <v>0.618</v>
       </c>
       <c r="I21" t="n">
-        <v>0.459</v>
+        <v>0.452</v>
       </c>
       <c r="J21" t="n">
-        <v>0.831</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="22">
@@ -1201,31 +1201,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.777</v>
+        <v>0.8</v>
       </c>
       <c r="C23" t="n">
-        <v>0.805</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.612</v>
+        <v>0.622</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9</v>
+        <v>0.905</v>
       </c>
       <c r="F23" t="n">
-        <v>0.892</v>
+        <v>0.897</v>
       </c>
       <c r="G23" t="n">
-        <v>0.094</v>
+        <v>0.09</v>
       </c>
       <c r="H23" t="n">
-        <v>0.307</v>
+        <v>0.3</v>
       </c>
       <c r="I23" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="J23" t="n">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.164</v>
+        <v>-0.046</v>
       </c>
       <c r="F24" t="n">
-        <v>1.836</v>
+        <v>2.046</v>
       </c>
       <c r="G24" t="n">
-        <v>0.657</v>
+        <v>0.822</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.907</v>
       </c>
       <c r="I24" t="n">
-        <v>0.596</v>
+        <v>0.73</v>
       </c>
       <c r="J24" t="n">
-        <v>0.493</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.224</v>
+        <v>-0.248</v>
       </c>
       <c r="F25" t="n">
-        <v>3.328</v>
+        <v>4.744</v>
       </c>
       <c r="G25" t="n">
-        <v>0.61</v>
+        <v>0.98</v>
       </c>
       <c r="H25" t="n">
-        <v>0.781</v>
+        <v>0.99</v>
       </c>
       <c r="I25" t="n">
-        <v>0.657</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.594</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1312,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.598</v>
+        <v>0.588</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="G26" t="n">
-        <v>0.379</v>
+        <v>0.389</v>
       </c>
       <c r="H26" t="n">
-        <v>0.616</v>
+        <v>0.624</v>
       </c>
       <c r="I26" t="n">
-        <v>0.454</v>
+        <v>0.451</v>
       </c>
       <c r="J26" t="n">
-        <v>0.84</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="27">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.803</v>
+        <v>0.782</v>
       </c>
       <c r="C28" t="n">
-        <v>0.821</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.623</v>
+        <v>0.619</v>
       </c>
       <c r="E28" t="n">
         <v>0.901</v>
@@ -1386,16 +1386,16 @@
         <v>0.893</v>
       </c>
       <c r="G28" t="n">
-        <v>0.094</v>
+        <v>0.093</v>
       </c>
       <c r="H28" t="n">
-        <v>0.307</v>
+        <v>0.305</v>
       </c>
       <c r="I28" t="n">
         <v>0.219</v>
       </c>
       <c r="J28" t="n">
-        <v>0.977</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.43</v>
+        <v>0.419</v>
       </c>
       <c r="F29" t="n">
-        <v>1.57</v>
+        <v>1.581</v>
       </c>
       <c r="G29" t="n">
-        <v>0.505</v>
+        <v>0.515</v>
       </c>
       <c r="H29" t="n">
-        <v>0.711</v>
+        <v>0.718</v>
       </c>
       <c r="I29" t="n">
-        <v>0.604</v>
+        <v>0.609</v>
       </c>
       <c r="J29" t="n">
-        <v>0.766</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1448,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.347</v>
       </c>
       <c r="F30" t="n">
-        <v>1.954</v>
+        <v>2.959</v>
       </c>
       <c r="G30" t="n">
-        <v>0.282</v>
+        <v>0.579</v>
       </c>
       <c r="H30" t="n">
-        <v>0.531</v>
+        <v>0.761</v>
       </c>
       <c r="I30" t="n">
-        <v>0.45</v>
+        <v>0.649</v>
       </c>
       <c r="J30" t="n">
-        <v>0.83</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1482,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.589</v>
+        <v>0.592</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.388</v>
+        <v>0.385</v>
       </c>
       <c r="H31" t="n">
-        <v>0.623</v>
+        <v>0.62</v>
       </c>
       <c r="I31" t="n">
-        <v>0.453</v>
+        <v>0.45</v>
       </c>
       <c r="J31" t="n">
-        <v>0.848</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="32">
@@ -1541,31 +1541,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.864</v>
+        <v>0.858</v>
       </c>
       <c r="C33" t="n">
-        <v>0.843</v>
+        <v>0.838</v>
       </c>
       <c r="D33" t="n">
-        <v>0.655</v>
+        <v>0.649</v>
       </c>
       <c r="E33" t="n">
-        <v>0.903</v>
+        <v>0.898</v>
       </c>
       <c r="F33" t="n">
-        <v>0.896</v>
+        <v>0.89</v>
       </c>
       <c r="G33" t="n">
-        <v>0.093</v>
+        <v>0.098</v>
       </c>
       <c r="H33" t="n">
-        <v>0.305</v>
+        <v>0.313</v>
       </c>
       <c r="I33" t="n">
-        <v>0.217</v>
+        <v>0.221</v>
       </c>
       <c r="J33" t="n">
-        <v>0.981</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1584,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.292</v>
+        <v>0.54</v>
       </c>
       <c r="F34" t="n">
-        <v>1.708</v>
+        <v>1.46</v>
       </c>
       <c r="G34" t="n">
-        <v>0.887</v>
+        <v>0.576</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.759</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.618</v>
       </c>
       <c r="J34" t="n">
-        <v>0.635</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1618,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.512</v>
+        <v>0.225</v>
       </c>
       <c r="F35" t="n">
-        <v>2.464</v>
+        <v>3.325</v>
       </c>
       <c r="G35" t="n">
-        <v>0.611</v>
+        <v>0.97</v>
       </c>
       <c r="H35" t="n">
-        <v>0.782</v>
+        <v>0.985</v>
       </c>
       <c r="I35" t="n">
-        <v>0.677</v>
+        <v>0.832</v>
       </c>
       <c r="J35" t="n">
-        <v>0.861</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.606</v>
+        <v>0.582</v>
       </c>
       <c r="F36" t="n">
-        <v>0.577</v>
+        <v>0.551</v>
       </c>
       <c r="G36" t="n">
-        <v>0.377</v>
+        <v>0.401</v>
       </c>
       <c r="H36" t="n">
-        <v>0.614</v>
+        <v>0.633</v>
       </c>
       <c r="I36" t="n">
-        <v>0.454</v>
+        <v>0.461</v>
       </c>
       <c r="J36" t="n">
-        <v>0.837</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="37">
@@ -1711,28 +1711,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="D38" t="n">
-        <v>0.64</v>
+        <v>0.641</v>
       </c>
       <c r="E38" t="n">
-        <v>0.906</v>
+        <v>0.898</v>
       </c>
       <c r="F38" t="n">
-        <v>0.899</v>
+        <v>0.891</v>
       </c>
       <c r="G38" t="n">
-        <v>0.089</v>
+        <v>0.096</v>
       </c>
       <c r="H38" t="n">
-        <v>0.298</v>
+        <v>0.31</v>
       </c>
       <c r="I38" t="n">
-        <v>0.216</v>
+        <v>0.22</v>
       </c>
       <c r="J38" t="n">
         <v>0.977</v>
@@ -1754,22 +1754,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.236</v>
+        <v>0.373</v>
       </c>
       <c r="F39" t="n">
-        <v>1.764</v>
+        <v>1.627</v>
       </c>
       <c r="G39" t="n">
-        <v>0.262</v>
+        <v>0.215</v>
       </c>
       <c r="H39" t="n">
-        <v>0.512</v>
+        <v>0.464</v>
       </c>
       <c r="I39" t="n">
-        <v>0.349</v>
+        <v>0.311</v>
       </c>
       <c r="J39" t="n">
-        <v>0.624</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1788,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.303</v>
+        <v>0.244</v>
       </c>
       <c r="F40" t="n">
-        <v>3.091</v>
+        <v>3.268</v>
       </c>
       <c r="G40" t="n">
-        <v>0.239</v>
+        <v>0.259</v>
       </c>
       <c r="H40" t="n">
-        <v>0.489</v>
+        <v>0.509</v>
       </c>
       <c r="I40" t="n">
-        <v>0.389</v>
+        <v>0.408</v>
       </c>
       <c r="J40" t="n">
-        <v>0.654</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1822,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.603</v>
+        <v>0.608</v>
       </c>
       <c r="F41" t="n">
-        <v>0.575</v>
+        <v>0.58</v>
       </c>
       <c r="G41" t="n">
-        <v>0.372</v>
+        <v>0.368</v>
       </c>
       <c r="H41" t="n">
-        <v>0.61</v>
+        <v>0.607</v>
       </c>
       <c r="I41" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="J41" t="n">
-        <v>0.847</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="42">
@@ -1881,31 +1881,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="C43" t="n">
         <v>0.8159999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.647</v>
+        <v>0.646</v>
       </c>
       <c r="E43" t="n">
-        <v>0.896</v>
+        <v>0.902</v>
       </c>
       <c r="F43" t="n">
-        <v>0.889</v>
+        <v>0.895</v>
       </c>
       <c r="G43" t="n">
-        <v>0.099</v>
+        <v>0.094</v>
       </c>
       <c r="H43" t="n">
-        <v>0.315</v>
+        <v>0.307</v>
       </c>
       <c r="I43" t="n">
-        <v>0.221</v>
+        <v>0.22</v>
       </c>
       <c r="J43" t="n">
-        <v>0.975</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1924,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.467</v>
+        <v>0.434</v>
       </c>
       <c r="F44" t="n">
-        <v>1.533</v>
+        <v>1.566</v>
       </c>
       <c r="G44" t="n">
-        <v>0.622</v>
+        <v>0.66</v>
       </c>
       <c r="H44" t="n">
-        <v>0.789</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>0.709</v>
+        <v>0.714</v>
       </c>
       <c r="J44" t="n">
-        <v>0.835</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1958,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.468</v>
+        <v>0.39</v>
       </c>
       <c r="F45" t="n">
-        <v>2.596</v>
+        <v>2.83</v>
       </c>
       <c r="G45" t="n">
-        <v>0.621</v>
+        <v>0.711</v>
       </c>
       <c r="H45" t="n">
-        <v>0.788</v>
+        <v>0.843</v>
       </c>
       <c r="I45" t="n">
-        <v>0.578</v>
+        <v>0.705</v>
       </c>
       <c r="J45" t="n">
-        <v>0.897</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1992,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.608</v>
+        <v>0.598</v>
       </c>
       <c r="F46" t="n">
-        <v>0.581</v>
+        <v>0.57</v>
       </c>
       <c r="G46" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="H46" t="n">
-        <v>0.612</v>
+        <v>0.62</v>
       </c>
       <c r="I46" t="n">
-        <v>0.454</v>
+        <v>0.461</v>
       </c>
       <c r="J46" t="n">
-        <v>0.829</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="47">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.774</v>
+        <v>0.75</v>
       </c>
       <c r="C48" t="n">
-        <v>0.837</v>
+        <v>0.825</v>
       </c>
       <c r="D48" t="n">
         <v>0.64</v>
       </c>
       <c r="E48" t="n">
-        <v>0.907</v>
+        <v>0.902</v>
       </c>
       <c r="F48" t="n">
-        <v>0.901</v>
+        <v>0.895</v>
       </c>
       <c r="G48" t="n">
-        <v>0.089</v>
+        <v>0.093</v>
       </c>
       <c r="H48" t="n">
-        <v>0.298</v>
+        <v>0.305</v>
       </c>
       <c r="I48" t="n">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="J48" t="n">
-        <v>0.978</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +2094,22 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.198</v>
+        <v>0.346</v>
       </c>
       <c r="F49" t="n">
-        <v>1.802</v>
+        <v>1.654</v>
       </c>
       <c r="G49" t="n">
-        <v>0.719</v>
+        <v>0.586</v>
       </c>
       <c r="H49" t="n">
-        <v>0.848</v>
+        <v>0.766</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="J49" t="n">
-        <v>0.472</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.109</v>
+        <v>0.263</v>
       </c>
       <c r="F50" t="n">
-        <v>3.673</v>
+        <v>3.211</v>
       </c>
       <c r="G50" t="n">
-        <v>0.798</v>
+        <v>0.661</v>
       </c>
       <c r="H50" t="n">
-        <v>0.893</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="I50" t="n">
-        <v>0.725</v>
+        <v>0.711</v>
       </c>
       <c r="J50" t="n">
-        <v>0.375</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.589</v>
+        <v>0.579</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="G51" t="n">
-        <v>0.393</v>
+        <v>0.403</v>
       </c>
       <c r="H51" t="n">
-        <v>0.627</v>
+        <v>0.635</v>
       </c>
       <c r="I51" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="J51" t="n">
-        <v>0.838</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="52">
@@ -2221,31 +2221,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.725</v>
+        <v>0.721</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.626</v>
+        <v>0.624</v>
       </c>
       <c r="E53" t="n">
-        <v>0.908</v>
+        <v>0.91</v>
       </c>
       <c r="F53" t="n">
-        <v>0.902</v>
+        <v>0.904</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0.295</v>
+        <v>0.292</v>
       </c>
       <c r="I53" t="n">
         <v>0.216</v>
       </c>
       <c r="J53" t="n">
-        <v>0.978</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.402</v>
+        <v>0.357</v>
       </c>
       <c r="F54" t="n">
-        <v>1.598</v>
+        <v>1.643</v>
       </c>
       <c r="G54" t="n">
-        <v>0.377</v>
+        <v>0.406</v>
       </c>
       <c r="H54" t="n">
-        <v>0.614</v>
+        <v>0.637</v>
       </c>
       <c r="I54" t="n">
-        <v>0.49</v>
+        <v>0.508</v>
       </c>
       <c r="J54" t="n">
-        <v>0.635</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +2298,22 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.511</v>
+        <v>0.721</v>
       </c>
       <c r="F55" t="n">
-        <v>2.467</v>
+        <v>1.837</v>
       </c>
       <c r="G55" t="n">
-        <v>0.309</v>
+        <v>0.176</v>
       </c>
       <c r="H55" t="n">
-        <v>0.556</v>
+        <v>0.42</v>
       </c>
       <c r="I55" t="n">
-        <v>0.475</v>
+        <v>0.386</v>
       </c>
       <c r="J55" t="n">
-        <v>0.75</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +2332,22 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.603</v>
+        <v>0.591</v>
       </c>
       <c r="F56" t="n">
-        <v>0.578</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>0.376</v>
+        <v>0.388</v>
       </c>
       <c r="H56" t="n">
-        <v>0.613</v>
+        <v>0.623</v>
       </c>
       <c r="I56" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="J56" t="n">
-        <v>0.828</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="57">
@@ -2391,31 +2391,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.725</v>
+        <v>0.704</v>
       </c>
       <c r="C58" t="n">
-        <v>0.819</v>
+        <v>0.804</v>
       </c>
       <c r="D58" t="n">
-        <v>0.625</v>
+        <v>0.613</v>
       </c>
       <c r="E58" t="n">
-        <v>0.905</v>
+        <v>0.912</v>
       </c>
       <c r="F58" t="n">
-        <v>0.899</v>
+        <v>0.907</v>
       </c>
       <c r="G58" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.081</v>
       </c>
       <c r="H58" t="n">
-        <v>0.297</v>
+        <v>0.285</v>
       </c>
       <c r="I58" t="n">
-        <v>0.217</v>
+        <v>0.212</v>
       </c>
       <c r="J58" t="n">
-        <v>0.981</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2434,22 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.308</v>
+        <v>0.394</v>
       </c>
       <c r="F59" t="n">
-        <v>1.692</v>
+        <v>1.606</v>
       </c>
       <c r="G59" t="n">
-        <v>0.209</v>
+        <v>0.183</v>
       </c>
       <c r="H59" t="n">
-        <v>0.457</v>
+        <v>0.428</v>
       </c>
       <c r="I59" t="n">
-        <v>0.342</v>
+        <v>0.295</v>
       </c>
       <c r="J59" t="n">
-        <v>0.573</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2468,22 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.049</v>
+        <v>0.15</v>
       </c>
       <c r="F60" t="n">
-        <v>3.853</v>
+        <v>3.55</v>
       </c>
       <c r="G60" t="n">
-        <v>0.287</v>
+        <v>0.257</v>
       </c>
       <c r="H60" t="n">
-        <v>0.536</v>
+        <v>0.507</v>
       </c>
       <c r="I60" t="n">
-        <v>0.395</v>
+        <v>0.353</v>
       </c>
       <c r="J60" t="n">
-        <v>0.36</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2502,22 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.599</v>
+        <v>0.578</v>
       </c>
       <c r="F61" t="n">
-        <v>0.574</v>
+        <v>0.552</v>
       </c>
       <c r="G61" t="n">
-        <v>0.372</v>
+        <v>0.391</v>
       </c>
       <c r="H61" t="n">
-        <v>0.61</v>
+        <v>0.625</v>
       </c>
       <c r="I61" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="J61" t="n">
-        <v>0.844</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="62">
@@ -2561,31 +2561,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.726</v>
+        <v>0.705</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.803</v>
       </c>
       <c r="D63" t="n">
-        <v>0.626</v>
+        <v>0.618</v>
       </c>
       <c r="E63" t="n">
-        <v>0.905</v>
+        <v>0.904</v>
       </c>
       <c r="F63" t="n">
-        <v>0.899</v>
+        <v>0.898</v>
       </c>
       <c r="G63" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0.295</v>
+        <v>0.297</v>
       </c>
       <c r="I63" t="n">
-        <v>0.216</v>
+        <v>0.218</v>
       </c>
       <c r="J63" t="n">
-        <v>0.977</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2604,22 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.213</v>
+        <v>0.185</v>
       </c>
       <c r="F64" t="n">
-        <v>1.787</v>
+        <v>1.815</v>
       </c>
       <c r="G64" t="n">
-        <v>0.384</v>
+        <v>0.398</v>
       </c>
       <c r="H64" t="n">
-        <v>0.62</v>
+        <v>0.631</v>
       </c>
       <c r="I64" t="n">
-        <v>0.442</v>
+        <v>0.531</v>
       </c>
       <c r="J64" t="n">
-        <v>0.519</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2638,22 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.396</v>
+        <v>0.405</v>
       </c>
       <c r="F65" t="n">
-        <v>2.812</v>
+        <v>2.785</v>
       </c>
       <c r="G65" t="n">
-        <v>0.295</v>
+        <v>0.29</v>
       </c>
       <c r="H65" t="n">
-        <v>0.543</v>
+        <v>0.539</v>
       </c>
       <c r="I65" t="n">
-        <v>0.438</v>
+        <v>0.445</v>
       </c>
       <c r="J65" t="n">
-        <v>0.631</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2672,22 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.591</v>
+        <v>0.583</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>0.374</v>
+        <v>0.381</v>
       </c>
       <c r="H66" t="n">
-        <v>0.612</v>
+        <v>0.617</v>
       </c>
       <c r="I66" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="J66" t="n">
-        <v>0.836</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="67">
@@ -2731,31 +2731,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.752</v>
+        <v>0.736</v>
       </c>
       <c r="C68" t="n">
-        <v>0.828</v>
+        <v>0.819</v>
       </c>
       <c r="D68" t="n">
-        <v>0.641</v>
+        <v>0.636</v>
       </c>
       <c r="E68" t="n">
-        <v>0.903</v>
+        <v>0.905</v>
       </c>
       <c r="F68" t="n">
-        <v>0.897</v>
+        <v>0.9</v>
       </c>
       <c r="G68" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0.297</v>
+        <v>0.293</v>
       </c>
       <c r="I68" t="n">
-        <v>0.219</v>
+        <v>0.213</v>
       </c>
       <c r="J68" t="n">
-        <v>0.975</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2774,22 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.103</v>
+        <v>0.186</v>
       </c>
       <c r="F69" t="n">
-        <v>1.897</v>
+        <v>1.814</v>
       </c>
       <c r="G69" t="n">
-        <v>0.448</v>
+        <v>0.407</v>
       </c>
       <c r="H69" t="n">
-        <v>0.669</v>
+        <v>0.638</v>
       </c>
       <c r="I69" t="n">
-        <v>0.485</v>
+        <v>0.516</v>
       </c>
       <c r="J69" t="n">
-        <v>0.495</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2808,22 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.066</v>
+        <v>0.127</v>
       </c>
       <c r="F70" t="n">
-        <v>3.802</v>
+        <v>3.619</v>
       </c>
       <c r="G70" t="n">
-        <v>0.467</v>
+        <v>0.437</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.661</v>
       </c>
       <c r="I70" t="n">
-        <v>0.518</v>
+        <v>0.483</v>
       </c>
       <c r="J70" t="n">
-        <v>0.319</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.609</v>
+        <v>0.585</v>
       </c>
       <c r="F71" t="n">
-        <v>0.586</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>0.353</v>
+        <v>0.375</v>
       </c>
       <c r="H71" t="n">
-        <v>0.594</v>
+        <v>0.612</v>
       </c>
       <c r="I71" t="n">
-        <v>0.446</v>
+        <v>0.46</v>
       </c>
       <c r="J71" t="n">
-        <v>0.84</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="72">
@@ -2901,31 +2901,31 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.701</v>
+        <v>0.696</v>
       </c>
       <c r="C73" t="n">
-        <v>0.803</v>
+        <v>0.801</v>
       </c>
       <c r="D73" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="E73" t="n">
-        <v>0.908</v>
+        <v>0.91</v>
       </c>
       <c r="F73" t="n">
-        <v>0.903</v>
+        <v>0.905</v>
       </c>
       <c r="G73" t="n">
-        <v>0.081</v>
+        <v>0.08</v>
       </c>
       <c r="H73" t="n">
-        <v>0.285</v>
+        <v>0.283</v>
       </c>
       <c r="I73" t="n">
-        <v>0.213</v>
+        <v>0.214</v>
       </c>
       <c r="J73" t="n">
-        <v>0.976</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2944,22 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="F74" t="n">
-        <v>1.436</v>
+        <v>1.54</v>
       </c>
       <c r="G74" t="n">
-        <v>0.172</v>
+        <v>0.212</v>
       </c>
       <c r="H74" t="n">
-        <v>0.415</v>
+        <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>0.31</v>
+        <v>0.358</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2978,22 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="F75" t="n">
-        <v>1.93</v>
+        <v>2.401</v>
       </c>
       <c r="G75" t="n">
-        <v>0.122</v>
+        <v>0.184</v>
       </c>
       <c r="H75" t="n">
-        <v>0.349</v>
+        <v>0.429</v>
       </c>
       <c r="I75" t="n">
-        <v>0.303</v>
+        <v>0.368</v>
       </c>
       <c r="J75" t="n">
-        <v>0.901</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +3012,22 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.592</v>
+        <v>0.587</v>
       </c>
       <c r="F76" t="n">
-        <v>0.569</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>0.363</v>
+        <v>0.367</v>
       </c>
       <c r="H76" t="n">
-        <v>0.602</v>
+        <v>0.606</v>
       </c>
       <c r="I76" t="n">
         <v>0.452</v>
       </c>
       <c r="J76" t="n">
-        <v>0.832</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="77">
@@ -3071,31 +3071,31 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.668</v>
+        <v>0.659</v>
       </c>
       <c r="C78" t="n">
-        <v>0.787</v>
+        <v>0.784</v>
       </c>
       <c r="D78" t="n">
-        <v>0.604</v>
+        <v>0.607</v>
       </c>
       <c r="E78" t="n">
-        <v>0.907</v>
+        <v>0.903</v>
       </c>
       <c r="F78" t="n">
-        <v>0.902</v>
+        <v>0.898</v>
       </c>
       <c r="G78" t="n">
-        <v>0.082</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0.286</v>
+        <v>0.292</v>
       </c>
       <c r="I78" t="n">
-        <v>0.209</v>
+        <v>0.215</v>
       </c>
       <c r="J78" t="n">
-        <v>0.975</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>-4.594</v>
+        <v>-0.642</v>
       </c>
       <c r="F79" t="n">
-        <v>1.329</v>
+        <v>1.097</v>
       </c>
       <c r="G79" t="n">
-        <v>0.152</v>
+        <v>0.045</v>
       </c>
       <c r="H79" t="n">
-        <v>0.39</v>
+        <v>0.212</v>
       </c>
       <c r="I79" t="n">
-        <v>0.299</v>
+        <v>0.159</v>
       </c>
       <c r="J79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,19 +3148,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-5.038</v>
+        <v>-4.087</v>
       </c>
       <c r="F80" t="n">
-        <v>1.549</v>
+        <v>1.462</v>
       </c>
       <c r="G80" t="n">
-        <v>0.164</v>
+        <v>0.138</v>
       </c>
       <c r="H80" t="n">
-        <v>0.405</v>
+        <v>0.371</v>
       </c>
       <c r="I80" t="n">
-        <v>0.355</v>
+        <v>0.299</v>
       </c>
       <c r="J80" t="n">
         <v>-1</v>
@@ -3182,22 +3182,22 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.587</v>
+        <v>0.607</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.585</v>
       </c>
       <c r="G81" t="n">
-        <v>0.365</v>
+        <v>0.348</v>
       </c>
       <c r="H81" t="n">
-        <v>0.604</v>
+        <v>0.59</v>
       </c>
       <c r="I81" t="n">
-        <v>0.455</v>
+        <v>0.443</v>
       </c>
       <c r="J81" t="n">
-        <v>0.83</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="82">
@@ -3241,31 +3241,31 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.746</v>
+        <v>0.766</v>
       </c>
       <c r="C83" t="n">
-        <v>0.82</v>
+        <v>0.833</v>
       </c>
       <c r="D83" t="n">
-        <v>0.632</v>
+        <v>0.638</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9</v>
+        <v>0.904</v>
       </c>
       <c r="F83" t="n">
-        <v>0.894</v>
+        <v>0.899</v>
       </c>
       <c r="G83" t="n">
-        <v>0.09</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3</v>
+        <v>0.295</v>
       </c>
       <c r="I83" t="n">
-        <v>0.222</v>
+        <v>0.217</v>
       </c>
       <c r="J83" t="n">
-        <v>0.975</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="84">
@@ -3284,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-3.408</v>
+        <v>-1.511</v>
       </c>
       <c r="F84" t="n">
-        <v>1.259</v>
+        <v>1.148</v>
       </c>
       <c r="G84" t="n">
-        <v>1.879</v>
+        <v>1.071</v>
       </c>
       <c r="H84" t="n">
-        <v>1.371</v>
+        <v>1.035</v>
       </c>
       <c r="I84" t="n">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -3318,19 +3318,19 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-5.384</v>
+        <v>-5.054</v>
       </c>
       <c r="F85" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="G85" t="n">
-        <v>2.722</v>
+        <v>2.581</v>
       </c>
       <c r="H85" t="n">
-        <v>1.65</v>
+        <v>1.607</v>
       </c>
       <c r="I85" t="n">
-        <v>1.607</v>
+        <v>1.555</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -3352,22 +3352,22 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.613</v>
+        <v>0.599</v>
       </c>
       <c r="F86" t="n">
-        <v>0.592</v>
+        <v>0.577</v>
       </c>
       <c r="G86" t="n">
-        <v>0.349</v>
+        <v>0.362</v>
       </c>
       <c r="H86" t="n">
-        <v>0.591</v>
+        <v>0.602</v>
       </c>
       <c r="I86" t="n">
-        <v>0.447</v>
+        <v>0.453</v>
       </c>
       <c r="J86" t="n">
-        <v>0.843</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="87">
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.714</v>
+        <v>0.716</v>
       </c>
       <c r="C88" t="n">
-        <v>0.801</v>
+        <v>0.803</v>
       </c>
       <c r="D88" t="n">
-        <v>0.617</v>
+        <v>0.619</v>
       </c>
       <c r="E88" t="n">
         <v>0.902</v>
@@ -3432,10 +3432,10 @@
         <v>0.297</v>
       </c>
       <c r="I88" t="n">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="J88" t="n">
-        <v>0.973</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="89">
@@ -3454,19 +3454,19 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-2.106</v>
+        <v>-3.86</v>
       </c>
       <c r="F89" t="n">
-        <v>1.183</v>
+        <v>1.286</v>
       </c>
       <c r="G89" t="n">
-        <v>1.935</v>
+        <v>3.028</v>
       </c>
       <c r="H89" t="n">
-        <v>1.391</v>
+        <v>1.74</v>
       </c>
       <c r="I89" t="n">
-        <v>1.192</v>
+        <v>1.681</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3488,22 +3488,22 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-42.037</v>
+        <v>-32.894</v>
       </c>
       <c r="F90" t="n">
-        <v>4.912</v>
+        <v>4.081</v>
       </c>
       <c r="G90" t="n">
-        <v>26.814</v>
+        <v>21.117</v>
       </c>
       <c r="H90" t="n">
-        <v>5.178</v>
+        <v>4.595</v>
       </c>
       <c r="I90" t="n">
-        <v>4.729</v>
+        <v>4.02</v>
       </c>
       <c r="J90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +3522,22 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.581</v>
+        <v>0.577</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="G91" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="H91" t="n">
-        <v>0.614</v>
+        <v>0.616</v>
       </c>
       <c r="I91" t="n">
-        <v>0.455</v>
+        <v>0.459</v>
       </c>
       <c r="J91" t="n">
-        <v>0.823</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="92">
@@ -3581,31 +3581,31 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.717</v>
+        <v>0.703</v>
       </c>
       <c r="C93" t="n">
-        <v>0.802</v>
+        <v>0.796</v>
       </c>
       <c r="D93" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="E93" t="n">
-        <v>0.906</v>
+        <v>0.903</v>
       </c>
       <c r="F93" t="n">
-        <v>0.901</v>
+        <v>0.898</v>
       </c>
       <c r="G93" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0.292</v>
+        <v>0.295</v>
       </c>
       <c r="I93" t="n">
         <v>0.219</v>
       </c>
       <c r="J93" t="n">
-        <v>0.972</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="94">
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-12.848</v>
+        <v>-7.749</v>
       </c>
       <c r="F94" t="n">
-        <v>1.815</v>
+        <v>1.515</v>
       </c>
       <c r="G94" t="n">
-        <v>1.053</v>
+        <v>0.665</v>
       </c>
       <c r="H94" t="n">
-        <v>1.026</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I94" t="n">
-        <v>1.025</v>
+        <v>0.78</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -3658,19 +3658,19 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-10.821</v>
+        <v>-55.733</v>
       </c>
       <c r="F95" t="n">
-        <v>2.075</v>
+        <v>6.158</v>
       </c>
       <c r="G95" t="n">
-        <v>0.899</v>
+        <v>4.315</v>
       </c>
       <c r="H95" t="n">
-        <v>0.948</v>
+        <v>2.077</v>
       </c>
       <c r="I95" t="n">
-        <v>0.723</v>
+        <v>1.789</v>
       </c>
       <c r="J95" t="n">
         <v>-1</v>
@@ -3692,22 +3692,22 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.589</v>
+        <v>0.582</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>0.369</v>
+        <v>0.375</v>
       </c>
       <c r="H96" t="n">
-        <v>0.607</v>
+        <v>0.612</v>
       </c>
       <c r="I96" t="n">
-        <v>0.455</v>
+        <v>0.458</v>
       </c>
       <c r="J96" t="n">
-        <v>0.833</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="97">
@@ -3751,31 +3751,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.696</v>
+        <v>0.702</v>
       </c>
       <c r="C98" t="n">
-        <v>0.789</v>
+        <v>0.794</v>
       </c>
       <c r="D98" t="n">
-        <v>0.608</v>
+        <v>0.619</v>
       </c>
       <c r="E98" t="n">
-        <v>0.903</v>
+        <v>0.905</v>
       </c>
       <c r="F98" t="n">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0.293</v>
+        <v>0.292</v>
       </c>
       <c r="I98" t="n">
-        <v>0.211</v>
+        <v>0.218</v>
       </c>
       <c r="J98" t="n">
-        <v>0.975</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3794,22 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.27</v>
+        <v>-2.007</v>
       </c>
       <c r="F99" t="n">
-        <v>1.043</v>
+        <v>1.177</v>
       </c>
       <c r="G99" t="n">
-        <v>0.015</v>
+        <v>0.06</v>
       </c>
       <c r="H99" t="n">
-        <v>0.122</v>
+        <v>0.245</v>
       </c>
       <c r="I99" t="n">
-        <v>0.116</v>
+        <v>0.245</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.629</v>
+        <v>-5.404</v>
       </c>
       <c r="F100" t="n">
-        <v>1.034</v>
+        <v>1.582</v>
       </c>
       <c r="G100" t="n">
-        <v>0.007</v>
+        <v>0.128</v>
       </c>
       <c r="H100" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.358</v>
       </c>
       <c r="I100" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.326</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -3874,10 +3874,10 @@
         <v>0.608</v>
       </c>
       <c r="I101" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="J101" t="n">
-        <v>0.853</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="102">
@@ -3921,28 +3921,28 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="C103" t="n">
-        <v>0.789</v>
+        <v>0.78</v>
       </c>
       <c r="D103" t="n">
-        <v>0.609</v>
+        <v>0.599</v>
       </c>
       <c r="E103" t="n">
-        <v>0.908</v>
+        <v>0.905</v>
       </c>
       <c r="F103" t="n">
-        <v>0.903</v>
+        <v>0.9</v>
       </c>
       <c r="G103" t="n">
-        <v>0.082</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
       <c r="I103" t="n">
-        <v>0.213</v>
+        <v>0.215</v>
       </c>
       <c r="J103" t="n">
         <v>0.974</v>
@@ -3964,22 +3964,22 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.748</v>
+        <v>0.181</v>
       </c>
       <c r="F104" t="n">
-        <v>1.103</v>
+        <v>1.048</v>
       </c>
       <c r="G104" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.041</v>
       </c>
       <c r="H104" t="n">
-        <v>0.297</v>
+        <v>0.202</v>
       </c>
       <c r="I104" t="n">
-        <v>0.262</v>
+        <v>0.186</v>
       </c>
       <c r="J104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3998,19 +3998,19 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-10.496</v>
+        <v>-2.426</v>
       </c>
       <c r="F105" t="n">
-        <v>2.045</v>
+        <v>1.311</v>
       </c>
       <c r="G105" t="n">
-        <v>0.58</v>
+        <v>0.173</v>
       </c>
       <c r="H105" t="n">
-        <v>0.762</v>
+        <v>0.416</v>
       </c>
       <c r="I105" t="n">
-        <v>0.61</v>
+        <v>0.353</v>
       </c>
       <c r="J105" t="n">
         <v>-1</v>
@@ -4032,22 +4032,22 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.584</v>
+        <v>0.6</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="G106" t="n">
-        <v>0.37</v>
+        <v>0.355</v>
       </c>
       <c r="H106" t="n">
-        <v>0.608</v>
+        <v>0.596</v>
       </c>
       <c r="I106" t="n">
-        <v>0.451</v>
+        <v>0.444</v>
       </c>
       <c r="J106" t="n">
-        <v>0.837</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="107">
@@ -4091,28 +4091,28 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.695</v>
       </c>
       <c r="C108" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
       <c r="D108" t="n">
-        <v>0.611</v>
+        <v>0.613</v>
       </c>
       <c r="E108" t="n">
-        <v>0.905</v>
+        <v>0.903</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
       <c r="G108" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0.29</v>
+        <v>0.293</v>
       </c>
       <c r="I108" t="n">
-        <v>0.215</v>
+        <v>0.213</v>
       </c>
       <c r="J108" t="n">
         <v>0.975</v>
@@ -4134,19 +4134,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-9.507</v>
+        <v>-6.076</v>
       </c>
       <c r="F109" t="n">
-        <v>1.618</v>
+        <v>1.416</v>
       </c>
       <c r="G109" t="n">
-        <v>0.328</v>
+        <v>0.221</v>
       </c>
       <c r="H109" t="n">
-        <v>0.573</v>
+        <v>0.47</v>
       </c>
       <c r="I109" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.462</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -4168,19 +4168,19 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.207</v>
+        <v>-0.277</v>
       </c>
       <c r="F110" t="n">
-        <v>1.072</v>
+        <v>1.116</v>
       </c>
       <c r="G110" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="H110" t="n">
-        <v>0.158</v>
+        <v>0.2</v>
       </c>
       <c r="I110" t="n">
-        <v>0.153</v>
+        <v>0.187</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4202,22 +4202,22 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.602</v>
+        <v>0.569</v>
       </c>
       <c r="F111" t="n">
-        <v>0.581</v>
+        <v>0.546</v>
       </c>
       <c r="G111" t="n">
-        <v>0.353</v>
+        <v>0.383</v>
       </c>
       <c r="H111" t="n">
-        <v>0.594</v>
+        <v>0.619</v>
       </c>
       <c r="I111" t="n">
-        <v>0.442</v>
+        <v>0.455</v>
       </c>
       <c r="J111" t="n">
-        <v>0.845</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="112">
@@ -4261,31 +4261,31 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.719</v>
+        <v>0.727</v>
       </c>
       <c r="C113" t="n">
-        <v>0.803</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.623</v>
+        <v>0.627</v>
       </c>
       <c r="E113" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="F113" t="n">
         <v>0.901</v>
       </c>
-      <c r="F113" t="n">
-        <v>0.896</v>
-      </c>
       <c r="G113" t="n">
-        <v>0.089</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H113" t="n">
-        <v>0.298</v>
+        <v>0.29</v>
       </c>
       <c r="I113" t="n">
-        <v>0.216</v>
+        <v>0.212</v>
       </c>
       <c r="J113" t="n">
-        <v>0.975</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="114">
@@ -4304,22 +4304,22 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-50.668</v>
+        <v>-76.8</v>
       </c>
       <c r="F114" t="n">
-        <v>4.039</v>
+        <v>5.576</v>
       </c>
       <c r="G114" t="n">
-        <v>1.396</v>
+        <v>2.103</v>
       </c>
       <c r="H114" t="n">
-        <v>1.182</v>
+        <v>1.45</v>
       </c>
       <c r="I114" t="n">
-        <v>1.167</v>
+        <v>1.431</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
@@ -4338,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>-24.421</v>
+        <v>-59.556</v>
       </c>
       <c r="F115" t="n">
-        <v>3.311</v>
+        <v>6.505</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6870000000000001</v>
+        <v>1.637</v>
       </c>
       <c r="H115" t="n">
-        <v>0.829</v>
+        <v>1.279</v>
       </c>
       <c r="I115" t="n">
-        <v>0.79</v>
+        <v>1.267</v>
       </c>
       <c r="J115" t="n">
         <v>-1</v>
@@ -4372,22 +4372,22 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.605</v>
+        <v>0.579</v>
       </c>
       <c r="F116" t="n">
-        <v>0.584</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>0.355</v>
+        <v>0.378</v>
       </c>
       <c r="H116" t="n">
-        <v>0.596</v>
+        <v>0.615</v>
       </c>
       <c r="I116" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="J116" t="n">
-        <v>0.837</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="117">
@@ -4431,19 +4431,19 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.732</v>
+        <v>0.711</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.802</v>
       </c>
       <c r="D118" t="n">
-        <v>0.632</v>
+        <v>0.629</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9</v>
+        <v>0.901</v>
       </c>
       <c r="F118" t="n">
-        <v>0.895</v>
+        <v>0.896</v>
       </c>
       <c r="G118" t="n">
         <v>0.091</v>
@@ -4452,10 +4452,10 @@
         <v>0.302</v>
       </c>
       <c r="I118" t="n">
-        <v>0.222</v>
+        <v>0.221</v>
       </c>
       <c r="J118" t="n">
-        <v>0.973</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="119">
@@ -4474,19 +4474,19 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>-57.54</v>
+        <v>-38.969</v>
       </c>
       <c r="F119" t="n">
-        <v>4.444</v>
+        <v>3.351</v>
       </c>
       <c r="G119" t="n">
-        <v>1.99</v>
+        <v>1.359</v>
       </c>
       <c r="H119" t="n">
-        <v>1.411</v>
+        <v>1.166</v>
       </c>
       <c r="I119" t="n">
-        <v>1.41</v>
+        <v>1.165</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -4508,19 +4508,19 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-2.003</v>
+        <v>-30.741</v>
       </c>
       <c r="F120" t="n">
-        <v>1.273</v>
+        <v>3.886</v>
       </c>
       <c r="G120" t="n">
-        <v>0.102</v>
+        <v>1.079</v>
       </c>
       <c r="H120" t="n">
-        <v>0.319</v>
+        <v>1.039</v>
       </c>
       <c r="I120" t="n">
-        <v>0.294</v>
+        <v>1.031</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -4542,22 +4542,22 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.58</v>
+        <v>0.591</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="G121" t="n">
-        <v>0.385</v>
+        <v>0.375</v>
       </c>
       <c r="H121" t="n">
-        <v>0.62</v>
+        <v>0.612</v>
       </c>
       <c r="I121" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="J121" t="n">
-        <v>0.848</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="122">
@@ -4601,31 +4601,31 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.727</v>
+        <v>0.73</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.631</v>
+        <v>0.632</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9</v>
+        <v>0.909</v>
       </c>
       <c r="F123" t="n">
-        <v>0.895</v>
+        <v>0.904</v>
       </c>
       <c r="G123" t="n">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
       <c r="H123" t="n">
-        <v>0.302</v>
+        <v>0.288</v>
       </c>
       <c r="I123" t="n">
-        <v>0.222</v>
+        <v>0.214</v>
       </c>
       <c r="J123" t="n">
-        <v>0.972</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="124">
@@ -4644,19 +4644,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-3.579</v>
+        <v>-2.724</v>
       </c>
       <c r="F124" t="n">
-        <v>1.269</v>
+        <v>1.219</v>
       </c>
       <c r="G124" t="n">
-        <v>0.723</v>
+        <v>0.588</v>
       </c>
       <c r="H124" t="n">
-        <v>0.85</v>
+        <v>0.767</v>
       </c>
       <c r="I124" t="n">
-        <v>0.843</v>
+        <v>0.725</v>
       </c>
       <c r="J124" t="n">
         <v>-1</v>
@@ -4678,19 +4678,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>-2.516</v>
+        <v>-0.799</v>
       </c>
       <c r="F125" t="n">
-        <v>1.32</v>
+        <v>1.164</v>
       </c>
       <c r="G125" t="n">
-        <v>0.555</v>
+        <v>0.284</v>
       </c>
       <c r="H125" t="n">
-        <v>0.745</v>
+        <v>0.533</v>
       </c>
       <c r="I125" t="n">
-        <v>0.633</v>
+        <v>0.516</v>
       </c>
       <c r="J125" t="n">
         <v>-1</v>
@@ -4712,22 +4712,22 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6</v>
+        <v>0.589</v>
       </c>
       <c r="F126" t="n">
-        <v>0.579</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>0.365</v>
+        <v>0.376</v>
       </c>
       <c r="H126" t="n">
-        <v>0.604</v>
+        <v>0.613</v>
       </c>
       <c r="I126" t="n">
-        <v>0.449</v>
+        <v>0.454</v>
       </c>
       <c r="J126" t="n">
-        <v>0.844</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="127">
@@ -4771,31 +4771,31 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.763</v>
+        <v>0.737</v>
       </c>
       <c r="C128" t="n">
-        <v>0.832</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.643</v>
+        <v>0.633</v>
       </c>
       <c r="E128" t="n">
-        <v>0.904</v>
+        <v>0.905</v>
       </c>
       <c r="F128" t="n">
-        <v>0.899</v>
+        <v>0.9</v>
       </c>
       <c r="G128" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0.297</v>
+        <v>0.295</v>
       </c>
       <c r="I128" t="n">
-        <v>0.218</v>
+        <v>0.216</v>
       </c>
       <c r="J128" t="n">
-        <v>0.977</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="129">
@@ -4814,19 +4814,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>-1.006</v>
+        <v>-0.431</v>
       </c>
       <c r="F129" t="n">
-        <v>1.118</v>
+        <v>1.084</v>
       </c>
       <c r="G129" t="n">
-        <v>1.315</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="H129" t="n">
-        <v>1.147</v>
+        <v>0.969</v>
       </c>
       <c r="I129" t="n">
-        <v>0.847</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J129" t="n">
         <v>-1</v>
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.282</v>
+        <v>-2.636</v>
       </c>
       <c r="F130" t="n">
-        <v>1.207</v>
+        <v>1.331</v>
       </c>
       <c r="G130" t="n">
-        <v>1.496</v>
+        <v>2.383</v>
       </c>
       <c r="H130" t="n">
-        <v>1.223</v>
+        <v>1.544</v>
       </c>
       <c r="I130" t="n">
-        <v>1.221</v>
+        <v>1.107</v>
       </c>
       <c r="J130" t="n">
         <v>-1</v>
@@ -4882,22 +4882,22 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.599</v>
+        <v>0.591</v>
       </c>
       <c r="F131" t="n">
-        <v>0.578</v>
+        <v>0.57</v>
       </c>
       <c r="G131" t="n">
-        <v>0.368</v>
+        <v>0.376</v>
       </c>
       <c r="H131" t="n">
-        <v>0.607</v>
+        <v>0.613</v>
       </c>
       <c r="I131" t="n">
-        <v>0.452</v>
+        <v>0.456</v>
       </c>
       <c r="J131" t="n">
-        <v>0.844</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="132">
@@ -4941,31 +4941,31 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="C133" t="n">
-        <v>0.829</v>
+        <v>0.826</v>
       </c>
       <c r="D133" t="n">
-        <v>0.638</v>
+        <v>0.636</v>
       </c>
       <c r="E133" t="n">
-        <v>0.907</v>
+        <v>0.902</v>
       </c>
       <c r="F133" t="n">
-        <v>0.902</v>
+        <v>0.897</v>
       </c>
       <c r="G133" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H133" t="n">
-        <v>0.292</v>
+        <v>0.3</v>
       </c>
       <c r="I133" t="n">
-        <v>0.218</v>
+        <v>0.223</v>
       </c>
       <c r="J133" t="n">
-        <v>0.975</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="134">
@@ -4984,19 +4984,19 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.243</v>
+        <v>0.556</v>
       </c>
       <c r="F134" t="n">
-        <v>1.073</v>
+        <v>1.026</v>
       </c>
       <c r="G134" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.032</v>
       </c>
       <c r="H134" t="n">
-        <v>0.297</v>
+        <v>0.179</v>
       </c>
       <c r="I134" t="n">
-        <v>0.282</v>
+        <v>0.134</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -5018,22 +5018,22 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>-3.037</v>
+        <v>-0.919</v>
       </c>
       <c r="F135" t="n">
-        <v>1.367</v>
+        <v>1.174</v>
       </c>
       <c r="G135" t="n">
-        <v>0.287</v>
+        <v>0.136</v>
       </c>
       <c r="H135" t="n">
-        <v>0.536</v>
+        <v>0.369</v>
       </c>
       <c r="I135" t="n">
-        <v>0.512</v>
+        <v>0.347</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136">
@@ -5052,22 +5052,22 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.583</v>
+        <v>0.586</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G136" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="H136" t="n">
-        <v>0.617</v>
+        <v>0.616</v>
       </c>
       <c r="I136" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="J136" t="n">
-        <v>0.84</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="137">
@@ -5111,31 +5111,31 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.803</v>
+        <v>0.789</v>
       </c>
       <c r="C138" t="n">
-        <v>0.851</v>
+        <v>0.843</v>
       </c>
       <c r="D138" t="n">
-        <v>0.648</v>
+        <v>0.65</v>
       </c>
       <c r="E138" t="n">
-        <v>0.901</v>
+        <v>0.905</v>
       </c>
       <c r="F138" t="n">
-        <v>0.896</v>
+        <v>0.9</v>
       </c>
       <c r="G138" t="n">
-        <v>0.092</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0.303</v>
+        <v>0.297</v>
       </c>
       <c r="I138" t="n">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="J138" t="n">
-        <v>0.976</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="139">
@@ -5154,19 +5154,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>-180.481</v>
+        <v>-10.9</v>
       </c>
       <c r="F139" t="n">
-        <v>11.675</v>
+        <v>1.7</v>
       </c>
       <c r="G139" t="n">
-        <v>1.968</v>
+        <v>0.129</v>
       </c>
       <c r="H139" t="n">
-        <v>1.403</v>
+        <v>0.359</v>
       </c>
       <c r="I139" t="n">
-        <v>1.298</v>
+        <v>0.274</v>
       </c>
       <c r="J139" t="n">
         <v>-1</v>
@@ -5188,19 +5188,19 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-21.153</v>
+        <v>-42.742</v>
       </c>
       <c r="F140" t="n">
-        <v>3.014</v>
+        <v>4.977</v>
       </c>
       <c r="G140" t="n">
-        <v>0.24</v>
+        <v>0.474</v>
       </c>
       <c r="H140" t="n">
-        <v>0.49</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="I140" t="n">
-        <v>0.412</v>
+        <v>0.605</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -5222,22 +5222,22 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.596</v>
+        <v>0.575</v>
       </c>
       <c r="F141" t="n">
-        <v>0.575</v>
+        <v>0.553</v>
       </c>
       <c r="G141" t="n">
-        <v>0.376</v>
+        <v>0.395</v>
       </c>
       <c r="H141" t="n">
-        <v>0.613</v>
+        <v>0.628</v>
       </c>
       <c r="I141" t="n">
-        <v>0.459</v>
+        <v>0.468</v>
       </c>
       <c r="J141" t="n">
-        <v>0.836</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="142">
@@ -5281,31 +5281,31 @@
         </is>
       </c>
       <c r="B143" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C143" t="n">
         <v>0.868</v>
       </c>
-      <c r="C143" t="n">
-        <v>0.881</v>
-      </c>
       <c r="D143" t="n">
-        <v>0.668</v>
+        <v>0.66</v>
       </c>
       <c r="E143" t="n">
-        <v>0.905</v>
+        <v>0.9</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="G143" t="n">
-        <v>0.091</v>
+        <v>0.096</v>
       </c>
       <c r="H143" t="n">
-        <v>0.302</v>
+        <v>0.31</v>
       </c>
       <c r="I143" t="n">
-        <v>0.223</v>
+        <v>0.225</v>
       </c>
       <c r="J143" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="144">
@@ -5324,19 +5324,19 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-2.243</v>
+        <v>-0.523</v>
       </c>
       <c r="F144" t="n">
-        <v>1.191</v>
+        <v>1.09</v>
       </c>
       <c r="G144" t="n">
-        <v>4.102</v>
+        <v>1.926</v>
       </c>
       <c r="H144" t="n">
-        <v>2.025</v>
+        <v>1.388</v>
       </c>
       <c r="I144" t="n">
-        <v>1.459</v>
+        <v>1.237</v>
       </c>
       <c r="J144" t="n">
         <v>-1</v>
@@ -5358,22 +5358,22 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.311</v>
+        <v>-0.046</v>
       </c>
       <c r="F145" t="n">
-        <v>1.063</v>
+        <v>1.095</v>
       </c>
       <c r="G145" t="n">
-        <v>0.871</v>
+        <v>1.323</v>
       </c>
       <c r="H145" t="n">
-        <v>0.9330000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="I145" t="n">
-        <v>0.897</v>
+        <v>1.138</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -5404,10 +5404,10 @@
         <v>0.62</v>
       </c>
       <c r="I146" t="n">
-        <v>0.466</v>
+        <v>0.458</v>
       </c>
       <c r="J146" t="n">
-        <v>0.833</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="147">
@@ -5451,31 +5451,31 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.958</v>
+        <v>0.968</v>
       </c>
       <c r="C148" t="n">
-        <v>0.92</v>
+        <v>0.925</v>
       </c>
       <c r="D148" t="n">
-        <v>0.695</v>
+        <v>0.698</v>
       </c>
       <c r="E148" t="n">
-        <v>0.906</v>
+        <v>0.909</v>
       </c>
       <c r="F148" t="n">
-        <v>0.901</v>
+        <v>0.904</v>
       </c>
       <c r="G148" t="n">
-        <v>0.094</v>
+        <v>0.091</v>
       </c>
       <c r="H148" t="n">
-        <v>0.307</v>
+        <v>0.302</v>
       </c>
       <c r="I148" t="n">
-        <v>0.228</v>
+        <v>0.223</v>
       </c>
       <c r="J148" t="n">
-        <v>0.976</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="149">
@@ -5494,19 +5494,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>-47.322</v>
+        <v>-5.978</v>
       </c>
       <c r="F149" t="n">
-        <v>3.842</v>
+        <v>1.41</v>
       </c>
       <c r="G149" t="n">
-        <v>7.451</v>
+        <v>1.076</v>
       </c>
       <c r="H149" t="n">
-        <v>2.73</v>
+        <v>1.037</v>
       </c>
       <c r="I149" t="n">
-        <v>2.728</v>
+        <v>1.017</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -5528,19 +5528,19 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-6.976</v>
+        <v>-5.858</v>
       </c>
       <c r="F150" t="n">
-        <v>1.725</v>
+        <v>1.623</v>
       </c>
       <c r="G150" t="n">
-        <v>1.23</v>
+        <v>1.057</v>
       </c>
       <c r="H150" t="n">
-        <v>1.109</v>
+        <v>1.028</v>
       </c>
       <c r="I150" t="n">
-        <v>1.008</v>
+        <v>0.872</v>
       </c>
       <c r="J150" t="n">
         <v>-1</v>
@@ -5562,22 +5562,22 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.581</v>
+        <v>0.586</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>0.42</v>
+        <v>0.415</v>
       </c>
       <c r="H151" t="n">
-        <v>0.648</v>
+        <v>0.644</v>
       </c>
       <c r="I151" t="n">
-        <v>0.481</v>
+        <v>0.478</v>
       </c>
       <c r="J151" t="n">
-        <v>0.821</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="152">
@@ -5621,31 +5621,31 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.964</v>
+        <v>0.931</v>
       </c>
       <c r="C153" t="n">
-        <v>0.922</v>
+        <v>0.907</v>
       </c>
       <c r="D153" t="n">
-        <v>0.694</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>0.899</v>
+        <v>0.911</v>
       </c>
       <c r="F153" t="n">
-        <v>0.894</v>
+        <v>0.906</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1</v>
+        <v>0.089</v>
       </c>
       <c r="H153" t="n">
-        <v>0.316</v>
+        <v>0.298</v>
       </c>
       <c r="I153" t="n">
-        <v>0.233</v>
+        <v>0.223</v>
       </c>
       <c r="J153" t="n">
-        <v>0.973</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="154">
@@ -5664,19 +5664,19 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-239.152</v>
+        <v>-592.3150000000001</v>
       </c>
       <c r="F154" t="n">
-        <v>15.127</v>
+        <v>35.901</v>
       </c>
       <c r="G154" t="n">
-        <v>0.281</v>
+        <v>0.694</v>
       </c>
       <c r="H154" t="n">
-        <v>0.53</v>
+        <v>0.833</v>
       </c>
       <c r="I154" t="n">
-        <v>0.53</v>
+        <v>0.784</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -5698,19 +5698,19 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>-640.499</v>
+        <v>-618.813</v>
       </c>
       <c r="F155" t="n">
-        <v>59.318</v>
+        <v>57.347</v>
       </c>
       <c r="G155" t="n">
-        <v>0.751</v>
+        <v>0.725</v>
       </c>
       <c r="H155" t="n">
-        <v>0.867</v>
+        <v>0.851</v>
       </c>
       <c r="I155" t="n">
-        <v>0.822</v>
+        <v>0.845</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -5732,22 +5732,22 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.597</v>
+        <v>0.596</v>
       </c>
       <c r="F156" t="n">
-        <v>0.576</v>
+        <v>0.575</v>
       </c>
       <c r="G156" t="n">
-        <v>0.403</v>
+        <v>0.404</v>
       </c>
       <c r="H156" t="n">
-        <v>0.635</v>
+        <v>0.636</v>
       </c>
       <c r="I156" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="J156" t="n">
-        <v>0.842</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="157">
@@ -5791,28 +5791,28 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.994</v>
+        <v>0.958</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.919</v>
       </c>
       <c r="D158" t="n">
-        <v>0.702</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="E158" t="n">
-        <v>0.909</v>
+        <v>0.904</v>
       </c>
       <c r="F158" t="n">
-        <v>0.904</v>
+        <v>0.899</v>
       </c>
       <c r="G158" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="H158" t="n">
-        <v>0.3</v>
+        <v>0.308</v>
       </c>
       <c r="I158" t="n">
-        <v>0.224</v>
+        <v>0.233</v>
       </c>
       <c r="J158" t="n">
         <v>0.973</v>
@@ -5834,19 +5834,19 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.067</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>1.063</v>
+        <v>1.004</v>
       </c>
       <c r="G159" t="n">
-        <v>0.081</v>
+        <v>0.005</v>
       </c>
       <c r="H159" t="n">
-        <v>0.285</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I159" t="n">
-        <v>0.23</v>
+        <v>0.061</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -5868,22 +5868,22 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-2.558</v>
+        <v>-20.784</v>
       </c>
       <c r="F160" t="n">
-        <v>1.323</v>
+        <v>2.98</v>
       </c>
       <c r="G160" t="n">
-        <v>0.271</v>
+        <v>1.658</v>
       </c>
       <c r="H160" t="n">
-        <v>0.521</v>
+        <v>1.288</v>
       </c>
       <c r="I160" t="n">
-        <v>0.5</v>
+        <v>1.256</v>
       </c>
       <c r="J160" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -5902,22 +5902,22 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.589</v>
+        <v>0.57</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="G161" t="n">
-        <v>0.408</v>
+        <v>0.428</v>
       </c>
       <c r="H161" t="n">
-        <v>0.639</v>
+        <v>0.654</v>
       </c>
       <c r="I161" t="n">
-        <v>0.476</v>
+        <v>0.481</v>
       </c>
       <c r="J161" t="n">
-        <v>0.835</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="162">
@@ -5961,31 +5961,31 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.992</v>
+        <v>0.976</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.926</v>
       </c>
       <c r="D163" t="n">
-        <v>0.702</v>
+        <v>0.701</v>
       </c>
       <c r="E163" t="n">
-        <v>0.905</v>
+        <v>0.903</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
       <c r="G163" t="n">
-        <v>0.095</v>
+        <v>0.097</v>
       </c>
       <c r="H163" t="n">
-        <v>0.308</v>
+        <v>0.311</v>
       </c>
       <c r="I163" t="n">
-        <v>0.227</v>
+        <v>0.23</v>
       </c>
       <c r="J163" t="n">
-        <v>0.975</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="164">
@@ -6004,19 +6004,19 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-9.359</v>
+        <v>-3.815</v>
       </c>
       <c r="F164" t="n">
-        <v>1.609</v>
+        <v>1.283</v>
       </c>
       <c r="G164" t="n">
-        <v>0.921</v>
+        <v>0.428</v>
       </c>
       <c r="H164" t="n">
-        <v>0.96</v>
+        <v>0.654</v>
       </c>
       <c r="I164" t="n">
-        <v>0.945</v>
+        <v>0.625</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -6038,19 +6038,19 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>-23.824</v>
+        <v>-15.143</v>
       </c>
       <c r="F165" t="n">
-        <v>3.257</v>
+        <v>2.468</v>
       </c>
       <c r="G165" t="n">
-        <v>2.208</v>
+        <v>1.436</v>
       </c>
       <c r="H165" t="n">
-        <v>1.486</v>
+        <v>1.198</v>
       </c>
       <c r="I165" t="n">
-        <v>1.413</v>
+        <v>0.996</v>
       </c>
       <c r="J165" t="n">
         <v>-1</v>
@@ -6072,22 +6072,22 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.585</v>
+        <v>0.577</v>
       </c>
       <c r="F166" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="G166" t="n">
-        <v>0.414</v>
+        <v>0.422</v>
       </c>
       <c r="H166" t="n">
-        <v>0.643</v>
+        <v>0.65</v>
       </c>
       <c r="I166" t="n">
-        <v>0.478</v>
+        <v>0.482</v>
       </c>
       <c r="J166" t="n">
-        <v>0.84</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="167">
@@ -6131,31 +6131,31 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.7683333333333333</v>
+        <v>0.7632666666666668</v>
       </c>
       <c r="C168" t="n">
-        <v>0.8108666666666667</v>
+        <v>0.8088666666666667</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6267999999999999</v>
+        <v>0.6257999999999999</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9008666666666666</v>
+        <v>0.9016</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8934666666666667</v>
+        <v>0.8941999999999999</v>
       </c>
       <c r="G168" t="n">
-        <v>0.091</v>
+        <v>0.09053333333333334</v>
       </c>
       <c r="H168" t="n">
-        <v>0.3015333333333333</v>
+        <v>0.3006</v>
       </c>
       <c r="I168" t="n">
-        <v>0.217</v>
+        <v>0.2160666666666667</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9769999999999999</v>
+        <v>0.9767999999999998</v>
       </c>
     </row>
     <row r="169">
@@ -6174,22 +6174,22 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2562333333333333</v>
+        <v>0.2760333333333333</v>
       </c>
       <c r="F169" t="n">
-        <v>2.468466666666667</v>
+        <v>2.461133333333334</v>
       </c>
       <c r="G169" t="n">
-        <v>0.7317333333333333</v>
+        <v>0.6106333333333333</v>
       </c>
       <c r="H169" t="n">
-        <v>0.7330666666666666</v>
+        <v>0.7128666666666668</v>
       </c>
       <c r="I169" t="n">
-        <v>0.5819</v>
+        <v>0.5841666666666666</v>
       </c>
       <c r="J169" t="n">
-        <v>0.5757</v>
+        <v>0.5908333333333332</v>
       </c>
     </row>
     <row r="170">
@@ -6208,22 +6208,22 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2563333333333333</v>
+        <v>0.232</v>
       </c>
       <c r="F170" t="n">
-        <v>3.212533333333333</v>
+        <v>3.262799999999999</v>
       </c>
       <c r="G170" t="n">
-        <v>0.5682666666666667</v>
+        <v>0.6429333333333332</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6887333333333333</v>
+        <v>0.7280666666666666</v>
       </c>
       <c r="I170" t="n">
-        <v>0.5569333333333333</v>
+        <v>0.606</v>
       </c>
       <c r="J170" t="n">
-        <v>0.5986666666666667</v>
+        <v>0.5724000000000001</v>
       </c>
     </row>
     <row r="171">
@@ -6242,22 +6242,22 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5964666666666667</v>
+        <v>0.5873333333333333</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5567333333333333</v>
       </c>
       <c r="G171" t="n">
-        <v>0.3712666666666666</v>
+        <v>0.3798666666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>0.6090000000000001</v>
+        <v>0.6158666666666667</v>
       </c>
       <c r="I171" t="n">
-        <v>0.4524</v>
+        <v>0.4539333333333333</v>
       </c>
       <c r="J171" t="n">
-        <v>0.8371999999999998</v>
+        <v>0.8484</v>
       </c>
     </row>
     <row r="172">
@@ -6301,31 +6301,31 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.7891666666666666</v>
+        <v>0.7802222222222223</v>
       </c>
       <c r="C173" t="n">
-        <v>0.8391666666666667</v>
+        <v>0.8348333333333334</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6431666666666667</v>
+        <v>0.6421111111111111</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9037777777777778</v>
+        <v>0.9044444444444445</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8987222222222222</v>
+        <v>0.8994444444444445</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08905555555555555</v>
+        <v>0.08849999999999998</v>
       </c>
       <c r="H173" t="n">
-        <v>0.2983888888888889</v>
+        <v>0.2975</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2199444444444444</v>
+        <v>0.2198888888888889</v>
       </c>
       <c r="J173" t="n">
-        <v>0.9743333333333334</v>
+        <v>0.9742222222222223</v>
       </c>
     </row>
     <row r="174">
@@ -6344,19 +6344,19 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-39.59719444444445</v>
+        <v>-46.01505555555556</v>
       </c>
       <c r="F174" t="n">
-        <v>4.117916666666667</v>
+        <v>4.587249999999999</v>
       </c>
       <c r="G174" t="n">
-        <v>1.824305555555555</v>
+        <v>1.530361111111111</v>
       </c>
       <c r="H174" t="n">
-        <v>1.006472222222222</v>
+        <v>0.9495277777777777</v>
       </c>
       <c r="I174" t="n">
-        <v>0.9242777777777778</v>
+        <v>0.8732500000000001</v>
       </c>
       <c r="J174" t="n">
         <v>0.1111111111111111</v>
@@ -6378,19 +6378,19 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>-44.49433333333334</v>
+        <v>-50.21733333333334</v>
       </c>
       <c r="F175" t="n">
-        <v>5.135833333333334</v>
+        <v>5.656111111111112</v>
       </c>
       <c r="G175" t="n">
-        <v>2.217166666666667</v>
+        <v>2.260222222222223</v>
       </c>
       <c r="H175" t="n">
-        <v>1.0135</v>
+        <v>1.143944444444444</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9305000000000001</v>
+        <v>1.028277777777778</v>
       </c>
       <c r="J175" t="n">
         <v>-0.1111111111111111</v>
@@ -6412,22 +6412,22 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5919444444444443</v>
+        <v>0.5865555555555555</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5703888888888889</v>
+        <v>0.5646111111111112</v>
       </c>
       <c r="G176" t="n">
-        <v>0.3785</v>
+        <v>0.3836666666666667</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6148888888888888</v>
+        <v>0.6191111111111112</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4580000000000001</v>
+        <v>0.4593888888888889</v>
       </c>
       <c r="J176" t="n">
-        <v>0.838</v>
+        <v>0.8496666666666667</v>
       </c>
     </row>
     <row r="177">
@@ -6471,31 +6471,31 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.7718055555555555</v>
+        <v>0.7660925925925927</v>
       </c>
       <c r="C178" t="n">
-        <v>0.8155833333333334</v>
+        <v>0.8131944444444444</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6295277777777777</v>
+        <v>0.6285185185185185</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9013518518518518</v>
+        <v>0.9020740740740741</v>
       </c>
       <c r="F178" t="n">
-        <v>0.8943425925925926</v>
+        <v>0.895074074074074</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09067592592592592</v>
+        <v>0.09019444444444445</v>
       </c>
       <c r="H178" t="n">
-        <v>0.3010092592592593</v>
+        <v>0.3000833333333333</v>
       </c>
       <c r="I178" t="n">
-        <v>0.2174907407407408</v>
+        <v>0.2167037037037038</v>
       </c>
       <c r="J178" t="n">
-        <v>0.9765555555555555</v>
+        <v>0.9763703703703701</v>
       </c>
     </row>
     <row r="179">
@@ -6514,22 +6514,22 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>-6.386004629629631</v>
+        <v>-7.439148148148149</v>
       </c>
       <c r="F179" t="n">
-        <v>2.743375000000001</v>
+        <v>2.815486111111111</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9138287037037037</v>
+        <v>0.7639212962962962</v>
       </c>
       <c r="H179" t="n">
-        <v>0.7786342592592592</v>
+        <v>0.7523101851851853</v>
       </c>
       <c r="I179" t="n">
-        <v>0.638962962962963</v>
+        <v>0.6323472222222222</v>
       </c>
       <c r="J179" t="n">
-        <v>0.4982685185185185</v>
+        <v>0.5108796296296295</v>
       </c>
     </row>
     <row r="180">
@@ -6548,22 +6548,22 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-7.202111111111112</v>
+        <v>-8.176222222222224</v>
       </c>
       <c r="F180" t="n">
-        <v>3.533083333333333</v>
+        <v>3.661685185185185</v>
       </c>
       <c r="G180" t="n">
-        <v>0.8430833333333334</v>
+        <v>0.9124814814814814</v>
       </c>
       <c r="H180" t="n">
-        <v>0.7428611111111111</v>
+        <v>0.7973796296296296</v>
       </c>
       <c r="I180" t="n">
-        <v>0.6191944444444445</v>
+        <v>0.6763796296296296</v>
       </c>
       <c r="J180" t="n">
-        <v>0.4803703703703703</v>
+        <v>0.4584814814814815</v>
       </c>
     </row>
     <row r="181">
@@ -6582,22 +6582,22 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.5957129629629629</v>
+        <v>0.5872037037037037</v>
       </c>
       <c r="F181" t="n">
-        <v>0.567287037037037</v>
+        <v>0.5580462962962963</v>
       </c>
       <c r="G181" t="n">
-        <v>0.3724722222222221</v>
+        <v>0.3805</v>
       </c>
       <c r="H181" t="n">
-        <v>0.6099814814814816</v>
+        <v>0.6164074074074074</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4533333333333334</v>
+        <v>0.4548425925925926</v>
       </c>
       <c r="J181" t="n">
-        <v>0.8373333333333332</v>
+        <v>0.8486111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/PossibleRemoveMetrics/rollingTrainMetrics.xlsx
+++ b/PossibleRemoveMetrics/rollingTrainMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,25 +521,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>0.597</v>
       </c>
       <c r="C3" t="n">
-        <v>0.711</v>
+        <v>0.706</v>
       </c>
       <c r="D3" t="n">
         <v>0.5610000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.89</v>
+        <v>0.887</v>
       </c>
       <c r="F3" t="n">
-        <v>0.879</v>
+        <v>0.876</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="H3" t="n">
-        <v>0.266</v>
+        <v>0.27</v>
       </c>
       <c r="I3" t="n">
         <v>0.194</v>
@@ -564,19 +564,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.854</v>
+        <v>0.822</v>
       </c>
       <c r="F4" t="n">
-        <v>0.839</v>
+        <v>0.804</v>
       </c>
       <c r="G4" t="n">
-        <v>0.095</v>
+        <v>0.116</v>
       </c>
       <c r="H4" t="n">
-        <v>0.308</v>
+        <v>0.341</v>
       </c>
       <c r="I4" t="n">
-        <v>0.231</v>
+        <v>0.269</v>
       </c>
       <c r="J4" t="n">
         <v>0.931</v>
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.848</v>
+        <v>0.902</v>
       </c>
       <c r="F5" t="n">
-        <v>0.838</v>
+        <v>0.895</v>
       </c>
       <c r="G5" t="n">
-        <v>0.104</v>
+        <v>0.066</v>
       </c>
       <c r="H5" t="n">
-        <v>0.322</v>
+        <v>0.257</v>
       </c>
       <c r="I5" t="n">
-        <v>0.249</v>
+        <v>0.195</v>
       </c>
       <c r="J5" t="n">
-        <v>0.924</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +632,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.544</v>
+        <v>0.539</v>
       </c>
       <c r="F6" t="n">
-        <v>0.499</v>
+        <v>0.493</v>
       </c>
       <c r="G6" t="n">
-        <v>0.296</v>
+        <v>0.299</v>
       </c>
       <c r="H6" t="n">
-        <v>0.544</v>
+        <v>0.547</v>
       </c>
       <c r="I6" t="n">
-        <v>0.409</v>
+        <v>0.418</v>
       </c>
       <c r="J6" t="n">
-        <v>0.833</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -691,28 +691,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.646</v>
+        <v>0.643</v>
       </c>
       <c r="E8" t="n">
-        <v>0.894</v>
+        <v>0.902</v>
       </c>
       <c r="F8" t="n">
-        <v>0.884</v>
+        <v>0.893</v>
       </c>
       <c r="G8" t="n">
-        <v>0.105</v>
+        <v>0.097</v>
       </c>
       <c r="H8" t="n">
-        <v>0.324</v>
+        <v>0.311</v>
       </c>
       <c r="I8" t="n">
-        <v>0.223</v>
+        <v>0.218</v>
       </c>
       <c r="J8" t="n">
         <v>0.976</v>
@@ -734,22 +734,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.612</v>
+        <v>0.246</v>
       </c>
       <c r="F9" t="n">
-        <v>1.388</v>
+        <v>1.754</v>
       </c>
       <c r="G9" t="n">
-        <v>2.679</v>
+        <v>5.203</v>
       </c>
       <c r="H9" t="n">
-        <v>1.637</v>
+        <v>2.281</v>
       </c>
       <c r="I9" t="n">
-        <v>1.364</v>
+        <v>1.867</v>
       </c>
       <c r="J9" t="n">
-        <v>0.85</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="F10" t="n">
-        <v>2.32</v>
+        <v>3.685</v>
       </c>
       <c r="G10" t="n">
-        <v>3.036</v>
+        <v>6.177</v>
       </c>
       <c r="H10" t="n">
-        <v>1.742</v>
+        <v>2.485</v>
       </c>
       <c r="I10" t="n">
-        <v>1.505</v>
+        <v>1.886</v>
       </c>
       <c r="J10" t="n">
-        <v>0.952</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.602</v>
+        <v>0.614</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="G11" t="n">
-        <v>0.395</v>
+        <v>0.383</v>
       </c>
       <c r="H11" t="n">
-        <v>0.628</v>
+        <v>0.619</v>
       </c>
       <c r="I11" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="J11" t="n">
-        <v>0.856</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="12">
@@ -861,31 +861,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.819</v>
+        <v>0.838</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.828</v>
       </c>
       <c r="D13" t="n">
-        <v>0.625</v>
+        <v>0.637</v>
       </c>
       <c r="E13" t="n">
-        <v>0.894</v>
+        <v>0.897</v>
       </c>
       <c r="F13" t="n">
-        <v>0.885</v>
+        <v>0.888</v>
       </c>
       <c r="G13" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.321</v>
+        <v>0.316</v>
       </c>
       <c r="I13" t="n">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="J13" t="n">
-        <v>0.976</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.122</v>
+        <v>-0.19</v>
       </c>
       <c r="F14" t="n">
-        <v>2.122</v>
+        <v>2.19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.713</v>
+        <v>0.756</v>
       </c>
       <c r="H14" t="n">
-        <v>0.844</v>
+        <v>0.869</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.641</v>
       </c>
       <c r="J14" t="n">
-        <v>0.034</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.003</v>
+        <v>0.134</v>
       </c>
       <c r="F15" t="n">
-        <v>4.009</v>
+        <v>3.598</v>
       </c>
       <c r="G15" t="n">
-        <v>0.637</v>
+        <v>0.55</v>
       </c>
       <c r="H15" t="n">
-        <v>0.798</v>
+        <v>0.742</v>
       </c>
       <c r="I15" t="n">
-        <v>0.657</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>0.291</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +972,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.598</v>
+        <v>0.59</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.553</v>
       </c>
       <c r="G16" t="n">
-        <v>0.392</v>
+        <v>0.4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.626</v>
+        <v>0.632</v>
       </c>
       <c r="I16" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="J16" t="n">
-        <v>0.857</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="17">
@@ -1031,31 +1031,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.835</v>
       </c>
       <c r="C18" t="n">
-        <v>0.821</v>
+        <v>0.835</v>
       </c>
       <c r="D18" t="n">
-        <v>0.634</v>
+        <v>0.644</v>
       </c>
       <c r="E18" t="n">
-        <v>0.899</v>
+        <v>0.902</v>
       </c>
       <c r="F18" t="n">
-        <v>0.89</v>
+        <v>0.894</v>
       </c>
       <c r="G18" t="n">
-        <v>0.095</v>
+        <v>0.093</v>
       </c>
       <c r="H18" t="n">
-        <v>0.308</v>
+        <v>0.305</v>
       </c>
       <c r="I18" t="n">
         <v>0.215</v>
       </c>
       <c r="J18" t="n">
-        <v>0.98</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.191</v>
+        <v>-1.346</v>
       </c>
       <c r="F19" t="n">
-        <v>2.191</v>
+        <v>3.346</v>
       </c>
       <c r="G19" t="n">
-        <v>0.208</v>
+        <v>0.409</v>
       </c>
       <c r="H19" t="n">
-        <v>0.456</v>
+        <v>0.64</v>
       </c>
       <c r="I19" t="n">
-        <v>0.391</v>
+        <v>0.553</v>
       </c>
       <c r="J19" t="n">
-        <v>0.429</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +1108,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.082</v>
+        <v>-0.418</v>
       </c>
       <c r="F20" t="n">
-        <v>7.246</v>
+        <v>5.254</v>
       </c>
       <c r="G20" t="n">
-        <v>0.363</v>
+        <v>0.247</v>
       </c>
       <c r="H20" t="n">
-        <v>0.602</v>
+        <v>0.497</v>
       </c>
       <c r="I20" t="n">
-        <v>0.529</v>
+        <v>0.434</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.387</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1142,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.595</v>
+        <v>0.596</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="H21" t="n">
-        <v>0.618</v>
+        <v>0.617</v>
       </c>
       <c r="I21" t="n">
-        <v>0.452</v>
+        <v>0.456</v>
       </c>
       <c r="J21" t="n">
-        <v>0.846</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="22">
@@ -1201,25 +1201,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8</v>
+        <v>0.795</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.819</v>
       </c>
       <c r="D23" t="n">
-        <v>0.622</v>
+        <v>0.624</v>
       </c>
       <c r="E23" t="n">
-        <v>0.905</v>
+        <v>0.901</v>
       </c>
       <c r="F23" t="n">
-        <v>0.897</v>
+        <v>0.893</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09</v>
+        <v>0.093</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="I23" t="n">
         <v>0.215</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.046</v>
+        <v>0.135</v>
       </c>
       <c r="F24" t="n">
-        <v>2.046</v>
+        <v>1.865</v>
       </c>
       <c r="G24" t="n">
-        <v>0.822</v>
+        <v>0.68</v>
       </c>
       <c r="H24" t="n">
-        <v>0.907</v>
+        <v>0.825</v>
       </c>
       <c r="I24" t="n">
-        <v>0.73</v>
+        <v>0.593</v>
       </c>
       <c r="J24" t="n">
-        <v>0.313</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.248</v>
+        <v>0.521</v>
       </c>
       <c r="F25" t="n">
-        <v>4.744</v>
+        <v>2.437</v>
       </c>
       <c r="G25" t="n">
-        <v>0.98</v>
+        <v>0.377</v>
       </c>
       <c r="H25" t="n">
-        <v>0.99</v>
+        <v>0.614</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="J25" t="n">
-        <v>0.162</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1312,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.588</v>
+        <v>0.597</v>
       </c>
       <c r="F26" t="n">
-        <v>0.554</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.389</v>
+        <v>0.38</v>
       </c>
       <c r="H26" t="n">
-        <v>0.624</v>
+        <v>0.616</v>
       </c>
       <c r="I26" t="n">
-        <v>0.451</v>
+        <v>0.458</v>
       </c>
       <c r="J26" t="n">
-        <v>0.852</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="27">
@@ -1371,31 +1371,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.782</v>
+        <v>0.775</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="D28" t="n">
-        <v>0.619</v>
+        <v>0.608</v>
       </c>
       <c r="E28" t="n">
-        <v>0.901</v>
+        <v>0.912</v>
       </c>
       <c r="F28" t="n">
-        <v>0.893</v>
+        <v>0.905</v>
       </c>
       <c r="G28" t="n">
-        <v>0.093</v>
+        <v>0.083</v>
       </c>
       <c r="H28" t="n">
-        <v>0.305</v>
+        <v>0.288</v>
       </c>
       <c r="I28" t="n">
-        <v>0.219</v>
+        <v>0.209</v>
       </c>
       <c r="J28" t="n">
-        <v>0.976</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.419</v>
+        <v>0.268</v>
       </c>
       <c r="F29" t="n">
-        <v>1.581</v>
+        <v>1.732</v>
       </c>
       <c r="G29" t="n">
-        <v>0.515</v>
+        <v>0.649</v>
       </c>
       <c r="H29" t="n">
-        <v>0.718</v>
+        <v>0.806</v>
       </c>
       <c r="I29" t="n">
-        <v>0.609</v>
+        <v>0.705</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1448,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.347</v>
+        <v>0.533</v>
       </c>
       <c r="F30" t="n">
-        <v>2.959</v>
+        <v>2.401</v>
       </c>
       <c r="G30" t="n">
-        <v>0.579</v>
+        <v>0.414</v>
       </c>
       <c r="H30" t="n">
-        <v>0.761</v>
+        <v>0.643</v>
       </c>
       <c r="I30" t="n">
-        <v>0.649</v>
+        <v>0.61</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1482,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.592</v>
+        <v>0.604</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.573</v>
       </c>
       <c r="G31" t="n">
-        <v>0.385</v>
+        <v>0.374</v>
       </c>
       <c r="H31" t="n">
-        <v>0.62</v>
+        <v>0.612</v>
       </c>
       <c r="I31" t="n">
-        <v>0.45</v>
+        <v>0.453</v>
       </c>
       <c r="J31" t="n">
-        <v>0.842</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="32">
@@ -1541,28 +1541,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.858</v>
+        <v>0.848</v>
       </c>
       <c r="C33" t="n">
-        <v>0.838</v>
+        <v>0.836</v>
       </c>
       <c r="D33" t="n">
-        <v>0.649</v>
+        <v>0.646</v>
       </c>
       <c r="E33" t="n">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="F33" t="n">
-        <v>0.89</v>
+        <v>0.893</v>
       </c>
       <c r="G33" t="n">
-        <v>0.098</v>
+        <v>0.096</v>
       </c>
       <c r="H33" t="n">
-        <v>0.313</v>
+        <v>0.31</v>
       </c>
       <c r="I33" t="n">
-        <v>0.221</v>
+        <v>0.22</v>
       </c>
       <c r="J33" t="n">
         <v>0.976</v>
@@ -1584,22 +1584,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
       <c r="F34" t="n">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="G34" t="n">
-        <v>0.576</v>
+        <v>1.002</v>
       </c>
       <c r="H34" t="n">
-        <v>0.759</v>
+        <v>1.001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.618</v>
+        <v>0.863</v>
       </c>
       <c r="J34" t="n">
-        <v>0.845</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1618,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.225</v>
+        <v>0.488</v>
       </c>
       <c r="F35" t="n">
-        <v>3.325</v>
+        <v>2.536</v>
       </c>
       <c r="G35" t="n">
-        <v>0.97</v>
+        <v>0.641</v>
       </c>
       <c r="H35" t="n">
-        <v>0.985</v>
+        <v>0.801</v>
       </c>
       <c r="I35" t="n">
-        <v>0.832</v>
+        <v>0.678</v>
       </c>
       <c r="J35" t="n">
-        <v>0.59</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.582</v>
+        <v>0.606</v>
       </c>
       <c r="F36" t="n">
-        <v>0.551</v>
+        <v>0.577</v>
       </c>
       <c r="G36" t="n">
-        <v>0.401</v>
+        <v>0.377</v>
       </c>
       <c r="H36" t="n">
-        <v>0.633</v>
+        <v>0.614</v>
       </c>
       <c r="I36" t="n">
-        <v>0.461</v>
+        <v>0.454</v>
       </c>
       <c r="J36" t="n">
-        <v>0.857</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="37">
@@ -1711,28 +1711,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="C38" t="n">
-        <v>0.82</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.641</v>
+        <v>0.632</v>
       </c>
       <c r="E38" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.898</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.891</v>
-      </c>
       <c r="G38" t="n">
-        <v>0.096</v>
+        <v>0.089</v>
       </c>
       <c r="H38" t="n">
-        <v>0.31</v>
+        <v>0.298</v>
       </c>
       <c r="I38" t="n">
-        <v>0.22</v>
+        <v>0.214</v>
       </c>
       <c r="J38" t="n">
         <v>0.977</v>
@@ -1754,22 +1754,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.373</v>
+        <v>0.325</v>
       </c>
       <c r="F39" t="n">
-        <v>1.627</v>
+        <v>1.675</v>
       </c>
       <c r="G39" t="n">
-        <v>0.215</v>
+        <v>0.231</v>
       </c>
       <c r="H39" t="n">
-        <v>0.464</v>
+        <v>0.481</v>
       </c>
       <c r="I39" t="n">
-        <v>0.311</v>
+        <v>0.324</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1788,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.244</v>
+        <v>0.383</v>
       </c>
       <c r="F40" t="n">
-        <v>3.268</v>
+        <v>2.851</v>
       </c>
       <c r="G40" t="n">
-        <v>0.259</v>
+        <v>0.212</v>
       </c>
       <c r="H40" t="n">
-        <v>0.509</v>
+        <v>0.46</v>
       </c>
       <c r="I40" t="n">
-        <v>0.408</v>
+        <v>0.326</v>
       </c>
       <c r="J40" t="n">
-        <v>0.611</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1822,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.608</v>
+        <v>0.589</v>
       </c>
       <c r="F41" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>0.368</v>
+        <v>0.385</v>
       </c>
       <c r="H41" t="n">
-        <v>0.607</v>
+        <v>0.62</v>
       </c>
       <c r="I41" t="n">
-        <v>0.449</v>
+        <v>0.46</v>
       </c>
       <c r="J41" t="n">
-        <v>0.843</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="42">
@@ -1887,25 +1887,25 @@
         <v>0.8159999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.646</v>
+        <v>0.649</v>
       </c>
       <c r="E43" t="n">
-        <v>0.902</v>
+        <v>0.904</v>
       </c>
       <c r="F43" t="n">
-        <v>0.895</v>
+        <v>0.897</v>
       </c>
       <c r="G43" t="n">
-        <v>0.094</v>
+        <v>0.092</v>
       </c>
       <c r="H43" t="n">
-        <v>0.307</v>
+        <v>0.303</v>
       </c>
       <c r="I43" t="n">
-        <v>0.22</v>
+        <v>0.218</v>
       </c>
       <c r="J43" t="n">
-        <v>0.974</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1924,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.434</v>
+        <v>0.541</v>
       </c>
       <c r="F44" t="n">
-        <v>1.566</v>
+        <v>1.459</v>
       </c>
       <c r="G44" t="n">
-        <v>0.66</v>
+        <v>0.535</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.731</v>
       </c>
       <c r="I44" t="n">
-        <v>0.714</v>
+        <v>0.636</v>
       </c>
       <c r="J44" t="n">
-        <v>0.743</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1958,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.39</v>
+        <v>0.528</v>
       </c>
       <c r="F45" t="n">
-        <v>2.83</v>
+        <v>2.416</v>
       </c>
       <c r="G45" t="n">
-        <v>0.711</v>
+        <v>0.551</v>
       </c>
       <c r="H45" t="n">
-        <v>0.843</v>
+        <v>0.742</v>
       </c>
       <c r="I45" t="n">
-        <v>0.705</v>
+        <v>0.654</v>
       </c>
       <c r="J45" t="n">
-        <v>0.878</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1992,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.598</v>
+        <v>0.607</v>
       </c>
       <c r="F46" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="G46" t="n">
-        <v>0.385</v>
+        <v>0.376</v>
       </c>
       <c r="H46" t="n">
-        <v>0.62</v>
+        <v>0.613</v>
       </c>
       <c r="I46" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="J46" t="n">
-        <v>0.85</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="47">
@@ -2051,19 +2051,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.75</v>
+        <v>0.744</v>
       </c>
       <c r="C48" t="n">
-        <v>0.825</v>
+        <v>0.824</v>
       </c>
       <c r="D48" t="n">
-        <v>0.64</v>
+        <v>0.636</v>
       </c>
       <c r="E48" t="n">
-        <v>0.902</v>
+        <v>0.903</v>
       </c>
       <c r="F48" t="n">
-        <v>0.895</v>
+        <v>0.897</v>
       </c>
       <c r="G48" t="n">
         <v>0.093</v>
@@ -2072,10 +2072,10 @@
         <v>0.305</v>
       </c>
       <c r="I48" t="n">
-        <v>0.218</v>
+        <v>0.225</v>
       </c>
       <c r="J48" t="n">
-        <v>0.979</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +2094,22 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.346</v>
+        <v>0.271</v>
       </c>
       <c r="F49" t="n">
-        <v>1.654</v>
+        <v>1.729</v>
       </c>
       <c r="G49" t="n">
-        <v>0.586</v>
+        <v>0.653</v>
       </c>
       <c r="H49" t="n">
-        <v>0.766</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>0.571</v>
+        <v>0.606</v>
       </c>
       <c r="J49" t="n">
-        <v>0.592</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.263</v>
+        <v>0.329</v>
       </c>
       <c r="F50" t="n">
-        <v>3.211</v>
+        <v>3.013</v>
       </c>
       <c r="G50" t="n">
-        <v>0.661</v>
+        <v>0.601</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.775</v>
       </c>
       <c r="I50" t="n">
-        <v>0.711</v>
+        <v>0.63</v>
       </c>
       <c r="J50" t="n">
-        <v>0.54</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.579</v>
+        <v>0.593</v>
       </c>
       <c r="F51" t="n">
-        <v>0.551</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>0.403</v>
+        <v>0.39</v>
       </c>
       <c r="H51" t="n">
-        <v>0.635</v>
+        <v>0.624</v>
       </c>
       <c r="I51" t="n">
-        <v>0.47</v>
+        <v>0.466</v>
       </c>
       <c r="J51" t="n">
-        <v>0.852</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="52">
@@ -2221,28 +2221,28 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.721</v>
+        <v>0.733</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.624</v>
+        <v>0.626</v>
       </c>
       <c r="E53" t="n">
-        <v>0.91</v>
+        <v>0.909</v>
       </c>
       <c r="F53" t="n">
-        <v>0.904</v>
+        <v>0.903</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0.292</v>
+        <v>0.293</v>
       </c>
       <c r="I53" t="n">
-        <v>0.216</v>
+        <v>0.218</v>
       </c>
       <c r="J53" t="n">
         <v>0.976</v>
@@ -2264,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.357</v>
+        <v>0.195</v>
       </c>
       <c r="F54" t="n">
-        <v>1.643</v>
+        <v>1.805</v>
       </c>
       <c r="G54" t="n">
-        <v>0.406</v>
+        <v>0.508</v>
       </c>
       <c r="H54" t="n">
-        <v>0.637</v>
+        <v>0.713</v>
       </c>
       <c r="I54" t="n">
-        <v>0.508</v>
+        <v>0.622</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +2298,22 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.721</v>
+        <v>0.794</v>
       </c>
       <c r="F55" t="n">
-        <v>1.837</v>
+        <v>1.618</v>
       </c>
       <c r="G55" t="n">
-        <v>0.176</v>
+        <v>0.13</v>
       </c>
       <c r="H55" t="n">
-        <v>0.42</v>
+        <v>0.361</v>
       </c>
       <c r="I55" t="n">
-        <v>0.386</v>
+        <v>0.305</v>
       </c>
       <c r="J55" t="n">
-        <v>0.924</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +2332,22 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.591</v>
+        <v>0.606</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="G56" t="n">
-        <v>0.388</v>
+        <v>0.373</v>
       </c>
       <c r="H56" t="n">
-        <v>0.623</v>
+        <v>0.611</v>
       </c>
       <c r="I56" t="n">
-        <v>0.463</v>
+        <v>0.458</v>
       </c>
       <c r="J56" t="n">
-        <v>0.842</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="57">
@@ -2391,31 +2391,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.704</v>
+        <v>0.713</v>
       </c>
       <c r="C58" t="n">
-        <v>0.804</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.613</v>
+        <v>0.621</v>
       </c>
       <c r="E58" t="n">
-        <v>0.912</v>
+        <v>0.908</v>
       </c>
       <c r="F58" t="n">
-        <v>0.907</v>
+        <v>0.902</v>
       </c>
       <c r="G58" t="n">
-        <v>0.081</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0.285</v>
+        <v>0.293</v>
       </c>
       <c r="I58" t="n">
-        <v>0.212</v>
+        <v>0.217</v>
       </c>
       <c r="J58" t="n">
-        <v>0.98</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2434,22 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.394</v>
+        <v>0.382</v>
       </c>
       <c r="F59" t="n">
-        <v>1.606</v>
+        <v>1.618</v>
       </c>
       <c r="G59" t="n">
-        <v>0.183</v>
+        <v>0.187</v>
       </c>
       <c r="H59" t="n">
-        <v>0.428</v>
+        <v>0.432</v>
       </c>
       <c r="I59" t="n">
-        <v>0.295</v>
+        <v>0.276</v>
       </c>
       <c r="J59" t="n">
-        <v>0.629</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2468,22 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.15</v>
+        <v>0.174</v>
       </c>
       <c r="F60" t="n">
-        <v>3.55</v>
+        <v>3.478</v>
       </c>
       <c r="G60" t="n">
-        <v>0.257</v>
+        <v>0.25</v>
       </c>
       <c r="H60" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="I60" t="n">
-        <v>0.353</v>
+        <v>0.377</v>
       </c>
       <c r="J60" t="n">
-        <v>0.405</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2502,22 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.578</v>
       </c>
-      <c r="F61" t="n">
-        <v>0.552</v>
-      </c>
       <c r="G61" t="n">
-        <v>0.391</v>
+        <v>0.367</v>
       </c>
       <c r="H61" t="n">
-        <v>0.625</v>
+        <v>0.606</v>
       </c>
       <c r="I61" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="J61" t="n">
-        <v>0.863</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="62">
@@ -2561,31 +2561,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.705</v>
+        <v>0.714</v>
       </c>
       <c r="C63" t="n">
-        <v>0.803</v>
+        <v>0.805</v>
       </c>
       <c r="D63" t="n">
-        <v>0.618</v>
+        <v>0.616</v>
       </c>
       <c r="E63" t="n">
-        <v>0.904</v>
+        <v>0.901</v>
       </c>
       <c r="F63" t="n">
-        <v>0.898</v>
+        <v>0.895</v>
       </c>
       <c r="G63" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="H63" t="n">
-        <v>0.297</v>
+        <v>0.302</v>
       </c>
       <c r="I63" t="n">
-        <v>0.218</v>
+        <v>0.222</v>
       </c>
       <c r="J63" t="n">
-        <v>0.975</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2604,22 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.185</v>
+        <v>0.013</v>
       </c>
       <c r="F64" t="n">
-        <v>1.815</v>
+        <v>1.987</v>
       </c>
       <c r="G64" t="n">
-        <v>0.398</v>
+        <v>0.482</v>
       </c>
       <c r="H64" t="n">
-        <v>0.631</v>
+        <v>0.694</v>
       </c>
       <c r="I64" t="n">
-        <v>0.531</v>
+        <v>0.622</v>
       </c>
       <c r="J64" t="n">
-        <v>0.462</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2638,22 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.405</v>
+        <v>0.375</v>
       </c>
       <c r="F65" t="n">
-        <v>2.785</v>
+        <v>2.875</v>
       </c>
       <c r="G65" t="n">
-        <v>0.29</v>
+        <v>0.305</v>
       </c>
       <c r="H65" t="n">
-        <v>0.539</v>
+        <v>0.552</v>
       </c>
       <c r="I65" t="n">
-        <v>0.445</v>
+        <v>0.439</v>
       </c>
       <c r="J65" t="n">
-        <v>0.669</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2672,22 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.583</v>
+        <v>0.589</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>0.381</v>
+        <v>0.375</v>
       </c>
       <c r="H66" t="n">
-        <v>0.617</v>
+        <v>0.612</v>
       </c>
       <c r="I66" t="n">
         <v>0.459</v>
       </c>
       <c r="J66" t="n">
-        <v>0.84</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="67">
@@ -2731,31 +2731,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.736</v>
+        <v>0.759</v>
       </c>
       <c r="C68" t="n">
-        <v>0.819</v>
+        <v>0.831</v>
       </c>
       <c r="D68" t="n">
-        <v>0.636</v>
+        <v>0.648</v>
       </c>
       <c r="E68" t="n">
-        <v>0.905</v>
+        <v>0.906</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9</v>
+        <v>0.901</v>
       </c>
       <c r="G68" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0.293</v>
+        <v>0.292</v>
       </c>
       <c r="I68" t="n">
-        <v>0.213</v>
+        <v>0.215</v>
       </c>
       <c r="J68" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2774,22 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.186</v>
+        <v>0.411</v>
       </c>
       <c r="F69" t="n">
-        <v>1.814</v>
+        <v>1.589</v>
       </c>
       <c r="G69" t="n">
-        <v>0.407</v>
+        <v>0.294</v>
       </c>
       <c r="H69" t="n">
-        <v>0.638</v>
+        <v>0.542</v>
       </c>
       <c r="I69" t="n">
-        <v>0.516</v>
+        <v>0.42</v>
       </c>
       <c r="J69" t="n">
-        <v>0.497</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2808,22 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.127</v>
+        <v>0.346</v>
       </c>
       <c r="F70" t="n">
-        <v>3.619</v>
+        <v>2.962</v>
       </c>
       <c r="G70" t="n">
-        <v>0.437</v>
+        <v>0.327</v>
       </c>
       <c r="H70" t="n">
-        <v>0.661</v>
+        <v>0.572</v>
       </c>
       <c r="I70" t="n">
-        <v>0.483</v>
+        <v>0.438</v>
       </c>
       <c r="J70" t="n">
-        <v>0.49</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -2842,96 +2842,96 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.585</v>
+        <v>0.59</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="H71" t="n">
-        <v>0.612</v>
+        <v>0.608</v>
       </c>
       <c r="I71" t="n">
-        <v>0.46</v>
+        <v>0.452</v>
       </c>
       <c r="J71" t="n">
-        <v>0.848</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>LR340</t>
+          <t>LR335</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.791</v>
+        <v>0.802</v>
       </c>
       <c r="C72" t="n">
-        <v>0.862</v>
+        <v>0.867</v>
       </c>
       <c r="D72" t="n">
-        <v>0.664</v>
+        <v>0.669</v>
       </c>
       <c r="E72" t="n">
-        <v>0.306</v>
+        <v>0.308</v>
       </c>
       <c r="F72" t="n">
-        <v>0.267</v>
+        <v>0.269</v>
       </c>
       <c r="G72" t="n">
-        <v>0.617</v>
+        <v>0.621</v>
       </c>
       <c r="H72" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="I72" t="n">
-        <v>0.606</v>
+        <v>0.609</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>RF340</t>
+          <t>RF335</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.696</v>
+        <v>0.7</v>
       </c>
       <c r="C73" t="n">
-        <v>0.801</v>
+        <v>0.804</v>
       </c>
       <c r="D73" t="n">
-        <v>0.613</v>
+        <v>0.617</v>
       </c>
       <c r="E73" t="n">
-        <v>0.91</v>
+        <v>0.904</v>
       </c>
       <c r="F73" t="n">
-        <v>0.905</v>
+        <v>0.899</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0.283</v>
+        <v>0.293</v>
       </c>
       <c r="I73" t="n">
-        <v>0.214</v>
+        <v>0.216</v>
       </c>
       <c r="J73" t="n">
-        <v>0.975</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>NN340</t>
+          <t>NN335</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2944,22 +2944,22 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.46</v>
+        <v>0.555</v>
       </c>
       <c r="F74" t="n">
-        <v>1.54</v>
+        <v>1.127</v>
       </c>
       <c r="G74" t="n">
-        <v>0.212</v>
+        <v>0.169</v>
       </c>
       <c r="H74" t="n">
-        <v>0.46</v>
+        <v>0.411</v>
       </c>
       <c r="I74" t="n">
-        <v>0.358</v>
+        <v>0.34</v>
       </c>
       <c r="J74" t="n">
-        <v>0.703</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2978,22 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.533</v>
+        <v>0.786</v>
       </c>
       <c r="F75" t="n">
-        <v>2.401</v>
+        <v>1.107</v>
       </c>
       <c r="G75" t="n">
-        <v>0.184</v>
+        <v>0.081</v>
       </c>
       <c r="H75" t="n">
-        <v>0.429</v>
+        <v>0.285</v>
       </c>
       <c r="I75" t="n">
-        <v>0.368</v>
+        <v>0.252</v>
       </c>
       <c r="J75" t="n">
-        <v>0.845</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="76">
@@ -3012,96 +3012,96 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.587</v>
+        <v>0.602</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="G76" t="n">
-        <v>0.367</v>
+        <v>0.357</v>
       </c>
       <c r="H76" t="n">
-        <v>0.606</v>
+        <v>0.597</v>
       </c>
       <c r="I76" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="J76" t="n">
-        <v>0.845</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>LR342</t>
+          <t>LR346</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.729</v>
+        <v>0.801</v>
       </c>
       <c r="C77" t="n">
-        <v>0.833</v>
+        <v>0.86</v>
       </c>
       <c r="D77" t="n">
-        <v>0.645</v>
+        <v>0.659</v>
       </c>
       <c r="E77" t="n">
-        <v>0.306</v>
+        <v>0.31</v>
       </c>
       <c r="F77" t="n">
-        <v>0.267</v>
+        <v>0.272</v>
       </c>
       <c r="G77" t="n">
-        <v>0.614</v>
+        <v>0.621</v>
       </c>
       <c r="H77" t="n">
-        <v>0.784</v>
+        <v>0.788</v>
       </c>
       <c r="I77" t="n">
-        <v>0.604</v>
+        <v>0.601</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>RF342</t>
+          <t>RF346</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.659</v>
+        <v>0.726</v>
       </c>
       <c r="C78" t="n">
-        <v>0.784</v>
+        <v>0.804</v>
       </c>
       <c r="D78" t="n">
-        <v>0.607</v>
+        <v>0.617</v>
       </c>
       <c r="E78" t="n">
-        <v>0.903</v>
+        <v>0.907</v>
       </c>
       <c r="F78" t="n">
-        <v>0.898</v>
+        <v>0.902</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
       <c r="I78" t="n">
-        <v>0.215</v>
+        <v>0.217</v>
       </c>
       <c r="J78" t="n">
-        <v>0.972</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>NN342</t>
+          <t>NN346</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.642</v>
+        <v>-0.9429999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>1.097</v>
+        <v>1.747</v>
       </c>
       <c r="G79" t="n">
-        <v>0.045</v>
+        <v>2.719</v>
       </c>
       <c r="H79" t="n">
-        <v>0.212</v>
+        <v>1.649</v>
       </c>
       <c r="I79" t="n">
-        <v>0.159</v>
+        <v>1.341</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +3148,22 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-4.087</v>
+        <v>-0.412</v>
       </c>
       <c r="F80" t="n">
-        <v>1.462</v>
+        <v>2.009</v>
       </c>
       <c r="G80" t="n">
-        <v>0.138</v>
+        <v>1.977</v>
       </c>
       <c r="H80" t="n">
-        <v>0.371</v>
+        <v>1.406</v>
       </c>
       <c r="I80" t="n">
-        <v>0.299</v>
+        <v>1.156</v>
       </c>
       <c r="J80" t="n">
-        <v>-1</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="81">
@@ -3182,96 +3182,96 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.607</v>
+        <v>0.588</v>
       </c>
       <c r="F81" t="n">
-        <v>0.585</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>0.348</v>
+        <v>0.371</v>
       </c>
       <c r="H81" t="n">
-        <v>0.59</v>
+        <v>0.609</v>
       </c>
       <c r="I81" t="n">
-        <v>0.443</v>
+        <v>0.453</v>
       </c>
       <c r="J81" t="n">
-        <v>0.842</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>LR344</t>
+          <t>LR348</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.756</v>
+        <v>0.787</v>
       </c>
       <c r="C82" t="n">
-        <v>0.841</v>
+        <v>0.854</v>
       </c>
       <c r="D82" t="n">
-        <v>0.653</v>
+        <v>0.655</v>
       </c>
       <c r="E82" t="n">
-        <v>0.32</v>
+        <v>0.312</v>
       </c>
       <c r="F82" t="n">
-        <v>0.282</v>
+        <v>0.274</v>
       </c>
       <c r="G82" t="n">
-        <v>0.613</v>
+        <v>0.617</v>
       </c>
       <c r="H82" t="n">
-        <v>0.783</v>
+        <v>0.785</v>
       </c>
       <c r="I82" t="n">
-        <v>0.602</v>
+        <v>0.598</v>
       </c>
       <c r="J82" t="n">
-        <v>0.572</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>RF344</t>
+          <t>RF348</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.766</v>
+        <v>0.71</v>
       </c>
       <c r="C83" t="n">
-        <v>0.833</v>
+        <v>0.799</v>
       </c>
       <c r="D83" t="n">
-        <v>0.638</v>
+        <v>0.623</v>
       </c>
       <c r="E83" t="n">
-        <v>0.904</v>
+        <v>0.905</v>
       </c>
       <c r="F83" t="n">
-        <v>0.899</v>
+        <v>0.9</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="I83" t="n">
-        <v>0.217</v>
+        <v>0.215</v>
       </c>
       <c r="J83" t="n">
-        <v>0.976</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>NN344</t>
+          <t>NN348</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3284,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.511</v>
+        <v>-25.141</v>
       </c>
       <c r="F84" t="n">
-        <v>1.148</v>
+        <v>2.538</v>
       </c>
       <c r="G84" t="n">
-        <v>1.071</v>
+        <v>1.988</v>
       </c>
       <c r="H84" t="n">
-        <v>1.035</v>
+        <v>1.41</v>
       </c>
       <c r="I84" t="n">
-        <v>1.03</v>
+        <v>1.407</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -3318,22 +3318,22 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-5.054</v>
+        <v>-8.946</v>
       </c>
       <c r="F85" t="n">
-        <v>1.55</v>
+        <v>1.904</v>
       </c>
       <c r="G85" t="n">
-        <v>2.581</v>
+        <v>0.756</v>
       </c>
       <c r="H85" t="n">
-        <v>1.607</v>
+        <v>0.869</v>
       </c>
       <c r="I85" t="n">
-        <v>1.555</v>
+        <v>0.714</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,96 +3352,96 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.599</v>
+        <v>0.583</v>
       </c>
       <c r="F86" t="n">
-        <v>0.577</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>0.362</v>
+        <v>0.375</v>
       </c>
       <c r="H86" t="n">
-        <v>0.602</v>
+        <v>0.612</v>
       </c>
       <c r="I86" t="n">
-        <v>0.453</v>
+        <v>0.456</v>
       </c>
       <c r="J86" t="n">
-        <v>0.85</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>LR346</t>
+          <t>LR350</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.801</v>
+        <v>0.797</v>
       </c>
       <c r="C87" t="n">
         <v>0.86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.659</v>
+        <v>0.656</v>
       </c>
       <c r="E87" t="n">
-        <v>0.31</v>
+        <v>0.313</v>
       </c>
       <c r="F87" t="n">
-        <v>0.272</v>
+        <v>0.276</v>
       </c>
       <c r="G87" t="n">
-        <v>0.621</v>
+        <v>0.614</v>
       </c>
       <c r="H87" t="n">
-        <v>0.788</v>
+        <v>0.784</v>
       </c>
       <c r="I87" t="n">
-        <v>0.601</v>
+        <v>0.596</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>RF346</t>
+          <t>RF350</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.716</v>
+        <v>0.678</v>
       </c>
       <c r="C88" t="n">
-        <v>0.803</v>
+        <v>0.781</v>
       </c>
       <c r="D88" t="n">
-        <v>0.619</v>
+        <v>0.604</v>
       </c>
       <c r="E88" t="n">
-        <v>0.902</v>
+        <v>0.903</v>
       </c>
       <c r="F88" t="n">
-        <v>0.897</v>
+        <v>0.898</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0.297</v>
+        <v>0.293</v>
       </c>
       <c r="I88" t="n">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="J88" t="n">
-        <v>0.975</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>NN346</t>
+          <t>NN350</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3454,22 +3454,22 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-3.86</v>
+        <v>-2.568</v>
       </c>
       <c r="F89" t="n">
-        <v>1.286</v>
+        <v>1.21</v>
       </c>
       <c r="G89" t="n">
-        <v>3.028</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>1.74</v>
+        <v>0.266</v>
       </c>
       <c r="I89" t="n">
-        <v>1.681</v>
+        <v>0.203</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,19 +3488,19 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-32.894</v>
+        <v>-1.101</v>
       </c>
       <c r="F90" t="n">
-        <v>4.081</v>
+        <v>1.191</v>
       </c>
       <c r="G90" t="n">
-        <v>21.117</v>
+        <v>0.042</v>
       </c>
       <c r="H90" t="n">
-        <v>4.595</v>
+        <v>0.205</v>
       </c>
       <c r="I90" t="n">
-        <v>4.02</v>
+        <v>0.205</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -3522,87 +3522,87 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.577</v>
+        <v>0.587</v>
       </c>
       <c r="F91" t="n">
-        <v>0.554</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>0.38</v>
+        <v>0.369</v>
       </c>
       <c r="H91" t="n">
-        <v>0.616</v>
+        <v>0.607</v>
       </c>
       <c r="I91" t="n">
-        <v>0.459</v>
+        <v>0.447</v>
       </c>
       <c r="J91" t="n">
-        <v>0.848</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>LR348</t>
+          <t>LR352</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.787</v>
+        <v>0.769</v>
       </c>
       <c r="C92" t="n">
-        <v>0.854</v>
+        <v>0.844</v>
       </c>
       <c r="D92" t="n">
-        <v>0.655</v>
+        <v>0.649</v>
       </c>
       <c r="E92" t="n">
-        <v>0.312</v>
+        <v>0.314</v>
       </c>
       <c r="F92" t="n">
-        <v>0.274</v>
+        <v>0.277</v>
       </c>
       <c r="G92" t="n">
-        <v>0.617</v>
+        <v>0.61</v>
       </c>
       <c r="H92" t="n">
-        <v>0.785</v>
+        <v>0.781</v>
       </c>
       <c r="I92" t="n">
-        <v>0.598</v>
+        <v>0.593</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>RF348</t>
+          <t>RF352</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.703</v>
+        <v>0.694</v>
       </c>
       <c r="C93" t="n">
-        <v>0.796</v>
+        <v>0.79</v>
       </c>
       <c r="D93" t="n">
-        <v>0.615</v>
+        <v>0.61</v>
       </c>
       <c r="E93" t="n">
-        <v>0.903</v>
+        <v>0.906</v>
       </c>
       <c r="F93" t="n">
-        <v>0.898</v>
+        <v>0.901</v>
       </c>
       <c r="G93" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0.295</v>
+        <v>0.29</v>
       </c>
       <c r="I93" t="n">
-        <v>0.219</v>
+        <v>0.216</v>
       </c>
       <c r="J93" t="n">
         <v>0.975</v>
@@ -3611,7 +3611,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>NN348</t>
+          <t>NN352</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3624,22 +3624,22 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.749</v>
+        <v>-1.884</v>
       </c>
       <c r="F94" t="n">
-        <v>1.515</v>
+        <v>1.17</v>
       </c>
       <c r="G94" t="n">
-        <v>0.665</v>
+        <v>0.146</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.382</v>
       </c>
       <c r="I94" t="n">
-        <v>0.78</v>
+        <v>0.28</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3658,22 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-55.733</v>
+        <v>-6.454</v>
       </c>
       <c r="F95" t="n">
-        <v>6.158</v>
+        <v>1.678</v>
       </c>
       <c r="G95" t="n">
-        <v>4.315</v>
+        <v>0.376</v>
       </c>
       <c r="H95" t="n">
-        <v>2.077</v>
+        <v>0.613</v>
       </c>
       <c r="I95" t="n">
-        <v>1.789</v>
+        <v>0.609</v>
       </c>
       <c r="J95" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,96 +3692,96 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.582</v>
+        <v>0.597</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.575</v>
       </c>
       <c r="G96" t="n">
-        <v>0.375</v>
+        <v>0.358</v>
       </c>
       <c r="H96" t="n">
-        <v>0.612</v>
+        <v>0.598</v>
       </c>
       <c r="I96" t="n">
-        <v>0.458</v>
+        <v>0.45</v>
       </c>
       <c r="J96" t="n">
-        <v>0.845</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>LR350</t>
+          <t>LR354</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.797</v>
+        <v>0.765</v>
       </c>
       <c r="C97" t="n">
-        <v>0.86</v>
+        <v>0.843</v>
       </c>
       <c r="D97" t="n">
-        <v>0.656</v>
+        <v>0.646</v>
       </c>
       <c r="E97" t="n">
-        <v>0.313</v>
+        <v>0.317</v>
       </c>
       <c r="F97" t="n">
-        <v>0.276</v>
+        <v>0.28</v>
       </c>
       <c r="G97" t="n">
-        <v>0.614</v>
+        <v>0.607</v>
       </c>
       <c r="H97" t="n">
-        <v>0.784</v>
+        <v>0.779</v>
       </c>
       <c r="I97" t="n">
-        <v>0.596</v>
+        <v>0.59</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>RF350</t>
+          <t>RF354</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.702</v>
+        <v>0.696</v>
       </c>
       <c r="C98" t="n">
-        <v>0.794</v>
+        <v>0.79</v>
       </c>
       <c r="D98" t="n">
-        <v>0.619</v>
+        <v>0.611</v>
       </c>
       <c r="E98" t="n">
-        <v>0.905</v>
+        <v>0.9</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.089</v>
       </c>
       <c r="H98" t="n">
-        <v>0.292</v>
+        <v>0.298</v>
       </c>
       <c r="I98" t="n">
-        <v>0.218</v>
+        <v>0.22</v>
       </c>
       <c r="J98" t="n">
-        <v>0.976</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>NN350</t>
+          <t>NN354</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-2.007</v>
+        <v>-45.652</v>
       </c>
       <c r="F99" t="n">
-        <v>1.177</v>
+        <v>3.744</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06</v>
+        <v>1.457</v>
       </c>
       <c r="H99" t="n">
-        <v>0.245</v>
+        <v>1.207</v>
       </c>
       <c r="I99" t="n">
-        <v>0.245</v>
+        <v>1.18</v>
       </c>
       <c r="J99" t="n">
         <v>-1</v>
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-5.404</v>
+        <v>-1.87</v>
       </c>
       <c r="F100" t="n">
-        <v>1.582</v>
+        <v>1.261</v>
       </c>
       <c r="G100" t="n">
-        <v>0.128</v>
+        <v>0.09</v>
       </c>
       <c r="H100" t="n">
-        <v>0.358</v>
+        <v>0.3</v>
       </c>
       <c r="I100" t="n">
-        <v>0.326</v>
+        <v>0.271</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -3862,87 +3862,87 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.586</v>
+        <v>0.574</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.551</v>
       </c>
       <c r="G101" t="n">
-        <v>0.37</v>
+        <v>0.379</v>
       </c>
       <c r="H101" t="n">
-        <v>0.608</v>
+        <v>0.616</v>
       </c>
       <c r="I101" t="n">
         <v>0.451</v>
       </c>
       <c r="J101" t="n">
-        <v>0.852</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LR352</t>
+          <t>LR356</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.769</v>
+        <v>0.797</v>
       </c>
       <c r="C102" t="n">
-        <v>0.844</v>
+        <v>0.859</v>
       </c>
       <c r="D102" t="n">
-        <v>0.649</v>
+        <v>0.658</v>
       </c>
       <c r="E102" t="n">
-        <v>0.314</v>
+        <v>0.329</v>
       </c>
       <c r="F102" t="n">
-        <v>0.277</v>
+        <v>0.293</v>
       </c>
       <c r="G102" t="n">
-        <v>0.61</v>
+        <v>0.604</v>
       </c>
       <c r="H102" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="I102" t="n">
-        <v>0.593</v>
+        <v>0.589</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>RF352</t>
+          <t>RF356</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.68</v>
+        <v>0.715</v>
       </c>
       <c r="C103" t="n">
-        <v>0.78</v>
+        <v>0.801</v>
       </c>
       <c r="D103" t="n">
-        <v>0.599</v>
+        <v>0.621</v>
       </c>
       <c r="E103" t="n">
-        <v>0.905</v>
+        <v>0.902</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9</v>
+        <v>0.897</v>
       </c>
       <c r="G103" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0.29</v>
+        <v>0.297</v>
       </c>
       <c r="I103" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="J103" t="n">
         <v>0.974</v>
@@ -3951,7 +3951,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>NN352</t>
+          <t>NN356</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3964,22 +3964,22 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.181</v>
+        <v>-143.83</v>
       </c>
       <c r="F104" t="n">
-        <v>1.048</v>
+        <v>9.519</v>
       </c>
       <c r="G104" t="n">
-        <v>0.041</v>
+        <v>3.914</v>
       </c>
       <c r="H104" t="n">
-        <v>0.202</v>
+        <v>1.978</v>
       </c>
       <c r="I104" t="n">
-        <v>0.186</v>
+        <v>1.961</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
@@ -3998,22 +3998,22 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-2.426</v>
+        <v>-11.703</v>
       </c>
       <c r="F105" t="n">
-        <v>1.311</v>
+        <v>2.155</v>
       </c>
       <c r="G105" t="n">
-        <v>0.173</v>
+        <v>0.343</v>
       </c>
       <c r="H105" t="n">
-        <v>0.416</v>
+        <v>0.586</v>
       </c>
       <c r="I105" t="n">
-        <v>0.353</v>
+        <v>0.586</v>
       </c>
       <c r="J105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4032,96 +4032,96 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6</v>
+        <v>0.586</v>
       </c>
       <c r="F106" t="n">
-        <v>0.578</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>0.355</v>
+        <v>0.372</v>
       </c>
       <c r="H106" t="n">
-        <v>0.596</v>
+        <v>0.61</v>
       </c>
       <c r="I106" t="n">
-        <v>0.444</v>
+        <v>0.449</v>
       </c>
       <c r="J106" t="n">
-        <v>0.848</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>LR354</t>
+          <t>LR358</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.765</v>
+        <v>0.806</v>
       </c>
       <c r="C107" t="n">
-        <v>0.843</v>
+        <v>0.863</v>
       </c>
       <c r="D107" t="n">
-        <v>0.646</v>
+        <v>0.665</v>
       </c>
       <c r="E107" t="n">
-        <v>0.317</v>
+        <v>0.334</v>
       </c>
       <c r="F107" t="n">
-        <v>0.28</v>
+        <v>0.299</v>
       </c>
       <c r="G107" t="n">
-        <v>0.607</v>
+        <v>0.61</v>
       </c>
       <c r="H107" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="I107" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>RF354</t>
+          <t>RF358</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.695</v>
+        <v>0.717</v>
       </c>
       <c r="C108" t="n">
-        <v>0.788</v>
+        <v>0.802</v>
       </c>
       <c r="D108" t="n">
-        <v>0.613</v>
+        <v>0.626</v>
       </c>
       <c r="E108" t="n">
-        <v>0.903</v>
+        <v>0.904</v>
       </c>
       <c r="F108" t="n">
-        <v>0.898</v>
+        <v>0.899</v>
       </c>
       <c r="G108" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0.293</v>
+        <v>0.297</v>
       </c>
       <c r="I108" t="n">
-        <v>0.213</v>
+        <v>0.219</v>
       </c>
       <c r="J108" t="n">
-        <v>0.975</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>NN354</t>
+          <t>NN358</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4134,19 +4134,19 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-6.076</v>
+        <v>-81.97199999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>1.416</v>
+        <v>5.881</v>
       </c>
       <c r="G109" t="n">
-        <v>0.221</v>
+        <v>2.82</v>
       </c>
       <c r="H109" t="n">
-        <v>0.47</v>
+        <v>1.679</v>
       </c>
       <c r="I109" t="n">
-        <v>0.462</v>
+        <v>1.67</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -4168,19 +4168,19 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.277</v>
+        <v>-33.648</v>
       </c>
       <c r="F110" t="n">
-        <v>1.116</v>
+        <v>4.15</v>
       </c>
       <c r="G110" t="n">
-        <v>0.04</v>
+        <v>1.178</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2</v>
+        <v>1.085</v>
       </c>
       <c r="I110" t="n">
-        <v>0.187</v>
+        <v>1.04</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4202,96 +4202,96 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.569</v>
+        <v>0.593</v>
       </c>
       <c r="F111" t="n">
-        <v>0.546</v>
+        <v>0.571</v>
       </c>
       <c r="G111" t="n">
-        <v>0.383</v>
+        <v>0.373</v>
       </c>
       <c r="H111" t="n">
-        <v>0.619</v>
+        <v>0.611</v>
       </c>
       <c r="I111" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="J111" t="n">
-        <v>0.857</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>LR356</t>
+          <t>LR360</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.797</v>
+        <v>0.806</v>
       </c>
       <c r="C112" t="n">
-        <v>0.859</v>
+        <v>0.863</v>
       </c>
       <c r="D112" t="n">
-        <v>0.658</v>
+        <v>0.665</v>
       </c>
       <c r="E112" t="n">
-        <v>0.329</v>
+        <v>0.335</v>
       </c>
       <c r="F112" t="n">
-        <v>0.293</v>
+        <v>0.3</v>
       </c>
       <c r="G112" t="n">
-        <v>0.604</v>
+        <v>0.607</v>
       </c>
       <c r="H112" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="I112" t="n">
-        <v>0.589</v>
+        <v>0.592</v>
       </c>
       <c r="J112" t="n">
-        <v>0.578</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>RF356</t>
+          <t>RF360</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.727</v>
+        <v>0.709</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.801</v>
       </c>
       <c r="D113" t="n">
-        <v>0.627</v>
+        <v>0.623</v>
       </c>
       <c r="E113" t="n">
-        <v>0.906</v>
+        <v>0.91</v>
       </c>
       <c r="F113" t="n">
-        <v>0.901</v>
+        <v>0.905</v>
       </c>
       <c r="G113" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="H113" t="n">
-        <v>0.29</v>
+        <v>0.286</v>
       </c>
       <c r="I113" t="n">
-        <v>0.212</v>
+        <v>0.214</v>
       </c>
       <c r="J113" t="n">
-        <v>0.974</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NN356</t>
+          <t>NN360</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4304,22 +4304,22 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-76.8</v>
+        <v>0.162</v>
       </c>
       <c r="F114" t="n">
-        <v>5.576</v>
+        <v>1.049</v>
       </c>
       <c r="G114" t="n">
-        <v>2.103</v>
+        <v>0.132</v>
       </c>
       <c r="H114" t="n">
-        <v>1.45</v>
+        <v>0.363</v>
       </c>
       <c r="I114" t="n">
-        <v>1.431</v>
+        <v>0.334</v>
       </c>
       <c r="J114" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4338,22 +4338,22 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>-59.556</v>
+        <v>-0.276</v>
       </c>
       <c r="F115" t="n">
-        <v>6.505</v>
+        <v>1.116</v>
       </c>
       <c r="G115" t="n">
-        <v>1.637</v>
+        <v>0.201</v>
       </c>
       <c r="H115" t="n">
-        <v>1.279</v>
+        <v>0.448</v>
       </c>
       <c r="I115" t="n">
-        <v>1.267</v>
+        <v>0.385</v>
       </c>
       <c r="J115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4372,96 +4372,96 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.579</v>
+        <v>0.587</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="H116" t="n">
-        <v>0.615</v>
+        <v>0.614</v>
       </c>
       <c r="I116" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="J116" t="n">
-        <v>0.851</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>LR358</t>
+          <t>LR362</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.806</v>
+        <v>0.831</v>
       </c>
       <c r="C117" t="n">
-        <v>0.863</v>
+        <v>0.875</v>
       </c>
       <c r="D117" t="n">
-        <v>0.665</v>
+        <v>0.671</v>
       </c>
       <c r="E117" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="F117" t="n">
-        <v>0.299</v>
+        <v>0.296</v>
       </c>
       <c r="G117" t="n">
-        <v>0.61</v>
+        <v>0.614</v>
       </c>
       <c r="H117" t="n">
-        <v>0.781</v>
+        <v>0.784</v>
       </c>
       <c r="I117" t="n">
         <v>0.594</v>
       </c>
       <c r="J117" t="n">
-        <v>0.582</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>RF358</t>
+          <t>RF362</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.711</v>
+        <v>0.757</v>
       </c>
       <c r="C118" t="n">
-        <v>0.802</v>
+        <v>0.828</v>
       </c>
       <c r="D118" t="n">
-        <v>0.629</v>
+        <v>0.644</v>
       </c>
       <c r="E118" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="F118" t="n">
         <v>0.901</v>
       </c>
-      <c r="F118" t="n">
-        <v>0.896</v>
-      </c>
       <c r="G118" t="n">
-        <v>0.091</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0.302</v>
+        <v>0.293</v>
       </c>
       <c r="I118" t="n">
-        <v>0.221</v>
+        <v>0.218</v>
       </c>
       <c r="J118" t="n">
-        <v>0.974</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>NN358</t>
+          <t>NN362</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4474,19 +4474,19 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>-38.969</v>
+        <v>-0.515</v>
       </c>
       <c r="F119" t="n">
-        <v>3.351</v>
+        <v>1.089</v>
       </c>
       <c r="G119" t="n">
-        <v>1.359</v>
+        <v>0.993</v>
       </c>
       <c r="H119" t="n">
-        <v>1.166</v>
+        <v>0.996</v>
       </c>
       <c r="I119" t="n">
-        <v>1.165</v>
+        <v>0.76</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -4508,22 +4508,22 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-30.741</v>
+        <v>-0.93</v>
       </c>
       <c r="F120" t="n">
-        <v>3.886</v>
+        <v>1.175</v>
       </c>
       <c r="G120" t="n">
-        <v>1.079</v>
+        <v>1.265</v>
       </c>
       <c r="H120" t="n">
-        <v>1.039</v>
+        <v>1.125</v>
       </c>
       <c r="I120" t="n">
-        <v>1.031</v>
+        <v>1.082</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
@@ -4542,87 +4542,87 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.591</v>
+        <v>0.587</v>
       </c>
       <c r="F121" t="n">
-        <v>0.569</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>0.375</v>
+        <v>0.379</v>
       </c>
       <c r="H121" t="n">
-        <v>0.612</v>
+        <v>0.616</v>
       </c>
       <c r="I121" t="n">
-        <v>0.452</v>
+        <v>0.459</v>
       </c>
       <c r="J121" t="n">
-        <v>0.852</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>LR360</t>
+          <t>LR364</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.806</v>
+        <v>0.849</v>
       </c>
       <c r="C122" t="n">
-        <v>0.863</v>
+        <v>0.885</v>
       </c>
       <c r="D122" t="n">
-        <v>0.665</v>
+        <v>0.677</v>
       </c>
       <c r="E122" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="G122" t="n">
-        <v>0.607</v>
+        <v>0.611</v>
       </c>
       <c r="H122" t="n">
-        <v>0.779</v>
+        <v>0.782</v>
       </c>
       <c r="I122" t="n">
-        <v>0.592</v>
+        <v>0.593</v>
       </c>
       <c r="J122" t="n">
-        <v>0.583</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>RF360</t>
+          <t>RF364</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.73</v>
+        <v>0.769</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.834</v>
       </c>
       <c r="D123" t="n">
-        <v>0.632</v>
+        <v>0.641</v>
       </c>
       <c r="E123" t="n">
-        <v>0.909</v>
+        <v>0.903</v>
       </c>
       <c r="F123" t="n">
-        <v>0.904</v>
+        <v>0.898</v>
       </c>
       <c r="G123" t="n">
-        <v>0.083</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0.288</v>
+        <v>0.297</v>
       </c>
       <c r="I123" t="n">
-        <v>0.214</v>
+        <v>0.218</v>
       </c>
       <c r="J123" t="n">
         <v>0.973</v>
@@ -4631,7 +4631,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>NN360</t>
+          <t>NN364</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4644,22 +4644,22 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-2.724</v>
+        <v>0.625</v>
       </c>
       <c r="F124" t="n">
-        <v>1.219</v>
+        <v>1.022</v>
       </c>
       <c r="G124" t="n">
-        <v>0.588</v>
+        <v>0.027</v>
       </c>
       <c r="H124" t="n">
-        <v>0.767</v>
+        <v>0.164</v>
       </c>
       <c r="I124" t="n">
-        <v>0.725</v>
+        <v>0.14</v>
       </c>
       <c r="J124" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4678,19 +4678,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.799</v>
+        <v>-2.354</v>
       </c>
       <c r="F125" t="n">
-        <v>1.164</v>
+        <v>1.305</v>
       </c>
       <c r="G125" t="n">
-        <v>0.284</v>
+        <v>0.238</v>
       </c>
       <c r="H125" t="n">
-        <v>0.533</v>
+        <v>0.488</v>
       </c>
       <c r="I125" t="n">
-        <v>0.516</v>
+        <v>0.488</v>
       </c>
       <c r="J125" t="n">
         <v>-1</v>
@@ -4712,96 +4712,96 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.589</v>
+        <v>0.607</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.586</v>
       </c>
       <c r="G126" t="n">
-        <v>0.376</v>
+        <v>0.359</v>
       </c>
       <c r="H126" t="n">
-        <v>0.613</v>
+        <v>0.599</v>
       </c>
       <c r="I126" t="n">
-        <v>0.454</v>
+        <v>0.447</v>
       </c>
       <c r="J126" t="n">
-        <v>0.863</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>LR362</t>
+          <t>LR366</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.831</v>
+        <v>0.882</v>
       </c>
       <c r="C127" t="n">
-        <v>0.875</v>
+        <v>0.901</v>
       </c>
       <c r="D127" t="n">
-        <v>0.671</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.331</v>
+        <v>0.328</v>
       </c>
       <c r="F127" t="n">
-        <v>0.296</v>
+        <v>0.293</v>
       </c>
       <c r="G127" t="n">
-        <v>0.614</v>
+        <v>0.626</v>
       </c>
       <c r="H127" t="n">
-        <v>0.784</v>
+        <v>0.791</v>
       </c>
       <c r="I127" t="n">
-        <v>0.594</v>
+        <v>0.603</v>
       </c>
       <c r="J127" t="n">
-        <v>0.579</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RF362</t>
+          <t>RF366</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.737</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.853</v>
       </c>
       <c r="D128" t="n">
-        <v>0.633</v>
+        <v>0.651</v>
       </c>
       <c r="E128" t="n">
-        <v>0.905</v>
+        <v>0.899</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9</v>
+        <v>0.894</v>
       </c>
       <c r="G128" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.094</v>
       </c>
       <c r="H128" t="n">
-        <v>0.295</v>
+        <v>0.307</v>
       </c>
       <c r="I128" t="n">
-        <v>0.216</v>
+        <v>0.227</v>
       </c>
       <c r="J128" t="n">
-        <v>0.976</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>NN362</t>
+          <t>NN366</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4814,22 +4814,22 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.431</v>
+        <v>-45.206</v>
       </c>
       <c r="F129" t="n">
-        <v>1.084</v>
+        <v>3.718</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="H129" t="n">
-        <v>0.969</v>
+        <v>0.708</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.706</v>
       </c>
       <c r="J129" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4848,22 +4848,22 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>-2.636</v>
+        <v>-47.765</v>
       </c>
       <c r="F130" t="n">
-        <v>1.331</v>
+        <v>5.433</v>
       </c>
       <c r="G130" t="n">
-        <v>2.383</v>
+        <v>0.529</v>
       </c>
       <c r="H130" t="n">
-        <v>1.544</v>
+        <v>0.727</v>
       </c>
       <c r="I130" t="n">
-        <v>1.107</v>
+        <v>0.584</v>
       </c>
       <c r="J130" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.591</v>
+        <v>0.596</v>
       </c>
       <c r="F131" t="n">
-        <v>0.57</v>
+        <v>0.575</v>
       </c>
       <c r="G131" t="n">
         <v>0.376</v>
@@ -4897,72 +4897,72 @@
         <v>0.456</v>
       </c>
       <c r="J131" t="n">
-        <v>0.848</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>LR364</t>
+          <t>LR368</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.849</v>
+        <v>0.92</v>
       </c>
       <c r="C132" t="n">
-        <v>0.885</v>
+        <v>0.918</v>
       </c>
       <c r="D132" t="n">
-        <v>0.677</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.332</v>
+        <v>0.325</v>
       </c>
       <c r="F132" t="n">
-        <v>0.297</v>
+        <v>0.29</v>
       </c>
       <c r="G132" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="I132" t="n">
         <v>0.611</v>
       </c>
-      <c r="H132" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.593</v>
-      </c>
       <c r="J132" t="n">
-        <v>0.58</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RF364</t>
+          <t>RF368</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.756</v>
+        <v>0.848</v>
       </c>
       <c r="C133" t="n">
-        <v>0.826</v>
+        <v>0.872</v>
       </c>
       <c r="D133" t="n">
-        <v>0.636</v>
+        <v>0.662</v>
       </c>
       <c r="E133" t="n">
-        <v>0.902</v>
+        <v>0.903</v>
       </c>
       <c r="F133" t="n">
-        <v>0.897</v>
+        <v>0.898</v>
       </c>
       <c r="G133" t="n">
-        <v>0.09</v>
+        <v>0.093</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3</v>
+        <v>0.305</v>
       </c>
       <c r="I133" t="n">
-        <v>0.223</v>
+        <v>0.225</v>
       </c>
       <c r="J133" t="n">
         <v>0.973</v>
@@ -4971,7 +4971,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>NN364</t>
+          <t>NN368</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4984,19 +4984,19 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.556</v>
+        <v>-0.151</v>
       </c>
       <c r="F134" t="n">
-        <v>1.026</v>
+        <v>1.068</v>
       </c>
       <c r="G134" t="n">
-        <v>0.032</v>
+        <v>1.456</v>
       </c>
       <c r="H134" t="n">
-        <v>0.179</v>
+        <v>1.207</v>
       </c>
       <c r="I134" t="n">
-        <v>0.134</v>
+        <v>1.07</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -5018,22 +5018,22 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.919</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>1.174</v>
+        <v>1.017</v>
       </c>
       <c r="G135" t="n">
-        <v>0.136</v>
+        <v>0.236</v>
       </c>
       <c r="H135" t="n">
-        <v>0.369</v>
+        <v>0.486</v>
       </c>
       <c r="I135" t="n">
-        <v>0.347</v>
+        <v>0.418</v>
       </c>
       <c r="J135" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -5052,96 +5052,96 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.586</v>
+        <v>0.588</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G136" t="n">
-        <v>0.379</v>
+        <v>0.395</v>
       </c>
       <c r="H136" t="n">
-        <v>0.616</v>
+        <v>0.628</v>
       </c>
       <c r="I136" t="n">
-        <v>0.456</v>
+        <v>0.464</v>
       </c>
       <c r="J136" t="n">
-        <v>0.847</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LR366</t>
+          <t>LR370</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.882</v>
+        <v>1.034</v>
       </c>
       <c r="C137" t="n">
-        <v>0.901</v>
+        <v>0.966</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.724</v>
       </c>
       <c r="E137" t="n">
-        <v>0.328</v>
+        <v>0.309</v>
       </c>
       <c r="F137" t="n">
-        <v>0.293</v>
+        <v>0.274</v>
       </c>
       <c r="G137" t="n">
-        <v>0.626</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0.791</v>
+        <v>0.832</v>
       </c>
       <c r="I137" t="n">
-        <v>0.603</v>
+        <v>0.629</v>
       </c>
       <c r="J137" t="n">
-        <v>0.577</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>RF366</t>
+          <t>RF370</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.789</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.843</v>
+        <v>0.913</v>
       </c>
       <c r="D138" t="n">
-        <v>0.65</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.905</v>
+        <v>0.912</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9</v>
+        <v>0.907</v>
       </c>
       <c r="G138" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="H138" t="n">
-        <v>0.297</v>
+        <v>0.298</v>
       </c>
       <c r="I138" t="n">
-        <v>0.221</v>
+        <v>0.224</v>
       </c>
       <c r="J138" t="n">
-        <v>0.974</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>NN366</t>
+          <t>NN370</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -5154,22 +5154,22 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>-10.9</v>
+        <v>-12.694</v>
       </c>
       <c r="F139" t="n">
-        <v>1.7</v>
+        <v>1.806</v>
       </c>
       <c r="G139" t="n">
-        <v>0.129</v>
+        <v>2.112</v>
       </c>
       <c r="H139" t="n">
-        <v>0.359</v>
+        <v>1.453</v>
       </c>
       <c r="I139" t="n">
-        <v>0.274</v>
+        <v>1.436</v>
       </c>
       <c r="J139" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -5188,22 +5188,22 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-42.742</v>
+        <v>-17.738</v>
       </c>
       <c r="F140" t="n">
-        <v>4.977</v>
+        <v>2.703</v>
       </c>
       <c r="G140" t="n">
-        <v>0.474</v>
+        <v>2.889</v>
       </c>
       <c r="H140" t="n">
-        <v>0.6879999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="I140" t="n">
-        <v>0.605</v>
+        <v>1.542</v>
       </c>
       <c r="J140" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -5222,96 +5222,96 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.575</v>
+        <v>0.59</v>
       </c>
       <c r="F141" t="n">
-        <v>0.553</v>
+        <v>0.569</v>
       </c>
       <c r="G141" t="n">
-        <v>0.395</v>
+        <v>0.41</v>
       </c>
       <c r="H141" t="n">
-        <v>0.628</v>
+        <v>0.64</v>
       </c>
       <c r="I141" t="n">
-        <v>0.468</v>
+        <v>0.475</v>
       </c>
       <c r="J141" t="n">
-        <v>0.846</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>LR368</t>
+          <t>LR372</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.92</v>
+        <v>0.997</v>
       </c>
       <c r="C142" t="n">
-        <v>0.918</v>
+        <v>0.951</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.716</v>
       </c>
       <c r="E142" t="n">
-        <v>0.325</v>
+        <v>0.31</v>
       </c>
       <c r="F142" t="n">
-        <v>0.29</v>
+        <v>0.275</v>
       </c>
       <c r="G142" t="n">
-        <v>0.646</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H142" t="n">
-        <v>0.804</v>
+        <v>0.83</v>
       </c>
       <c r="I142" t="n">
-        <v>0.611</v>
+        <v>0.628</v>
       </c>
       <c r="J142" t="n">
-        <v>0.575</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RF368</t>
+          <t>RF372</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.84</v>
+        <v>0.917</v>
       </c>
       <c r="C143" t="n">
-        <v>0.868</v>
+        <v>0.899</v>
       </c>
       <c r="D143" t="n">
-        <v>0.66</v>
+        <v>0.679</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="F143" t="n">
-        <v>0.895</v>
+        <v>0.89</v>
       </c>
       <c r="G143" t="n">
-        <v>0.096</v>
+        <v>0.105</v>
       </c>
       <c r="H143" t="n">
-        <v>0.31</v>
+        <v>0.324</v>
       </c>
       <c r="I143" t="n">
-        <v>0.225</v>
+        <v>0.238</v>
       </c>
       <c r="J143" t="n">
-        <v>0.975</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>NN368</t>
+          <t>NN372</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5324,22 +5324,22 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.523</v>
+        <v>-689.716</v>
       </c>
       <c r="F144" t="n">
-        <v>1.09</v>
+        <v>41.63</v>
       </c>
       <c r="G144" t="n">
-        <v>1.926</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H144" t="n">
-        <v>1.388</v>
+        <v>0.899</v>
       </c>
       <c r="I144" t="n">
-        <v>1.237</v>
+        <v>0.802</v>
       </c>
       <c r="J144" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5358,22 +5358,22 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.046</v>
+        <v>-5.166</v>
       </c>
       <c r="F145" t="n">
-        <v>1.095</v>
+        <v>1.561</v>
       </c>
       <c r="G145" t="n">
-        <v>1.323</v>
+        <v>0.007</v>
       </c>
       <c r="H145" t="n">
-        <v>1.15</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I145" t="n">
-        <v>1.138</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J145" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -5392,53 +5392,53 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.598</v>
+        <v>0.581</v>
       </c>
       <c r="F146" t="n">
-        <v>0.577</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>0.385</v>
+        <v>0.419</v>
       </c>
       <c r="H146" t="n">
-        <v>0.62</v>
+        <v>0.647</v>
       </c>
       <c r="I146" t="n">
-        <v>0.458</v>
+        <v>0.479</v>
       </c>
       <c r="J146" t="n">
-        <v>0.857</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>LR370</t>
+          <t>LR374</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1.034</v>
+        <v>1.007</v>
       </c>
       <c r="C147" t="n">
-        <v>0.966</v>
+        <v>0.955</v>
       </c>
       <c r="D147" t="n">
-        <v>0.724</v>
+        <v>0.718</v>
       </c>
       <c r="E147" t="n">
-        <v>0.309</v>
+        <v>0.31</v>
       </c>
       <c r="F147" t="n">
-        <v>0.274</v>
+        <v>0.275</v>
       </c>
       <c r="G147" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H147" t="n">
-        <v>0.832</v>
+        <v>0.828</v>
       </c>
       <c r="I147" t="n">
-        <v>0.629</v>
+        <v>0.625</v>
       </c>
       <c r="J147" t="n">
         <v>0.5610000000000001</v>
@@ -5447,32 +5447,32 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RF370</t>
+          <t>RF374</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.968</v>
+        <v>0.995</v>
       </c>
       <c r="C148" t="n">
-        <v>0.925</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>0.698</v>
+        <v>0.701</v>
       </c>
       <c r="E148" t="n">
-        <v>0.909</v>
+        <v>0.902</v>
       </c>
       <c r="F148" t="n">
-        <v>0.904</v>
+        <v>0.897</v>
       </c>
       <c r="G148" t="n">
-        <v>0.091</v>
+        <v>0.097</v>
       </c>
       <c r="H148" t="n">
-        <v>0.302</v>
+        <v>0.311</v>
       </c>
       <c r="I148" t="n">
-        <v>0.223</v>
+        <v>0.23</v>
       </c>
       <c r="J148" t="n">
         <v>0.974</v>
@@ -5481,7 +5481,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>NN370</t>
+          <t>NN374</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5494,19 +5494,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>-5.978</v>
+        <v>0.968</v>
       </c>
       <c r="F149" t="n">
-        <v>1.41</v>
+        <v>1.002</v>
       </c>
       <c r="G149" t="n">
-        <v>1.076</v>
+        <v>0.002</v>
       </c>
       <c r="H149" t="n">
-        <v>1.037</v>
+        <v>0.045</v>
       </c>
       <c r="I149" t="n">
-        <v>1.017</v>
+        <v>0.048</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -5528,22 +5528,22 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-5.858</v>
+        <v>-3.855</v>
       </c>
       <c r="F150" t="n">
-        <v>1.623</v>
+        <v>1.441</v>
       </c>
       <c r="G150" t="n">
-        <v>1.057</v>
+        <v>0.369</v>
       </c>
       <c r="H150" t="n">
-        <v>1.028</v>
+        <v>0.607</v>
       </c>
       <c r="I150" t="n">
-        <v>0.872</v>
+        <v>0.607</v>
       </c>
       <c r="J150" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -5562,96 +5562,96 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.586</v>
+        <v>0.589</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>0.415</v>
+        <v>0.408</v>
       </c>
       <c r="H151" t="n">
-        <v>0.644</v>
+        <v>0.639</v>
       </c>
       <c r="I151" t="n">
-        <v>0.478</v>
+        <v>0.472</v>
       </c>
       <c r="J151" t="n">
-        <v>0.837</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>LR372</t>
+          <t>LR376</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
       <c r="C152" t="n">
         <v>0.951</v>
       </c>
       <c r="D152" t="n">
-        <v>0.716</v>
+        <v>0.721</v>
       </c>
       <c r="E152" t="n">
-        <v>0.31</v>
+        <v>0.303</v>
       </c>
       <c r="F152" t="n">
-        <v>0.275</v>
+        <v>0.268</v>
       </c>
       <c r="G152" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="H152" t="n">
-        <v>0.83</v>
+        <v>0.834</v>
       </c>
       <c r="I152" t="n">
-        <v>0.628</v>
+        <v>0.634</v>
       </c>
       <c r="J152" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RF372</t>
+          <t>RF376</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.931</v>
+        <v>0.948</v>
       </c>
       <c r="C153" t="n">
-        <v>0.907</v>
+        <v>0.919</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="E153" t="n">
-        <v>0.911</v>
+        <v>0.901</v>
       </c>
       <c r="F153" t="n">
-        <v>0.906</v>
+        <v>0.896</v>
       </c>
       <c r="G153" t="n">
-        <v>0.089</v>
+        <v>0.099</v>
       </c>
       <c r="H153" t="n">
-        <v>0.298</v>
+        <v>0.315</v>
       </c>
       <c r="I153" t="n">
-        <v>0.223</v>
+        <v>0.229</v>
       </c>
       <c r="J153" t="n">
-        <v>0.975</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>NN372</t>
+          <t>NN376</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -5664,19 +5664,19 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-592.3150000000001</v>
+        <v>-3.175</v>
       </c>
       <c r="F154" t="n">
-        <v>35.901</v>
+        <v>1.246</v>
       </c>
       <c r="G154" t="n">
-        <v>0.694</v>
+        <v>0.371</v>
       </c>
       <c r="H154" t="n">
-        <v>0.833</v>
+        <v>0.609</v>
       </c>
       <c r="I154" t="n">
-        <v>0.784</v>
+        <v>0.603</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -5698,19 +5698,19 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>-618.813</v>
+        <v>-34.492</v>
       </c>
       <c r="F155" t="n">
-        <v>57.347</v>
+        <v>4.227</v>
       </c>
       <c r="G155" t="n">
-        <v>0.725</v>
+        <v>3.157</v>
       </c>
       <c r="H155" t="n">
-        <v>0.851</v>
+        <v>1.777</v>
       </c>
       <c r="I155" t="n">
-        <v>0.845</v>
+        <v>1.761</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -5732,96 +5732,96 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.596</v>
+        <v>0.594</v>
       </c>
       <c r="F156" t="n">
-        <v>0.575</v>
+        <v>0.574</v>
       </c>
       <c r="G156" t="n">
-        <v>0.404</v>
+        <v>0.405</v>
       </c>
       <c r="H156" t="n">
         <v>0.636</v>
       </c>
       <c r="I156" t="n">
-        <v>0.472</v>
+        <v>0.479</v>
       </c>
       <c r="J156" t="n">
-        <v>0.846</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>LR374</t>
+          <t>Pre2020LRavg</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1.007</v>
+        <v>0.8569285714285716</v>
       </c>
       <c r="C157" t="n">
-        <v>0.955</v>
+        <v>0.8779285714285715</v>
       </c>
       <c r="D157" t="n">
-        <v>0.718</v>
+        <v>0.6809999999999999</v>
       </c>
       <c r="E157" t="n">
-        <v>0.31</v>
+        <v>0.3111428571428571</v>
       </c>
       <c r="F157" t="n">
-        <v>0.275</v>
+        <v>0.2591428571428572</v>
       </c>
       <c r="G157" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6354285714285713</v>
       </c>
       <c r="H157" t="n">
-        <v>0.828</v>
+        <v>0.7967142857142858</v>
       </c>
       <c r="I157" t="n">
-        <v>0.625</v>
+        <v>0.6144285714285714</v>
       </c>
       <c r="J157" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5693571428571429</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RF374</t>
+          <t>Pre2020RFavg</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.958</v>
+        <v>0.7722142857142857</v>
       </c>
       <c r="C158" t="n">
-        <v>0.919</v>
+        <v>0.8111428571428571</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6279285714285715</v>
       </c>
       <c r="E158" t="n">
-        <v>0.904</v>
+        <v>0.9026428571428573</v>
       </c>
       <c r="F158" t="n">
-        <v>0.899</v>
+        <v>0.8953571428571429</v>
       </c>
       <c r="G158" t="n">
-        <v>0.095</v>
+        <v>0.08978571428571427</v>
       </c>
       <c r="H158" t="n">
-        <v>0.308</v>
+        <v>0.2993571428571429</v>
       </c>
       <c r="I158" t="n">
-        <v>0.233</v>
+        <v>0.2157857142857143</v>
       </c>
       <c r="J158" t="n">
-        <v>0.973</v>
+        <v>0.9773571428571428</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>NN374</t>
+          <t>Pre2020NNavg</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -5834,28 +5834,28 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.2666785714285714</v>
       </c>
       <c r="F159" t="n">
-        <v>1.004</v>
+        <v>2.334714285714286</v>
       </c>
       <c r="G159" t="n">
-        <v>0.005</v>
+        <v>0.8054642857142857</v>
       </c>
       <c r="H159" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.7558928571428571</v>
       </c>
       <c r="I159" t="n">
-        <v>0.061</v>
+        <v>0.6086428571428572</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>0.6333214285714286</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>Pre2020RNNavg</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -5868,28 +5868,28 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-20.784</v>
+        <v>0.3710000000000001</v>
       </c>
       <c r="F160" t="n">
-        <v>2.98</v>
+        <v>2.8585</v>
       </c>
       <c r="G160" t="n">
-        <v>1.658</v>
+        <v>0.7748571428571428</v>
       </c>
       <c r="H160" t="n">
-        <v>1.288</v>
+        <v>0.7143571428571428</v>
       </c>
       <c r="I160" t="n">
-        <v>1.256</v>
+        <v>0.5746428571428571</v>
       </c>
       <c r="J160" t="n">
-        <v>1</v>
+        <v>0.7039285714285715</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Ensemble</t>
+          <t>Pre2020Ensembleavg</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -5902,96 +5902,96 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.57</v>
+        <v>0.5944999999999999</v>
       </c>
       <c r="F161" t="n">
-        <v>0.548</v>
+        <v>0.5639285714285714</v>
       </c>
       <c r="G161" t="n">
-        <v>0.428</v>
+        <v>0.3735714285714286</v>
       </c>
       <c r="H161" t="n">
-        <v>0.654</v>
+        <v>0.6107857142857143</v>
       </c>
       <c r="I161" t="n">
-        <v>0.481</v>
+        <v>0.4545714285714286</v>
       </c>
       <c r="J161" t="n">
-        <v>0.854</v>
+        <v>0.8326428571428569</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>LR376</t>
+          <t>TransLRavg</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.999</v>
+        <v>0.802</v>
       </c>
       <c r="C162" t="n">
-        <v>0.951</v>
+        <v>0.867</v>
       </c>
       <c r="D162" t="n">
-        <v>0.721</v>
+        <v>0.669</v>
       </c>
       <c r="E162" t="n">
-        <v>0.303</v>
+        <v>0.308</v>
       </c>
       <c r="F162" t="n">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
       <c r="G162" t="n">
-        <v>0.695</v>
+        <v>0.621</v>
       </c>
       <c r="H162" t="n">
-        <v>0.834</v>
+        <v>0.788</v>
       </c>
       <c r="I162" t="n">
-        <v>0.634</v>
+        <v>0.609</v>
       </c>
       <c r="J162" t="n">
-        <v>0.555</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RF376</t>
+          <t>TransRFavg</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.976</v>
+        <v>0.7</v>
       </c>
       <c r="C163" t="n">
-        <v>0.926</v>
+        <v>0.804</v>
       </c>
       <c r="D163" t="n">
-        <v>0.701</v>
+        <v>0.617</v>
       </c>
       <c r="E163" t="n">
-        <v>0.903</v>
+        <v>0.904</v>
       </c>
       <c r="F163" t="n">
-        <v>0.898</v>
+        <v>0.899</v>
       </c>
       <c r="G163" t="n">
-        <v>0.097</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H163" t="n">
-        <v>0.311</v>
+        <v>0.293</v>
       </c>
       <c r="I163" t="n">
-        <v>0.23</v>
+        <v>0.216</v>
       </c>
       <c r="J163" t="n">
-        <v>0.972</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>NN376</t>
+          <t>TransNNavg</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -6004,28 +6004,28 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-3.815</v>
+        <v>0.6705000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>1.283</v>
+        <v>1.117</v>
       </c>
       <c r="G164" t="n">
-        <v>0.428</v>
+        <v>0.125</v>
       </c>
       <c r="H164" t="n">
-        <v>0.654</v>
+        <v>0.348</v>
       </c>
       <c r="I164" t="n">
-        <v>0.625</v>
+        <v>0.296</v>
       </c>
       <c r="J164" t="n">
-        <v>1</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>TransRNNavg</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -6038,28 +6038,28 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>-15.143</v>
+        <v>0.786</v>
       </c>
       <c r="F165" t="n">
-        <v>2.468</v>
+        <v>1.107</v>
       </c>
       <c r="G165" t="n">
-        <v>1.436</v>
+        <v>0.081</v>
       </c>
       <c r="H165" t="n">
-        <v>1.198</v>
+        <v>0.285</v>
       </c>
       <c r="I165" t="n">
-        <v>0.996</v>
+        <v>0.252</v>
       </c>
       <c r="J165" t="n">
-        <v>-1</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Ensemble</t>
+          <t>TransEnsembleavg</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -6072,96 +6072,96 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.577</v>
+        <v>0.602</v>
       </c>
       <c r="F166" t="n">
-        <v>0.556</v>
+        <v>0.579</v>
       </c>
       <c r="G166" t="n">
-        <v>0.422</v>
+        <v>0.357</v>
       </c>
       <c r="H166" t="n">
-        <v>0.65</v>
+        <v>0.597</v>
       </c>
       <c r="I166" t="n">
-        <v>0.482</v>
+        <v>0.454</v>
       </c>
       <c r="J166" t="n">
-        <v>0.851</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Pre2020LRavg</t>
+          <t>Post2020LRavg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.8525333333333335</v>
+        <v>0.8654375000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8768666666666667</v>
+        <v>0.8905</v>
       </c>
       <c r="D167" t="n">
-        <v>0.6798666666666666</v>
+        <v>0.6786875</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3108</v>
+        <v>0.3195</v>
       </c>
       <c r="F167" t="n">
-        <v>0.2596666666666667</v>
+        <v>0.2836875</v>
       </c>
       <c r="G167" t="n">
-        <v>0.6341999999999999</v>
+        <v>0.6343124999999999</v>
       </c>
       <c r="H167" t="n">
-        <v>0.7959333333333335</v>
+        <v>0.7961875</v>
       </c>
       <c r="I167" t="n">
-        <v>0.6138666666666667</v>
+        <v>0.604375</v>
       </c>
       <c r="J167" t="n">
-        <v>0.5686666666666667</v>
+        <v>0.5698124999999999</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RFavg</t>
+          <t>Post2020RFavg</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.7632666666666668</v>
+        <v>0.7893125000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>0.8088666666666667</v>
+        <v>0.8388125000000001</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6257999999999999</v>
+        <v>0.643875</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9016</v>
+        <v>0.9036250000000001</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8941999999999999</v>
+        <v>0.898625</v>
       </c>
       <c r="G168" t="n">
-        <v>0.09053333333333334</v>
+        <v>0.089875</v>
       </c>
       <c r="H168" t="n">
-        <v>0.3006</v>
+        <v>0.299625</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2160666666666667</v>
+        <v>0.221875</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9767999999999998</v>
+        <v>0.973625</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Pre2020NNavg</t>
+          <t>Post2020NNavg</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -6174,28 +6174,28 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2760333333333333</v>
+        <v>-38.362125</v>
       </c>
       <c r="F169" t="n">
-        <v>2.461133333333334</v>
+        <v>3.55515625</v>
       </c>
       <c r="G169" t="n">
-        <v>0.6106333333333333</v>
+        <v>1.0365625</v>
       </c>
       <c r="H169" t="n">
-        <v>0.7128666666666668</v>
+        <v>0.86003125</v>
       </c>
       <c r="I169" t="n">
-        <v>0.5841666666666666</v>
+        <v>0.7960625</v>
       </c>
       <c r="J169" t="n">
-        <v>0.5908333333333332</v>
+        <v>0.45640625</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RNNavg</t>
+          <t>Post2020RNNavg</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -6208,28 +6208,28 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0.232</v>
+        <v>-10.9935</v>
       </c>
       <c r="F170" t="n">
-        <v>3.262799999999999</v>
+        <v>2.145375</v>
       </c>
       <c r="G170" t="n">
-        <v>0.6429333333333332</v>
+        <v>0.8533124999999999</v>
       </c>
       <c r="H170" t="n">
-        <v>0.7280666666666666</v>
+        <v>0.781625</v>
       </c>
       <c r="I170" t="n">
-        <v>0.606</v>
+        <v>0.7208125000000001</v>
       </c>
       <c r="J170" t="n">
-        <v>0.5724000000000001</v>
+        <v>0.457375</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Pre2020Ensembleavg</t>
+          <t>Post2020Ensembleavg</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -6242,96 +6242,96 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5873333333333333</v>
+        <v>0.5891875</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5567333333333333</v>
+        <v>0.5675</v>
       </c>
       <c r="G171" t="n">
-        <v>0.3798666666666667</v>
+        <v>0.3828125</v>
       </c>
       <c r="H171" t="n">
-        <v>0.6158666666666667</v>
+        <v>0.6184375</v>
       </c>
       <c r="I171" t="n">
-        <v>0.4539333333333333</v>
+        <v>0.4585625</v>
       </c>
       <c r="J171" t="n">
-        <v>0.8484</v>
+        <v>0.837625</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Post2020LRavg</t>
+          <t>TotalLRAvg</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.8517777777777779</v>
+        <v>0.8417741596638656</v>
       </c>
       <c r="C172" t="n">
-        <v>0.8845555555555555</v>
+        <v>0.8761932773109243</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6753888888888889</v>
+        <v>0.6771985294117646</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3187777777777778</v>
+        <v>0.3112016806722689</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2826666666666667</v>
+        <v>0.2649296218487395</v>
       </c>
       <c r="G172" t="n">
-        <v>0.632</v>
+        <v>0.6310535714285713</v>
       </c>
       <c r="H172" t="n">
-        <v>0.7947777777777777</v>
+        <v>0.7940892857142858</v>
       </c>
       <c r="I172" t="n">
-        <v>0.6042222222222222</v>
+        <v>0.6116491596638655</v>
       </c>
       <c r="J172" t="n">
-        <v>0.5693333333333332</v>
+        <v>0.566952731092437</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Post2020RFavg</t>
+          <t>TotalRFAvg</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.7802222222222223</v>
+        <v>0.7529863445378152</v>
       </c>
       <c r="C173" t="n">
-        <v>0.8348333333333334</v>
+        <v>0.812297268907563</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6421111111111111</v>
+        <v>0.6265903361344537</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9044444444444445</v>
+        <v>0.9031575630252102</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8994444444444445</v>
+        <v>0.8968130252100841</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08849999999999998</v>
+        <v>0.08868277310924369</v>
       </c>
       <c r="H173" t="n">
-        <v>0.2975</v>
+        <v>0.2975189075630253</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2198888888888889</v>
+        <v>0.2165651260504202</v>
       </c>
       <c r="J173" t="n">
-        <v>0.9742222222222223</v>
+        <v>0.9759306722689075</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Post2020NNavg</t>
+          <t>TotalNNAvg</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -6344,28 +6344,28 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-46.01505555555556</v>
+        <v>-4.159115546218487</v>
       </c>
       <c r="F174" t="n">
-        <v>4.587249999999999</v>
+        <v>2.120144432773109</v>
       </c>
       <c r="G174" t="n">
-        <v>1.530361111111111</v>
+        <v>0.632515756302521</v>
       </c>
       <c r="H174" t="n">
-        <v>0.9495277777777777</v>
+        <v>0.6481759453781514</v>
       </c>
       <c r="I174" t="n">
-        <v>0.8732500000000001</v>
+        <v>0.5387384453781513</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.7021192226890756</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Post2020RNNavg</t>
+          <t>TotalRNNAvg</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -6378,28 +6378,28 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>-50.21733333333334</v>
+        <v>-0.8439411764705883</v>
       </c>
       <c r="F175" t="n">
-        <v>5.656111111111112</v>
+        <v>2.259455882352941</v>
       </c>
       <c r="G175" t="n">
-        <v>2.260222222222223</v>
+        <v>0.5800115546218487</v>
       </c>
       <c r="H175" t="n">
-        <v>1.143944444444444</v>
+        <v>0.5959894957983193</v>
       </c>
       <c r="I175" t="n">
-        <v>1.028277777777778</v>
+        <v>0.4969443277310924</v>
       </c>
       <c r="J175" t="n">
-        <v>-0.1111111111111111</v>
+        <v>0.7481785714285715</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Post2020Ensembleavg</t>
+          <t>TotalEnsembleAvg</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -6412,192 +6412,22 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5865555555555555</v>
+        <v>0.5267647058823528</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5646111111111112</v>
+        <v>0.502016806722689</v>
       </c>
       <c r="G176" t="n">
-        <v>0.3836666666666667</v>
+        <v>0.3247478991596639</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6191111111111112</v>
+        <v>0.5348739495798318</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4593888888888889</v>
+        <v>0.4009243697478992</v>
       </c>
       <c r="J176" t="n">
-        <v>0.8496666666666667</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>TotalLRAvg</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>0.8524074074074074</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.878148148148148</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.6791203703703702</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.3121296296296296</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.2635</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.6338333333333332</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0.795740740740741</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.6122592592592593</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.5687777777777777</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>TotalRFAvg</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>0.7660925925925927</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.8131944444444444</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.6285185185185185</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.9020740740740741</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.895074074074074</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.09019444444444445</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0.3000833333333333</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.2167037037037038</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.9763703703703701</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>TotalNNAvg</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>0</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>-7.439148148148149</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2.815486111111111</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.7639212962962962</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0.7523101851851853</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.6323472222222222</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0.5108796296296295</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>TotalRNNAvg</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>0</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>-8.176222222222224</v>
-      </c>
-      <c r="F180" t="n">
-        <v>3.661685185185185</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.9124814814814814</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0.7973796296296296</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.6763796296296296</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.4584814814814815</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>TotalEnsembleAvg</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>0</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.5872037037037037</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.5580462962962963</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.3805</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0.6164074074074074</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.4548425925925926</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.8486111111111111</v>
+        <v>0.7353781512605041</v>
       </c>
     </row>
   </sheetData>
